--- a/CallTranscripts_Scripts/test.xlsx
+++ b/CallTranscripts_Scripts/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jayashree RAMAN\Documents\DellDocs\Capstone_NLP_DIWD\CallTranscripts_Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF12954-80D8-42D2-B8AF-5E560C77BA30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCA878F-7203-4604-B2F0-4ECA8161E719}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
+  <si>
+    <t>CallTranscriptID</t>
+  </si>
   <si>
     <t>PublishedTime</t>
   </si>
@@ -40,6 +43,39 @@
     <t>title</t>
   </si>
   <si>
+    <t>CT_GOOG_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_GOOGL_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_GE_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_ETN_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_PEP_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_KHC_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_FB_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_MCHP_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_SLAB_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_JPM_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_STT_2018_q3</t>
+  </si>
+  <si>
     <t>Jan. 31, 2019  5:01 PM ET</t>
   </si>
   <si>
@@ -70,9 +106,42 @@
     <t>Jan. 18, 2019  3:17 PM ET</t>
   </si>
   <si>
+    <t>Oct. 25, 2018  9:01 PM ET</t>
+  </si>
+  <si>
+    <t>Oct. 30, 2018 11:20 AM ET</t>
+  </si>
+  <si>
+    <t>Oct. 30, 2018  3:32 PM ET</t>
+  </si>
+  <si>
+    <t>Oct.  2, 2018  2:18 PM ET</t>
+  </si>
+  <si>
+    <t>Nov.  2, 2018 12:25 AM ET</t>
+  </si>
+  <si>
+    <t>Oct. 30, 2018  9:37 PM ET</t>
+  </si>
+  <si>
+    <t>Feb.  7, 2018  1:10 AM ET</t>
+  </si>
+  <si>
+    <t>Oct. 24, 2018  1:40 PM ET</t>
+  </si>
+  <si>
+    <t>Oct. 12, 2018  2:33 PM ET</t>
+  </si>
+  <si>
+    <t>Oct. 19, 2018  4:15 PM ET</t>
+  </si>
+  <si>
     <t>q4</t>
   </si>
   <si>
+    <t>q3</t>
+  </si>
+  <si>
     <t>ETN</t>
   </si>
   <si>
@@ -106,9 +175,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>Eaton Corp. plc. (NYSE:ETN) Q4 2018 Results Earnings Conference Call January 31, 2019 10:00 AM ETCompany ParticipantsDonald Bullock - Senior Vice President of Investor RelationsCraig Arnold - Chairman and CEORichard Fearon - Vice Chairman Chief Financial and Planning OfficerConference Call ParticipantsJeff Sprague - Vertical ResearchJoe Ritchie - Goldman SachsNicole DeBlase - Deutsche BankAnn Duignan - JPMorganNigel Coe - Wolfe ResearchJulian Mitchell - BarclaysDavid Raso - EvercoreSteve Volkmann - JefferiesJeff Hammond - KeyBancAndy Casey - Wells FargoMircea Dobre - BairdAndrew Obin - BofA Merrill LynchRob McCarthy - StephensOperatorLadies and gentlemen, thank you for standing by and welcome to the Eaton Fourth Quarter Earnings Conference Call. For the conference, all the participant lines are in a listen-only mode. There will be an opportunity for your questions and instructions will be given at that time. [Operator Instructions]. I’ll turn the call now to Mr. Donald Bullock, Senior Vice President of Investor Relations. Please go ahead, sir.Donald BullockGood morning. For those of you I’m Donald Bullock, Eaton's Senior Vice President of Investor Relations. Thank you to all of you for joining us for Eaton's fourth quarter 2018 earnings call. With me today are Craig Arnold, our Chairman and CEO and Rick Fearon, our Vice Chairman Chief Financial and planning officer.The agenda for today’s call includes our opening remarks by Craig, highlighting the performance in the fourth quarter, our outlook and our guidance for 2019. As we’ve done on our prior calls, we’ll be taking questions at the end of Craig’s comments today.Before we dive into that, I do want to make couple of quick passing comments. The press release for our earnings announcement this morning and the presentation we’ll go through today have been posted on our website at www.eaton.com. Please note that the press release and the presentation include reconciliations to non-GAAP measures, and a webcast of this call will be accessible on our website and available for replay after today’s call.Before we get started, I do need to remind you that the comments today do include statements related to expected future results of the company and are therefore forward-looking statements. Any results may differ materially from a forecast that could be due to a wide range of risk and uncertainties, and those are described in the earnings release and the presentation, and they will be also outlined in our related 10 Q filing.With that, I’ll turn it over to Craig.Craig ArnoldOkay. Hey thanks, Don. I’ll start on page 3 with highlights of our Q4 results, and I’ll start by saying that I’m very pleased naturally with their report this morning and another very strong quarter performance, which really rounded out our solid year overall.Earnings per share of a $1.46 a share, up 13% from last year, and above the midpoint of our guidance. And this was driven by flows strong growth in sales, as well as higher margins. Sales are actually $5.5 billion in the quarter, an increase of 5% and this includes 7% organic growth and this was above our guidance of 6% for the quarter.Bookings growth in the quarter was also strong, led by double digit growth in both Electrical Systems &amp; Services and in Aerospace. And so we continue to be pleased with our margin performance as well, which increased 100 basis points to 17.4%.We had solid margin performance really across all of the segments and all time record margins in Electrical Systems &amp; Services and in Aerospace. We also generated very strong operating cash flows at $1.1 billion, up 27% and a quarterly record if you exclude the $300 million arbitration payment that we made earlier this year.And lastly, we reported and repurchased $700 million of shares in the quarter, taking advantage of what we saw this frequent pullback in financial markets. And if you’ll recall, we had planned to purchase $240 million in the quarter to achieve our target of $800 million to $1 billion for the year.I’d say for now, you can think about this as an acceleration of purchases and that we were planning to make in 2019. However, if markets remain weak, we’ll certainly take advantage of those opportunities as well and buy at higher levels.Moving to Page 4, you’ll see our financial summary for the quarter. You can read these numbers for sure, but I’ll provide maybe just a bit of context here. First, our operating segment profits increased 11% and we generated strong incremental of almost 40%.Second, segment margins of 17.4% were at the high end of our guidance range, and 100 basis points above Q4, 2017. And finally, our net income as reported was flat with prior year and prior year included income related to the U.S. tax bill, excluding this onetime benefit from Q3 -- Q4, 2017 our net income increased 10%. On page five, we’ll start our segment overviews with electrical products. The revenues grew 3% in Q4 and this includes 5% of organic growth offset by 2% in currency.And this was really a strong finish to the year and in the end it was actually our highest organic growth rate for Electrical Products since Q4 of 2014. As we expected, growth in our lighting business turned positive and was up mid-single digits, while orders increased 3% and this was led by solid growth in the Americas.I’d also note here that our backlog increased 15% and while we generally think about this as a book-and-bill business, this increase does suggest that we didn’t see any unusual pre-buying at the end of the quarter.Segment margins were 18.2% flat with prior year and this was largely a result of some unfavorable product mix between the businesses.Next, we can move to Page Six and a summary of our Electrical Systems &amp; Services Segment. As I noted in my opening commentary, this segment posted excellent results for the quarter. The business continued to strengthen. We posted 10% organic growth in the quarter in with strength across all major end markets.The 10% growth represented an acceleration of growth, which was above our Q3 growth rate of 9% and above the Q2 growth rate which was up 7%. And as you can see we did have some negative impact from foreign exchange and a small divestiture during the course of last year.Orders were even stronger up 12% on strong growth and all major end markets in the Americas, and in EMEA. And I’d say that there’s strong growth in Q4 was against a very strong comp from last year where orders were up 12%.You’ll recall from our Q3 earnings call that we noted a pause in orders during the month of September. We had expected that this was largely project timing and temporary. So things really played out as we expected in this segment.In addition, our backlog continued to increase and was up 13%. So overall, the segment is performing very consistent with what we would expect from this long cycle business. And lastly, segment operating profits were up 19% and we generated all time record margins in this segment of 16.6%, so a very strong quarter across the board.If you turn to page seven, we'll summarize the results of our Hydraulics business. Here, we had another strong quarter of revenue growth with sales up 6%, 8% organic growth offset by 2% negative currency. And we continued to see strength really in mobile and with Industrial OEMs, and Construction and Ag markets and in the distribution channel, so pretty broad based.Orders were down 4%, and I would say here on tough comps and if you recall Q4 2017, our orders were up 25%. In the quarter, we did however see continued strength in Asia with orders up 10%, orders in the Americas were flat, but at very high levels. And we continue to see order weakness in EMEA with orders down some 24% as lead times continue to improve.And I’d also add here, but this was the region where we had our most difficult comp, orders in Q4 of 2017 were actually up 38%. And so we feel once again pretty good overall about the activity levels in the hydraulics business.Our backlog does remain strong; it increased 6% from last year. And turning to operating profits, we increased profit by 15% and our operating margins increased 90 basis points to 13%. So I think the right conclusion here is that we made solid progress in this business, which was held back in some prior quarters by some supply chain issues, but that progress needs to continue and is expected to continue going into 2019.On Page eight, we moved to Aerospace, and the business here is clearly firing on all cylinders. Now begin by noting that growth continues to accelerate in Q4 with organic revenue growth up 13% and this is up from 9% growth in Q3 and 6% growth in Q2.Orders also accelerated, they are increasing 17% with strength in commercial transport military fighters and both commercial and military aftermarket. And our backlog continues to grow up some 13% in the quarter.Now the business here also demonstrated very strong operating leverage with profits increasing 30% and delivering record operating margins of 22.9%. I would add that favorable mix certainly contributed to these record margins as aftermarket revenues continue to perform well, but our team also is doing an outstanding job of executing.Moving to the Vehicle Segment on page 9, we’re also very pleased with how this segment performed in the quarter. Our revenues were down 2% with flat organic revenues, and 2% percent negative FX. The NAFTA Class 8 truck market remained very strong in the quarter and reached 324,000 units for 2018 and this is up some 27%.You’ll recall here that revenues for our automated truck transmission business are now included in the Eaton Cummins joint venture and are not consolidated in our financials. The JV actually had revenue growth up 45% in the quarter. So our business overall is performing extremely well.On the other hand, our global light vehicle production was down in Q4, with North America up modestly offset by slight declines in Europe, and particular weakness as you’ve all heard in China.Despite flat organic revenues, operating profits increased 4% and our operating margins increased 90 basis points to 17.9%. And finishing up our segment summaries, eMobility is on page 10. Organic revenue growth was 11% offset by 1% negative currency.Not unexpected, operating margins declined to 11.3% as we continue to ramp up our R&amp;D spending. You’ll recall that this new segment was created in Q1 of last year. At last year’s investors meeting, we told you that eMobility would become a new $2 to $4 billion offset of our company. And I’m pleased to say that we’re on track. 2018 was a busy year and a year where we ended ahead of schedule.We’re in ongoing discussions with a large number of customers on new programs, and we remain very optimistic about the long term growth outlook for the business overall. We’re ahead of schedule on new product developments. These new products are allowing us to quote on a broader range of opportunities and quite frankly to move from selling only components to selling systems.So we remain very excited about the future of this segment, and the work that our team is doing and what this represents as a growth opportunity for Eaton as we move forward.And before we turn our attention to 2019, I would like to just take a moment to recap some of the key highlights from 2018 now which we see a strong year as a strong year of progress. First, end markets improved allowing us to generate 6% organic revenue growth and this was double the growth rate of 2017 and above our initial estimate for the year, which was 4%. We continued to make good progress on enhancing our margin performance with a 100 basis point improvement and setting an all-time record for the company at 16.8%. As a result, our net income per share of $5.39 when you exclude the $0.48 [ph] impact in the legacy Cooper arbitration decision was up 16% over 2017.And our teams very effectively offset both the impact of tariffs and commodity inflation with incremental price. We generated $3 billion of operating cash flow and this would exclude the $300 million impact from the arbitration payment.This allowed us to return $2.45 billion to shareholders. $1.15 billion in dividends and another 1.3 billion of share repurchases and the 1.3 billion represents 4% of our shares outstanding at the beginning of the year. So, overall very proud of the team. We exceeded our financial commitment to shareholders. We invested in the future of the business and really are building a stronger company.Now turning to 2019. Let me begin by summarizing our growth outlook. Overall, we’re expecting 4% to 5% organic growth, and this is consistent with the outlook that we provided in Q3, 2018 during our conference call.As we take a look at our individual businesses, we expect 4% to 5% organic growth in Electrical products, with continued strength in industrial and large commercial projects. We expect modest growth in lighting, and also modest growth in single phase power quality and small commercial projects.For Electrical Systems &amp; Services, we see 5% to 6% organic growth. And here our backlog is very strong. We expect continued market strength and power distribution assemblies in the Americas and in the datacenter markets globally.We also see modest growth, in both the utility and harsh and hazardous markets. For hydraulics, growth is expected to be 5% to 6% on revenue levels that are already very strong, but we see continued strength in mobile markets in Asia and in North America.And Aerospace markets really are universally strong, and we expect to see 8% to 9% growth on strength in OEM and aftermarket, and really, with both military and commercial customers.Vehicle markets are expected to be flat for both North America heavy duty truck, and global light vehicles. But, both are running at I’d say very high levels, and we expect to see strong growth in the Brazilian truck market. Overall, our organic revenues are expected to be down 2% to 1% for the year, but once again keep in mind, that our revenues for automated truck transmissions are expected to grow and are now apart and reported as a part of the Eaton Cummins joint venture.Finally, we expect eMobility to grow 11% to 12% organically, consistent with a level of growth that we experienced in 2018. And while we’re still a few years away from what we call a major growth inflection point, our optimism for this segment continues to grow as we look forward.Moving on to Page 13, we lay out our margin expectations for 2019. For Eaton overall, we expect segment margins to be between 17% and 17.4%. At the midpoint, this represents a 40 basis point improvement over 2018 and it really places us solidly within the 17% to 18% range that we set as a 2020 goal. And I would add, one year ahead of schedule.And with the exception of new eMobility, we investing – we were investing heavily in product development. Margins are expected to increase in each of our segments, specifically Electrical Products at 18.6% to 19.2%, to a 50 basis point improvement and Electrical System &amp; Services at 15.2% to 15 8%, up 60 basis points. Hydraulics at 14% to 14.6% up 90 basis points. Aerospace at a very strong level already, but at 21.4% to 22% up 70 basis points and Vehicle at 17.4% to 18% up 20 basis points.eMobility as we noted, we’re investing heavily in this segment. Margins will be down to 6.1% to 6.7% from 70 basis points, really just as a function of heavy R&amp;D investment.And on page 14, we pick up the balance of our guidance for 2019. So we expect our full year EPS to be $5.70 to $6 a share. At the midpoint, this represents a 9% increase, excluding the impact of the arbitration decision that reduced 2018 earnings by some $0.48.As we discussed, organic revenue is expected to be up 4% to 5%, but this growth is expected to be partially offset by some $250 million of negative currency translation. We expect our corporate costs, including pension and interest and other corporate items to be flat with 2018 and our tax rate to be between 14% and 16%.This will result in operating cash flows coming in between $3.1 billion and $3.3 billion and we expect CapEx to be $600 million. As I noted, we accelerated some $400 million of share repurchases into Q4. So the target purchases for 2019 are now at $400 million.And for Q1, we expect EPS to be between $1.18 and $1.28, a 12% increase at the midpoint. And for Q1, we also expect organic growth to be approximately 4% to have segment margins between 55 and 59 and a tax rate of between 13% and 14%.So overall, we expect another strong year. And this concludes my opening comments, and I’ll hand it back to you and you can open the line for Q&amp;A.Donald BullockThanks, Craig. Before we go ahead to operator to open it up for questions, I do want to make a couple of comments. First, we do acknowledge today, is a day that has an enormous number of peers out there and earnings announcements. So we are going to hold our call to an hour. To do that, it’s important that you limit your questions to a question and a follow up if you would, so we can be sure to cover everyone’s questions.With that, I’ll turn it over the operator to give instructions.Question-and-Answer SessionOperator[Operator Instructions] Donald BullockOur first question today comes from Jeff Sprague with Vertical Research.Jeff SpragueThank you. Good morning. Thought very solid Craig, I was wondering, if you could provide a little bit of additional color on how you saw things play out during the quarter, obviously the quarter itself was very strong. But we did have that peculiar slowdown in September. Did you see people tapping the brakes in December as the market got wobbly and what are you seeing here in January?Craig ArnoldJeff, I guess you’re referencing largely what we talked about on the Q3 earnings call and Electrical Systems &amp; Service where we did see this pause during the month of September. We’d indicated at the time that we thought that was a temporary pause, that these products do at sometimes tend to be lumpy, and we thought that, that would come back in Q4, which it certainly did.No, I’d say Q4 was really pretty much a consistent quarter. We saw the high level of economic activity really across the quarter, pretty consistent across each of our businesses and as I’d noted, with no real significant, no measurable pre buy at all, as evidenced by the growth in our backlog.And so, I think it was a solid clean quarter across the board, and despite the level of economic uncertainty that’s out there. Activity levels are fairly good, and in through the month of January, we’ve really seen kind of a continuation of that performance. Certainly, in the context of our guidance for Q1, which is a little lighter than the growth rate that we saw in Q4, we do think there is some economic uncertainty out there, which is essentially what we have reflected in our guidance. But by and large, activity levels across our businesses are still quite positive and quite strong.Jeff SpragueThanks and unrelated. Just on tax, Rick. I mean your guidance is pretty straightforward, but we’ve seen a couple of companies getting hit by this IRS change and deductibility of interest. Is that an issue for you or a wild card or is that fully encapsulated in your guide?Richard FearonIt’s fully baked into our guide. One of the reasons that the tax rate jumps from roughly around 13% to 15% in 2019 is because we’re reflecting the implications of all these regulations that came out last year, some of which, I think surprise some companies. But we had anticipated that they would come out largely as they did. So that’s why we’re comfortable with this 14% to 16% range for 2019.Jeff SpragueGreat. Thank you.Donald BullockOur next question comes from Joe Ritchie with Goldman Sachs.Joe RitchieThanks. Good morning guys. So Craig, maybe just on the EPS range. $0.30 wide versus kind of like typical is closer to $0.20. Maybe, can you just give us some insight into why you expanded the range, and what market conditions have to be in place to drive you to that towards the higher end or the lower end of the range?Craig ArnoldYes, I would suggest Joe that don’t really over read or read much into the fact that the range is a little bit wider. I mean, I think it’s as our EPS in absolute dollar terms increases the percentage and the range will naturally widen a little bit. But I’d say that, for us, the big variables as we look forward into 2019 that could potentially influence whether you’re on the low end or the high end of the range. It’s largely a function of what happens with our end markets.Right now, I said we’re feeling fairly good. It was a strong fourth quarter, coming in stronger than what most had expected ourselves included. And so I think, it’s really a function of how end markets perform going into 2019, and to what extent some of the geopolitical kind of concerns that the world we’re dealing with in various kind of countries around the world get resolved.But I wouldn’t read anything into the fact that the range has been opened up a little bit. We’re feeling very good about kind of you know the company’s performance overall and degrees of freedom that we have around things that we can do in the event of a little bit of an economic slowdown. So I would not over read that at all.Joe RitchieCraig that said, that’s good to hear. And I guess my follow on, you guys cited power distribution assemblies and data centers as strong growers in 2019. I think data centers are up high single digits. This is though a little at odds with some of the announcements we’ve heard from some of the chip makers, so maybe talk a little bit about like the strength that you’re seeing in data centers that makes you feel good about the prospects for 2019.Craig ArnoldYes. I mean the data center market I’d say if you look at the long term trend of what we’ve been seeing in general, the whole world generates and consumes more and more data. I think it’s pretty compelling for the long term growth prospects. We saw strong double digit growth in 2018 and as well as a lot of major projects being announced. And so, as we think about data centers in general, while on the hyperscale side of the market, it can be somewhat lumpy. We do think that what we’re looking at in the form of an existing backlog and projects, that were in the pipeline, that the numbers that we’re talking about for 2019, which is kind of mid-single digit growth are very much in line with what we have visibility to.I think the chip maker piece is perhaps one that’s a little bit more nuanced in terms of whether or not that’s a direct proxy for what we’re seeing specifically in the data center market, as a lot of the big data center companies are actually in many cases vertically integrating and doing a lot of this work themselves as opposed to relying upon third parties.But now we feel very good about the data center market and about how we’re positioned and about the number of projects that have already been announced. And so we think it’s going to be another strong year.Joe RitchieOkay. Great, thanks Craig.Donald BullockOur next question comes from Nicole DeBlase at Deutsche Bank.Nicole DeBlaseMorning guys.Craig ArnoldMorning, Nicole.Nicole DeBlaseSo I guess maybe starting with the 1Q outlook, it seems to me like the step down to 4% organic growth could be a little bit of conservatism reading between the lines of what you said in response to Joe’s question. But I guess, maybe thinking about from a segment by segment perspective, where the step down is coming from?Craig ArnoldYes, I’d say that as we take a look at Q1, we’re certainly seeing a step down in the growth rate. I’d say principally and Electrical Systems &amp; Services is one of the big drivers and hydraulics, I’d say would be another one and then also in Aerospace. So those would be the three big ones that I’d say that’s a relative step down in the growth rate.And I think, largely the way we think about it in the call is the way I answer the question earlier is that, there is a lot of economic uncertainty out there whether it’s Brexit or the funding of the U.S. government or trade disputes with China. And so, we think given the level of uncertainty that’s still out there in Q1 that you could largely see a little bit of a pause in economic activity until some of these major structural issues are resolved there.And that’s kind of what’s baked into our forecast. Could it be conservative, it could be, but given kind of just a level of economic uncertainty out there, we think it’s prudent to plan for these issues to at least extend through Q1 and be resolved at some point and we think all of that logic is baked into our guidance for the year of growing some 4% to 5%.Nicole DeBlaseOkay understood. Thanks Craig. And I guess, maybe my second one just around hydraulics. So one of your big distributors talked about solar power demand stepping down a bit in the last two weeks of December. Curious about that, as well as a confidence in the outlook for China Mobile to remain strong just because I think Cat is looking for more like kind of a flattish equipment environment in China in 2019?Craig ArnoldYes, I know China has continued to -- maybe I’ll deal with that one first before I get to the distributor one. China has continued to perform extremely well. If you take a look at excavator sales in Q4, and [Indiscernible] sales excavator, sales are up more than 20% in Q4.Vehicle [ph] order sales up more than 10%. And so the China construction equipment market at least in terms of looking at the public data continues to perform extremely well and our business does as well. And so, we think as we look into 2019, we do think that growth rates are moderate, but we still think that we see growth in the China mobile market specifically going into 2019 and that’s kind of consistent with what we’re hearing from many of our customers.And quite frankly, Eaton in the region we’ve done extremely well in terms of new wins and gaining some market share on platforms and that also influences our thinking as well.But in terms of the distribution market, I can’t really speak to one distributor in one part of region. I would say that, our hydraulics business in Q4, we had growth of organic growth of 8% and that growth was pretty even throughout the quarter. And so, we felt very good about the growth rates and we did not see generally speaking, or here generally speaking of any slowdown that took place at the end of the year. It wouldn’t surprise me that there is a distributor someplace who saw a slowdown someplace. But more broadly speaking, our business continued to perform well.Nicole DeBlaseUnderstood. Thanks Craig.Donald BullockOur next question comes from Ann Duignan with JPMorgan.Ann DuignanYes. Hi good morning. Maybe Craig, maybe you could dig a little bit deeper into some of your end markets and give us some color in terms of where you’re seeing the strength and looking particularly maybe Electrical Products, which specific industrial markets, which some segment of commercial projects and then likewise maybe power distribution. Just so we get some color as to what’s going on out there.Craig ArnoldYes and I’d say that in the beginning with Electrical Products. One of the things we noted was lighting business returned to natural growth. It’s been a business that obviously we were taking some strategic steps to work through some specific market segment issues, and so that business for us returned to growth in Q4. And we think the outlook for lighting going into 2019, is that business will continue to grow low to mid-single digits.We think that the single phase power quality business, another business that grew mid-single digits in Q4. We had order growth that was a little better than that actually in Q4. And so that market continues to do well, and then largely the power distribution components, a lot of what we sell in the component side goes into small and large commercial projects in general. And so when you think about some of the growth that we see today in our Electrical Systems &amp; Services businesses, mainly most of the components that support that business come through our Electrical Products business, and some of that goes to distribution is aftermarket as well. And so that business continues to do well.So we saw generally speaking, pretty decent growth as I mentioned the strongest growth that we’ve seen since 2014 in Electrical Products and the orders are performing solidly. And so, we think that market continues to have a decent year in 2019.In Electrical Systems &amp; Services and it’s really as I mentioned almost strength across the board. Large industrial projects, commercial projects, those markets continue to perform extremely well, and you see many of the same data streams that we see, non-res construction numbers continue to be up strongly mid-to-high single digits. The Dodge non-res contracts on -- were up 23% in dollars in Q4, and on a square footage basis up 10%.And so we’re really seeing strength in most of the non-res construction markets and as we talked about in data centers hyper scale and data centers in general had very strong results, up strong double digits in 2018 and we think a little bit of moderation in that growth rate as we move into 2019, but still strong growth.And so we think in general, these businesses continue to perform very well and that no real evidence of any economic slowdown at this point. And so we’re feeling very good about 2019.And then [Indiscernible] what your own guess is another one of those segments that’s been a lot of stuff talked about, but we had very good growth in Q4 and our [Indiscernible] business up, strong, single digits, high single digits. And so that business as well despite a little bit of pullback in oil and gas prices at the end of the year, we saw some recovery in December. And so we think that market also continues to grow going into 2019.Ann DuignanOkay, that’s good color. I appreciate that. And then just to follow up on that sustainability of aerospace margins. I mean we know it’s great that high margins in aerospace, but we also know we have to be investing in the future, so can you just talk Craig maybe about the near-term maybe positive mix versus the longer term. You need to be on the next platform in order to sustain those high margins?Craig ArnoldAbsolutely, and appreciate the question. I think there’s two things that are really driving the high margins in aerospace. I think one, it is the fact that aftermarket is continuing to perform extremely well. In better than most I mean at the end of the day, you make most of your money in aerospace and aftermarket, and an aftermarket is performing extremely well both in commercial and in on the military side.The other thing that I’d say that we and others are getting a real benefit from right now is really what you alluded to and it’s the fact that we’re in a bit of a pause period as an industry in terms of new programs.We went through a massive refresh over the last 10 years, and most of these new programs are actually going into service at this point in time, and the next, by the time you get to the next generation, the next refresh you’re probably 5 years to 10 years out. And so I do think that our aerospace margins will continue to be at very high levels for the next number of years and until we get to the point where we have the next round of major investments required for the next generation of commercial and/or military aircraft.And so, we are investing in the future. We’re doing a lot of investments in offline technology development to be ready, for insertion to get to a technology readiness level that says that we’re ready to participate on the new platforms. But I say it’s really those two things that are really benefiting our business as well as very strong execution by our operational teams.Ann DuignanRight. Thank you. I leave it there. I appreciate there.Donald BullockOur next question comes from Nigel Coe with Wolfe Research.Nigel CoeThanks guys. Good morning.Craig ArnoldHi.Nigel CoeSo, what a difference [Indiscernible]. I’m just trying to understand the turnaround in ESS because it feels like there’s probably economic concerns in the U.S. than there was back in September, October. So I'm wondering what are you hearing from fields, your sales, engineers, customers whatever in terms of what cause the pause and why there risk now? And maybe just in terms commenting on creep activity this quarter pull ahead a price increases as such. Did you see any of that? And could that explain some of this pressure?Craig ArnoldI’d say – Nigel, I appreciate the question. We spend the fair amount of time talking about Q3 e</t>
   </si>
   <si>
@@ -139,6 +205,36 @@
     <t xml:space="preserve">State Street Corporation (NYSE:STT) Q4 2018 Earnings Conference Call January 18, 2019 10:00 AM ETCompany ParticipantsIlene Fiszel Bieler - IRRon O'Hanley - CEOEric Aboaf - CFOConference Call ParticipantsGlenn Schorr - EvercoreKen Usdin - JefferiesBrennan Hawken - UBSAlex Blostein - Goldman SachsBetsy Graseck - Morgan StanleyBrian Bedell - Deutsche BankMike Carrier - Bank of America Merrill LynchJim Mitchell - Buckingham ResearchBrian Kleinhanzl - KBWMike Mayo - Wells Fargo SecuritiesGerard Cassidy - RBCSteven Chubak - Wolfe ResearchGeoffrey Elliott - AutonomousVivek Juneja - JP MorganOperatorGood morning and welcome to the State Street Corporation's Fourth Quarter of 2018 Earnings Conference Call and Webcast. Today's discussion is being broadcast live on State Street’s website at investors.statestreet.com. This conference call is also being recorded for replay. State Street's conference call is copyrighted and all rights are reserved.This call may not be recorded for rebroadcast or distribution in whole or in part without the express written authorization from State Street Corporation. The only authorized broadcast of this call will be housed on the State Street’s website.Now, I would like to introduce Ilene Fiszel Bieler, Global Head of Investor Relations at State Street.Ilene Fiszel BielerGood morning and thank you all for joining us. On our call today, our CEO, Ron O'Hanley will speak first, then Eric Aboaf, our CFO will take you through our fourth quarter and full year 2018 earnings slide presentation, which is available for download in the Investor Relations section of our website, investors.statestreet.com. Afterwards, we'll be happy to take questions. During the Q&amp;A, please limit yourself to two questions and then re-queue.Before we get started, I would like to remind you that today’s presentation will include results presented on a basis that excludes or adjusts one-on-one items from GAAP. Reconciliations of these non-GAAP measures to the most directly comparable GAAP or regulatory measure are available in the appendix to our slide presentation.In addition, today’s presentation will contain forward-looking statements. Actual results may differ materially from those statements due to a variety of important factors such as those factors referenced in our discussion today. Our forward-looking statements speak only as of today and we disclaim any obligation to update them even if our views change.With that, let me turn it over to Ron.Ron O'HanleyGood morning, everyone. As you know, this is my first opportunity to address you since becoming State Street’s CEO at the start of 2019. Let me turn to slide 3. We announced our fourth quarter and full year 2018 financial results this morning and I want to start by providing some context in terms of the overall environment, addressing our performance and then importantly, focus the bulk of my comments outlining what we’re going to do differently going forward. Market dynamics are changing for our clients. The shift from active to passive means thinner fees as well as more competition amongst managers who are increasingly challenged to outperform their peers and consequently face lower volumes and thinner fees themselves. The resulting margin compression for investment managers has led them to increase pressure on their providers. Asset owners, facing inadequate returns, are similarly pressuring providers to do more for less. In turn, these same clients need better technology and streamlined operations to increase their ability to generate alpha more efficiently and reduce operating costs. Given these headwinds for our clients, we are adapting strategically to become increasingly more competitive, offer greater functionality and be the essential partner to our clients. I have made it clear to my colleagues at State Street and want to make it clear to you, we want to better drive our own destiny and more effectively manage our exposure to market headwinds. That means change, real change that I will talk about today and in the year ahead. Year-over-year, our revenue growth in the fourth quarter was driven by strong performance in net interest income and FX trading as well as the contribution from the recently acquired Charles River development business. We are encouraged by the continued interest we are seeing in CRD with a total of 98 client engagements since announcing the deal. These positive trends were offset by unfavorable market conditions, including the significantly down markets during the fourth quarter and ongoing fee compression, which impacted our servicing fee revenues. Assets under custody and administration decreased quarter-over-quarter, reflecting lower equity market levels and client transitions. Fourth quarter new servicing business wins were 140 billion. Additionally, at quarter end, AUCA yet to be installed totaled approximately 385 billion. At 1.9 trillion for the full year of 2018, we experienced a record level of new servicing wins. State Street Global Advisors was also impacted by the market environment as our business has a disproportionate exposure to equity markets and other risk on asset classes, such as high yield. Assets under management decreased quarter-over-quarter, primarily driven by weaker equity markets as well as institutional and cash outflows, partially offset by ETF net inflows. While SSGA results are not yet where we would like them to be, we have been working to diversify our business mix, leverage relationships across State Street and fill in offerings as we take advantage of the shift from products to solutions. These offerings include asset allocation, exposure management and outsourced CIO as well as demand for a range of ETF products. For example, this quarter, we saw good organic growth in our European ETFs and our low cost US ETFs and remain confident that our strategy of targeted growth in areas such as ETFs, OCIO and other multi asset solutions and ESG, just to name a few, will drive future growth.Regarding our overall bottom line performance simply put, we need to and can do better. That means reigniting servicing fee growth in a sustainable way, reducing costs across our organization and building upon the advances that we have made in digitization and automation. Collectively, this means being faster and smarter about how we deliver solutions that solve our client's greatest challenges. Our capital position is strong. Moreover, we are optimistic the balance sheet repositioning actions completed during 2018 better position us for the 2019 CCAR cycle, supporting stronger levels of capital return for our shareholders.In light of our recent results and ongoing industry dynamics, we are taking immediate action on expenses to ensure that we become a more efficient organization for our clients and shareholders alike. I have implemented a firm wide hiring freeze for all non-critical roles. We are rolling out a rigorous new performance management system and are structurally compressing and reducing the senior management pyramid by 15%, while improving spans and reducing layers across the bank by 25% to create a more agile and accountable organization. These actions are enabled by the beacon work and the consolidation of work into our global hubs. Thus, we are confident in our ability to execute quickly. In fact, initial reductions have already occurred. Additionally, we are focused on addressing inefficiencies across our entire expense base and have launched a new cost savings program that will continue through 2019 to reduce structural expenses, while also enabling us to invest in the business appropriately. As part of that program, which Eric will cover shortly, we recorded a 223 million pretax repositioning charge, the benefits from which we expect to fully realize within 12 to 15 months.Let me turn to slide 4. Slide 4 outlines my vision for State Street. We intend to be the leading asset servicer, asset manager and data insight provider to the owners and managers of the world’s capital. This vision will be driven by five strategic priorities. One, we will increase core fee growth by becoming an essential partner to our clients, gaining share of wallet and building enduring institutional relationships. The issues faced by our clients have moved services, technology and operations to the C suite agenda. Thus, we are upgrading our client coverage model to meet these needs. These changes, including new senior leadership, are already underway.Two, we must deploy the industry's leading front to back asset servicing platform as a technology driven scale provider. Three, we will continue to innovate to grow diversified revenue streams, including new markets and NII opportunities. Four, we must generate structural expense saves by automating key processes to reduce unit costs and by leveraging our global hubs and scale among other initiatives. And five, become a more high performing organization through flattening our structure, increasing the speed of decision making and evolving our employees’ skill base around our technology and data priorities.Executing against the strategic vision will require concerted action and select investments, which I'm driving forward across the business. At the same time, we need to do more to improve performance in the short term, which is evidenced by our actions announced today.And with that, let me turn it over to Eric to take you through the quarter in more detail.Eric AboafThank you, Ron and good morning, everyone. Before I begin my review of our fourth quarter and 2018 results, I'd like to take a moment on slide 5 to discuss notable items and how they impacted our financials. In 4Q 18, we recognized 223 million of pretax repositioning costs, consisting of severance and real estate write offs. This charge is in response to the challenging industry conditions and includes the organizational streamlining and de-layering actions that Ron announced last month. I'll have more to say on how we are tackling expenses later in the presentation, including details in our new 350 million expense initiative announced today.In addition, we also had 24 million of acquisition restructuring costs related primarily to Charles River, which was below our original estimate, 24 million related to the sale of a small alternative servicing business in the Channel Islands and 50 million of legal and related costs. In total, we recognized notable items of 321 million pretax or $0.64 a share.On page 6, we show our GAAP results in the top two panels as well as our results ex the notable items I just described for those of you who want to see some of our underlying trends. On this basis, we didn't achieve our fee operating leverage goal, but we did deliver a positive operating leverage overall in 2018.Now, moving to slide 7, 4Q18 EPS of $1.04 was down 44% quarter-on-quarter, but up 17% year-over-year, primarily reflecting the impact of our 4Q18 repositioning charge and the 4Q17 tax reform costs. For the full year 2018, our GAAP EPS of $6.40 was up 22% over 2017.Looking at 4Q18, return on equity was down 6.5 percentage points sequentially, primarily related to the quarter's notable expense items. For the full year 2018, ROE was up 1.6 percentage points from full year 2017. Overall, we saw growth in both EPS and ROE on a full year basis, driven by NII growth through active balance sheet management and higher interest rates, FX trading, where we continue to gain share, the acquisition of CRD and lower taxes. We are however disappointed by our performance in several of our fee businesses and I'll describe the drivers and our additional actions on the next few pages. Turning to slide 8, our end of period AUCA and AUM levels were significantly impacted by the sharp sell-off in equity markets during the end of the fourth quarter as well as the cumulative effect of industry flows in the past year. As you know and as we have summarized on the right side of this page, global equity markets were down 6% to 17% in 2018, after posting double digit gains in 2017. At the same time, cumulative industry flows were dramatically down after significant inflows during last year and client transaction activity was muted, as investors sat on the sidelines. As a result, we saw AUCA levels fall 7% quarter-on-quarter and 5% year-on-year, while AUM levels fell 11% and 10% respectively.Moving to slide 9, I want to spend some time unpacking total revenues, which were up 1% quarter-on-quarter and up 5% year-on-year. Servicing fees, shown in the dark blue piece of the stacked bar on the left side of the page were down 4% quarter-on-quarter and 7% year-on-year. Let me give you some color. On both the sequential quarter and year-over-year basis, we had a 2 to 3 point reduction in servicing fees due to falling global equity markets. In addition, we've recently been seeing industry pricing pressure of about 1 percentage point per quarter over the last year. The cumulative effect has caused a material year-on-year downdraft in servicing fees. And we also had one previously disclosed client transition, which was worth about 2 percentage points year-on-year, which was offset by net new business and client activity. To put these numbers in context, the long term appreciation in equity markets has typically lifted servicing fees on average by about 2 percentage points annually over the last 5 years. Positive client flows and client transactional activity have added another 2 percentage points annually and net new business has also generated 2 percentage points of annual growth, all of which have been partially offset by typical pricing headwinds of just under 2 percentage points annually. This year has been particularly challenging though, since we've seen twice the average historical pricing headwinds. Without the tailwind of market appreciation nor client flows and activity that are inherent in our pricing structure. We have thus undertaken meaningful initiatives to combat these headwinds, such as upgrading our client coverage program and strengthening pricing discipline through our new pricing governance process. And since we need to focus on what we can control, we are even more resolute that we need to actively manage our expense base lower, which I'll discuss further in a few minutes.Turning to slide 10, let me briefly discuss our other fee revenues. Beginning with management fees, 4Q revenue was up 5% year-on-year, primarily driven by revenue recognition adoption, but down 7% quarter-on-quarter, driven by lower equity markets as well as net outflows in our equity focused institutional business. SSGA continues to focus on expanding our relationships and product categories that offer higher margin. 4Q FX trading services saw continued strong performance, up 19% year-over-year, driven by higher FX volumes and volatility. We continue to differentiate our FX offerings with clients, driven by the breadth and depth of our capabilities. 4Q securities finance revenues were down 6% quarter-on-quarter and 18% year-on-year, reflecting lower assets on loan and lower spreads as clients de-leverage and industry demand fell. I would note that the business continues to evolve after the CCAR related counterparty adjustments. We've navigated these changes quite smoothly in FX, but continue to work through the effects in agency lending. Finally, we saw a significant step up in processing fees with the addition of CRD for the first time in our fourth quarter financials. We continue to be excited by the acquisition, we're pleased with its performance and remain confident in our previously announced revenue and cost synergies.As you can see, on the lower right of the slide, CRD saw net new bookings of 14 million for 4Q18. We have announcer our new client advisory board and delivered higher than expected fourth quarter revenues of 121 million on 39 million of expenses. We also incurred 18 million of amortization costs and 24 million of acquisition costs associated with CRD this past quarter. While CRD is enjoying real momentum, I would caution you against simply annualizing these 4Q results, given the lumpiness inherent in the 606 revenue accounting reporting standard.Now on to slide 11, we saw continued NII growth and NIM expansion during the fourth quarter. Our NII was up 4% quarter-on-quarter due to the Fed hikes we saw in September and December as well as a one-time benefit of approximately 6 million from hedging activities. 4Q NII was up 13% year-on-year, driven by higher US interest rates and discipline liability pricing, while NIM expanded 7 basis points quarter-on-quarter and 17 basis points year-on-year. As you can see on the bottom right of the slide, our average level deposits remained fairly steady and our betas remained similar to last quarter at just over 50%. We were also pleased to see an increase in our lending activity during the quarter. All of this bodes well for a full year 2019.Now turning to expenses, as we indicated earlier in the call, we are extraordinarily focused on managing expenses in this challenging revenue environment. I'll start by summarizing our expenses on an underlying basis, excluding notable items in Charles River and then discuss our efforts during 3Q and 4Q to keep our second half expenses flat to the first half on that basis. I'll then summarize the new expense savings program we just announced today.Beginning on slide 12, you can see that our underlying basis 4Q18 expenses were up 5% year-over-year and 1% sequentially, driven largely by the year-over-year adoption of the new revenue recognition accounting standard as well as technology investments. From a line item perspective, and relative to 4Q17, comp and employee benefits were well controlled, increasing just 1%, reflecting technology contractor and annual merit increases, partially offset by beacon savings and lower performance based incentive compensation, given our disappointing results.Information systems increased reflecting infrastructure enhancements as well as additional investments to support growth. Transaction processing costs were down as we renegotiated sub-custodian savings for a second quarter in a row. Occupancy costs were down as a result of continued progress in optimizing our global footprint.Now turning the slide 13, as the extent of the challenging revenue conditions became clear last spring, we committed to actually managing our quarterly expenses, so as to keep second half expenses flat to first half on an underlying basis. As you see on the left side of this page, we deliver on this commitment, but we know we need to do more. On the right side of the page, we summarize the progress in our Beacon savings, which totaled 245 million in 2018 as well as additional tactical actions and savings, which included a down payment on our 2019 program. These savings include the start of management de-layering, contracts under savings, the renegotiation of certain sub-custodial relationships and better control of discretionary spending.Now to slide 14, in light of our current macroeconomic and industry conditions impacting revenues, we have launched a significant new expense savings program. In total, this program is designed to achieve 350 million of in year expense savings during 2019 or approximately 4% of our expense base, which is larger than our previous efforts. On the right side of the page, you'll see the two major categories we've identified, resource discipline and process engineering and automation, with expected savings of approximately 160 million and 190 million respectively.Resource discipline includes a previously announced 15% reduction in senior management, the rollout of a more rigorous performance management system to better control headcount and further vendor management savings and the continued tackling of our real estate footprint. Process engineering and automation benefits are expected to include the reduction of approximately 6% of our workforce or 1500 roles in high cost locations. Staffing assessments were recently done as part of our shift to a more globalized model and we are now able to take further advantage of automation, and standardized processes and lower cost per person. We also intend to streamline three operational hubs and two joint ventures as well as continue the drive towards common technology platforms and the retirement of legacy applications. The initiation of certain portions of this program results in the 4Q repositioning charge that I mentioned, which we described in the left side of the page. Even though this charge is good payback, we know we need to reduce the size of these charges going forward, which is why we've rolled out a new performance management system and headcount control.Moving to slide 15, our capital ratios ended the year, similar to those of a year ago with tier 1 leverage of 7.2% and a standardized set 1 of 11.5%. We also undertook certain balance sheet and counterparty actions in the fourth quarter to be better positioned for the 2019 CCAR process. As you see on the left side of the page, we shifted the investment portfolio during 4Q to further increase the percentage of HQLA securities and adjusted the held to maturity holdings, thus reducing the associated AOCI volatility to our capital under stress.This portfolio rebalancing, including turning over about 10% of the book and is not expected to have a negative impact on further NII growth. Lastly and consistent with our previous announcement, we will resume share repurchases this month and intend to repurchase up to 600 million through June 30, 2019.Turning now to slide 16, I'd like to focus on our 2019 outlook. Before I start though, I'd like to first share some of the assumptions, underlying our current views. At a macro level, we are assuming continued, albeit slowing global growth. Market interest rates forward and only a modest uplift from equity markets, but with continued volatility, which will keep investor flows muted and transactional activity light.I would note that this operating environment is materially worse today than it was just 45 days ago when I presented at the Goldman Conference. Since then, we've seen a significant selloff in equity markets for the year end 2018 with the US equity indices down almost 10% in December versus the first two months of the fourth quarter. This sell off has put a material drag on our quarterly fee revenue run rate since it is geared off of the 2018 year end step off of AUCA and AUM levels. And over the same period, the rates picture has markedly changed too, with the consensus moving from two Fed hikes in 2019 to nearly none.Amidst this uncertain revenue environment, we will be laser focused on expenses. As you can see in the walk, we believe we can achieve approximately 4% in productivity saves, driven by our larger than usual 2019 expense program, which includes both resource discipline and process re-engineering improvements, partially offset by an approximately 3% of ongoing business and necessary IT investments. This should yield a net 1% reduction in 2019 total underlying cost, aside from the full year effect of CRD and notable items.In addition, given the severe market environment, we currently expect to reduce expenses 2 percentage points from 4Q18 to 1Q19, excluding seasonally deferred compensation via our recent hiring freeze and senior management exits. While material percentage of our revenues informed by markets and not in our control, we can control expenses. We will intervene further if necessary.Turning to fee revenue, with the December market selloff and increased volatility, there is a scenario where 1Q19 total fee revenue could be down quarter-on-quarter by 3 to 4 percentage points, driven by known factors including the market step off, the higher than historical pricing headwinds and the fiscal effects of lumpy revenues in CRD and trading. And because of the year end 2018 step off, even with a modest linear uptick in equity markets during 2019, we could see this 1Q fee revenue as our quarterly run rate for several quarters.At this point, we’re operating the company under this scenario and we see sustained market uplift or further retreat, however, this picture could change. For example, in terms of market sensitivity, a 5 percentage point instantaneous uplift in markets is worth about 25 million per quarter to our servicing fee revenue with a lag of half a quarter. In regards to NII, we expect to see low to mid-single digit growth for the year. For 1Q, we expect a downtick, which would be fully accounted for by two fewer days and the absence of the 4Q episodic hedging benefits I mentioned earlier. Taxes should be in the 15% to 16% range for the year, though we expect 1Q19 to be higher at 18%. And finally, given the balance sheet repositioning undertaken in the fourth quarter, we are optimistic that we are better positioned for the 2019 CCAR process, subject of course to the Federal Reserve scenarios and associated approvals. Depending upon the specific CCAR scenarios, we would expect to target a total payout of over 80% for the upcoming CCAR cycle.Finally to slide 17, in summary, full year 2018 was a mixed year. We had a solid start to the year with record new servicing wins of 1.9 trillion, which reflects our distinct servicing capabilities. Revenues started strong, but we had a difficult second half, given our exposure to weaker equity markets and challenging industry conditions. We continue to distinguish ourselves in FX trading as well as how we've effectively driven NII growth, as we've engaged with clients. All told, EPS increased 22% and ROE increased 1.6 percentage points. On the capital front, we are better positioned for the 2019 CCAR cycle and one of our top priorities is to return substantial capital to shareholders this year.Finally, as I outlined a few moments ago, we are taking immediate action to adjust our expense base for this new revenue environment and we're confident the actions we announced today position us well to reduce our 2019 underlying expense base, relative to last year.And with that, let me hand the call back to Ron.Ron O'HanleyThanks, Eric. Operator, we can now open the call to questions.Question-and-Answer SessionOperator[Operator Instructions] Your first question comes from the line of Glenn Schorr with Evercore.Glenn SchorrFurther comment on the pricing, because I think we all get that the market drops and so fee start out lower. That's, I don't think a surprise at this point. The worst pricing, what I'm curious about is, how it manifests itself, in other words, I think you used the phrase this year, I mean, this year is like 2 weeks old. So are we talking about each new contract that comes up as it comes up and it kind of rolls over like the next five years, I just wanted to get -- understand a little bit more about what's new about the -- because pricing has gone down like the last 30 years straight?Ron O'HanleyThis is Ron. Let me start on that and then Eric will probably want to say something on it. The way pricing works in there or historically has worked in this business and particularly for us since our business is disproportionately for asset managers is that when you reprice, there are some assumptions built in around market and as importantly around flows. I mean, if you serve asset managers, you get the business and then over time it accumulates. We've gone through -- the industry has gone through a very large number of repricings for all the reasons that I've outlined earlier in terms of the pressure that clients are under and those same assumptions, at least on our part have been applied and I assume on everybody else’s part. We had a year of very sharp down market and as importantly no flows. So between the volume of pricing and the fact that the usual kind of assumptions haven't yet played out, that's what's led to one, our results, particularly towards the latter half of 2018 and second for our outlook. Now, it's obviously -- we have to, as part of the pricing discipline that we've talked about, we’re rethinking these assumptions in terms of market and how much, if at all, to rely on flows, but that's really what we're referring to here.Do you want to add anything?Eric AboafYeah. Glenn, I’ll just add that historically we've seen pricing headwinds for decades in this business, just part of the underlying assumptions or some pricing headwinds offset by flows and activity and market appreciation, as well the structure the contracts are set up and those have historically been in the 1.5% to 2% range. Literally, over the last half decade, we've gone back a decade and we've got that history. We've seen closer to 4% headwinds this year. And if we think about the coming year, we expect about the same. That said, we've been renegotiating our contracts, right, and extending term. We've been putting in place some clarity around expectations on volumes and market levels and so forth. And while we're a bit more than halfway through those contract negotiations, the negotiations happen, then the fee changes occur and then we actually have to live through that. So we're just a bit below the majority of what we are going to need to live through and that's just part of what we have to navigate. I will say that the fee headwinds tend to hit a little more in the earlier part of the year than the latter part, just because of the kind of calendarization. And so that's incorporated in our forecast. The net is that, at the end of the day, this is part of our industry. We feel like this is a wave, it's a larger wave than we've seen in the past and -- than usual – and we think there will be some reversion to the mean. But that said, it strengthens our resolve that we've got to work on expenses. We've got to take expenses out, we've got improved productivity and we've got to adjust our cost structure to be in line with what the revenues are that we can earn.Glenn SchorrThat actually leads to just my other follow-up is, if you could talk about the timing and ramping of, say, both the cost save program, because it's more headcount than comp focused and then also, while we're at it, the timing and ramping of the one, but not yet funded pipeline, because those could be partial offsets as well obviously.Eric AboafYeah. Let me start on the expense side, because that's, I've been putting a lot of my time personally with Ron and the management team on that and I think you saw in my prepared remarks, I gave you a sense of what we expect to do in terms of expenses for the year on an underlying basis, down 1% and because we've been intervening month by month and quarter by quarter, we expect total expense to be down on an underlying basis by about 2 percentage points from 4Q to 1Q. But we're trying to just adjust and that just comes in stepwise the increments. I think at the same time, there are some ramping of some of the ongoing investments that we need to do and so that's what -- that's what will get the lines to meet at about that 1% down for the year. But, we're trying to peel off expenses, we've got a relatively fixed cost base, so we've got to take it down in steps and at the same time, we got to do it carefully, so that we continue to serve our clients well and deliver the services in the highest quality manner.OperatorYour next question comes from the line of Ken Usdin with Jefferies.Ken UsdinHey, Eric, I was wondering if you could help us flush out the point you made about not run rating CRD? And can you help us understand just what your expected contribution would be, if possible, both on the revenue side for more of a full year ‘19 basis and also on the cost side? I think what you've given us is the underlying on the expense, but it would be helpful if you could give us a sense of how you're thinking about the CRD adds? Thanks.Eric AboafSure. Let me describe CRD in a little more detail and I think we provided the fourth quarter P&amp;L here on page 10 of the materials. Think about it this way, revenues have a seasonality in CRD, because of the kind of natural calendarization that happens in sales, in a software oriented business and I think you'll see that in most of the software business that you or some of your colleagues may cover. We disclosed that we -- that the fourth quarter is typically 30% to 35% of full year revenues, that's a rough amount. It will vary a bit, but that's probably at least something to start with and so part of the guidance I gave on total fees for 4Q to 1Q includes the natural downtick that you’d see after that fourth quarter seasonal position. And I think you can kind of build models off of that.In terms of expenses, these are first quarterly expenses, </t>
   </si>
   <si>
+    <t xml:space="preserve">Alphabet, Inc. (NASDAQ:GOOG) Q3 2018 Earnings Call October 25, 2018  4:30 PM ETExecutivesEllen West - Alphabet, Inc.Ruth Porat - Alphabet, Inc.Sundar Pichai - Alphabet, Inc.AnalystsEric J. Sheridan - UBS Securities LLCDaniel Salmon - BMO Capital Markets (United States)Anthony DiClemente - Evercore Group LLCMark Mahaney - RBC Capital Markets LLCBrian Nowak - Morgan Stanley &amp; Co. LLCDouglas T. Anmuth - JPMorgan Securities LLCRoss Sandler - Barclays Capital, Inc.Michael Brian Nathanson - MoffettNathanson LLCHeather Bellini - Goldman Sachs &amp; Co. LLCBrent Thill - Jefferies LLCJustin Post - Bank of America Merrill LynchOperatorGood day ladies and gentlemen, and welcome to the Alphabet Third Quarter 2018 Earnings Call. I'd now like to turn the conference over to Ellen West, Head of Investor Relations. Please go ahead.Ellen West - Alphabet, Inc.Thank you. Good afternoon everyone and welcome to Alphabet's third quarter 2018 earnings conference call. With us today are Ruth Porat and Sundar Pichai. Now I'll quickly cover the safe harbor. Some of the statements that we make today may be considered forward looking including statements regarding our future investments, our long-term growth and innovation, the expected performance of our businesses and our expected level of capital expenditures.These statements involve a number of risks and uncertainties that could cause actual results to differ materially. For more information, please refer to the risk factors discussed in our Form 10-K for 2017 filed with the SEC. Undue reliance should not be placed on any forward-looking statements and they are made based on assumptions as of today. We undertake no obligation to update them.During this call, we will present both GAAP and non-GAAP financial measures. A reconciliation of GAAP to non-GAAP measures is included in today's earnings press release. As you know we distribute our earnings release through our Investor Relations website located at abc.xyz/investor. This call is also being webcast from our IR website where a replay of the call will be available later today.And now I'll turn the call over to Ruth.Ruth Porat - Alphabet, Inc.Thank you, Ellen. Our revenues in the third quarter continued to benefit from ongoing strength in mobile search with important contributions from YouTube, cloud and desktop search, resulting in consolidated revenues of $33.7 billion, up 21% year-on-year and up 22% in constant currency.For today's call, I will begin with the results for the quarter on a consolidated basis for Alphabet focusing on year-over-year changes. I will then review results for Google followed by Other Bets and will conclude with our outlook. Sundar will then discuss business and product highlights after which we will take your questions.Starting with a summary of Alphabet's consolidated financial performance for the quarter, our total revenues of $33.7 billion reflect a negative currency impact year-over-year of $385 million or $305 million after the impact of our hedging program.Turning to Alphabet revenues by geography, you can see that our performance was strong again in all regions. U.S. revenues were $15.5 billion, up 20% year-over-year. EMEA revenues were $11 billion, up 20% year-over-year. In constant currency terms EMEA grew 19%. APAC revenues were $5.4 billion, up 29% versus last year and up 30% in constant currency. Other Americas revenues were $1.8 billion, up 19% year-over-year and up 28% in constant currency, reflecting weakening of the Brazilian real and the Argentine peso.On a consolidated basis, total cost of revenues including TAC, which I'll discuss in the Google segment results, was $14.3 billion, up 28% year-on-year. Other cost of revenues on a consolidated basis was $7.7 billion, up 36% year-over-year, primarily driven by Google-related expenses. The key drivers were costs associated with our data centers and other operations including depreciation which continue to be affected by a reallocation of certain operating expenses and content acquisition costs, primarily for YouTube.Operating expenses were $11.1 billion, up 26% year-over-year. Once again the biggest increase was in R&amp;D expenses, reflecting our continued investment in technical talent. The growth in sales and marketing expenses reflects increases in sales and marketing head count primarily for cloud and ads followed by advertising investments in cloud, Chromebooks for the back-to-school season and the Google Assistant.G&amp;A expense trends in the third quarter were affected by a number of factors. In particular, the performance fees accrued in connection with recognition of equity security gains which were again partially offset by the reallocation of certain expenses from G&amp;A primarily to other cost of revenues.Stock-based compensation totaled $2.2 billion. Headcount at the end of the quarter was 94,372, up 5,314 from last quarter. Consistent with prior quarters, the majority of new hires were engineers and product managers. In terms of product areas, the most sizable head count increases were in cloud for both technical and sales roles.Operating income was $8.3 billion, up 7% versus last year for an operating margin of 25%. As discussed in the previous two quarters, both operating income and OI&amp;E are affected by the new accounting standard that changes the way companies account for equity security investments. This new standard continues to result in greater volatility. Once again, we've provided a table in our earnings press release to highlight the impact on particular line items.Other income and expense was $1.8 billion which includes $1.4 billion of gains in equity security investments. We provide more detail on the line items within OI&amp;E in our earnings press release.Our effective tax rate was 8.8% for the third quarter, reflecting discrete items, notably an adjustment associated with the U.S. Tax Act. Net income was $9.2 billion and earnings per diluted share were $13.06.Turning now to CapEx and operating cash flow. Cash CapEx for the quarter was $5.3 billion which I'll discuss in the Google segment results. Operating cash flow was $13.2 billion with free cash flow of $7.9 billion. We ended the quarter with cash and marketable securities of approximately $106 billion.Let me now turn to our segment financial results, starting with the Google segment. Revenues were $33.6 billion, up 21% year-over-year. In terms of the revenue detail, Google sites revenues were $24.1 billion in the quarter, up 22% year-over-year.In terms of dollar growth, results were led again by mobile search, with a strong contribution from YouTube followed by desktop search. Network revenues were $4.9 billion, up 13% year-on-year reflecting the ongoing momentum of AdMob and programmatic.Other revenues for Google were $4.6 billion, up 29% year-over-year fueled by cloud and Play. We continue to provide monetization metrics in our earnings press release to give you a sense of the price and volume dynamics of our advertising businesses.Total traffic acquisition costs were $6.6 billion or 23% of total advertising revenues and up 20% year-over-year. Total TAC as a percentage of total advertising revenues was relatively flat year-over-year, primarily reflecting a favorable revenue mix shift from network to sites, offset by an increase in the sites' TAC rate. The increase in the sites' TAC rate year-over-year was driven by changes in partner agreements and the ongoing shift to mobile, which carries higher TAC. This quarter, we experienced a year-on-year decline in the network TAC rate due to a combination of factors, none of which were individually significant.Google stock-based compensation totaled $2.1 billion for the quarter, up 23% year-over-year. Operating income was $9.5 billion, up 11% versus last year. And the operating margin was 28.2%. Accrued CapEx for the quarter was $5.6 billion, reflecting investments in production equipment, data center construction and facilities.Let me now turn to Other Bets. Revenues were $146 million, primarily generated by Fiber and Verily. Operating loss was $727 million. Other Bets' accrued CapEx was $55 million. In terms of Other Bet updates for the quarter, with Waymo in the third quarter, we built on our early rider program, both expanding the group of participants and beginning to test pricing models.At Verily, the team continues to execute on its various partnerships with leading pharmaceutical companies, consistent with its mission to move medicine from reactive to proactive. Recently launched efforts include a joint venture with ResMed to focus on sleeping disorders and a research collaboration with Gilead.Finally, you can see in our results the benefit and quality of our investment teams GV and CapitalG which are also within Other Bets. Within the $1.4 billion of reported gains in equity securities in OI&amp;E, approximately $400 million was realized in Q3. There will be more detail on these investment activities in the 10-Q.Let me close with some observations on the quarter and our longer-term outlook. First, with respect to revenues. In the third quarter, results reflect FX headwinds with U.S. dollar strengthening in contrast to the tailwinds that enhanced reported results in the first half of the year. We continue to be pleased with the underlying momentum in our advertising businesses as we apply our strength in machine learning to improve the experience for users and advertisers. As we noted, hardware was only a modest contributor in the third quarter as we launched a new Made by Google family of products for the fourth quarter holiday season.Second, with respect to profitability, within cost of revenues, the biggest component is TAC. We indicated on the fourth quarter 2017 call that the pace of year-on-year growth in sites TAC as a percentage of sites revenues would begin to slow after the first quarter of 2018, and you can see that again clearly in our results this quarter. As frequently discussed, we do expect the sites TAC rate to continue to increase year-on-year reflecting ongoing strength in mobile search. Looking ahead, we expect seasonal impacts to our other cost of sales from hardware sales which are typically higher in the fourth quarter of the year as well as from increased content acquisition costs for YouTube, which have also historically been higher in the fourth quarter.Within OpEx, we continue to prioritize our investments to support long-term growth. In terms of head count, growth was seasonally higher in the third quarter because we brought on new graduates. We are continuing to invest in adding talent to our priority areas, particularly for technical roles in engineering and product management and to support our most sizable growth areas, in particular, cloud.As I've mentioned previously regarding sales and marketing, expenses are more heavily weighted toward the back half of the year. As you have seen in prior years, these expenses are particularly elevated in the fourth quarter to support the holiday season.Other Bets remains a portfolio of earlier stage businesses focused on addressing sizable markets. We are moving toward early stages of commercialization, while continuing to calibrate the pace of investment against achievement of key milestones.And finally, with respect to CapEx, you can see our continued investment as we build the infrastructure needed to support the opportunities we see across our businesses. This includes a number of datacenter construction projects in flight as well as ongoing expansion in our compute capacity.I will now turn the call over to Sundar.Sundar Pichai - Alphabet, Inc.Thanks, Ruth. We had a great quarter, and it was particularly special because last month, we celebrated Google's 20th birthday and the 10th birthday of Chrome. It's exciting to think that 20 years in, we are still just at the beginning of what's possible. We get billions of questions from users every day and about 15% of those are queries we have never seen before.Our mission to make the world's information accessible and useful is as relevant today as when we started. I want to begin by highlighting our recently launched family of hardware. It's a great example of how we bring together Google's strengths to help people through their day. Then I'll touch on ways AI is helping us approach our mission. I'll give an update on our video and advertising platforms. And finally, I'll talk about our growing cloud business.First, hardware. Every year, we have a new opportunity to push the boundaries of computing. Those experiences come to life in our Made by Google hardware, which combines the latest advances in software, hardware and AI. Our third generation is our best yet. It includes the Pixel 3, Google Home Hub, the Pixel Slate tablet and more. We're getting great feedback, and I'm very excited for users to try these devices, especially as the holiday season approaches.Our new hardware lineup showcases the best of Google, including the Google Assistant, Android and Chrome. With the Pixel 3, we've used AI to create a best-in-class camera. New features like top shot make it so you never miss a shot. If your timing wasn't perfect, the camera will suggest a better frame and give you the option to save it. And Night Sight will help you take really good pictures even in bad light.Pixel 3 also has a custom security chip called Titan M. It was built to secure Google's own datacenters and now we are bring it to our users. We also released Google Home Hub, our first smart speaker with a screen. It shows your morning commute, lets you control your smartphone and gives you hand-free help in the kitchen, and Pixel Slate, Chrome OS reimagined as a tablet with all the great apps from the Play Store.Our hardware efforts are picking up real momentum. For example, daily active users of our Google Home devices have grown by over 5x in the last year alone. I'm incredibly proud of our growing hardware team, including the talented employees who came over from HTC and Nest. Our investments are paying off as we bring the best of Google to more users and in more countries around the world.Even as we build up our hardware business, we continue to advance our mission across our core products and platforms. Last month, we kicked off 20 years of Google search by introducing some of the biggest updates in many years. They include a new AI powered ranking approach that delivers more relevant results, a redesigned Google feed called Discover to help you stay informed on topics that matter to you and a new search experience for Google images.We also continue to tackle the information problem of connecting people to relevant jobs right from search. This has already helped connect to over 100 million people in 92 countries to job listings that meet their needs and skills. Now U.S. service members can search for jobs for veterans and enter their military occupational code to see relevant civilian jobs.The Google Assistant continues to gain traction, drawing on our strengths in machine learning and helpful Google services like search, YouTube and Maps. We have expanded the Assistant to 20 languages and 76 countries and it can now understand and speak more than one language at a time. We launched our first set of smart displays with Lenovo and JBL as well as our own Google Home Hub.Pixel users in the U.S. will be the first to try our new duplex technology which helps you complete real-world tasks over the phone like calling a restaurant to book a table and we introduced a new way to easily book ride services with your Google Assistant. In Maps, we also made several improvements including a commute tab with live traffic and transit information and support for mixed-mode commutes.Earlier this month, we announced an exciting test called Project Stream. We are working with video game publisher Ubisoft to stream their latest game, Assassin's Creed Odyssey to Chrome browsers on laptops and desktops. Streaming graphically rich content for video games represents a great technical advance and we look forward to seeing what's possible here.I'm particularly proud of our strengths in AI are creating life-changing contributions in other fields. For example, our recent flood prediction efforts, which use AI to better predict when floods will occur had the potential to help millions of people get out of harm's way. We are starting in India, where 20% of flood-related fatalities occur today, and we're looking to expand to more countries soon.Earlier this month, our research has showed how they've applied deep learning models to improve the accuracy of diagnosis for metastatic breast cancer. Our research found that pathologists and AI can work together more effectively than either alone.Moving to our video and advertising platforms, which are creating economic opportunities for partners around the world. First YouTube. One particular area of focus is educational content. Every day people from all over the world turn to YouTube to learn something new from career skills to coding to cooking. Just this week, we announced a $20 million investment to expand our YouTube Learning initiative which will help fund established and emerging educational careers. We're also partnering with organizations like Goodwill and Year Up to create curated playlists that teach career skills directly in our new learning channel.YouTube's Ask business continues to provide great results for marketers and creators. At Advertising Week, we announced that we'll be expanding our popular TrueView for actions format. This helps users take action directly from video ads. They can now do things like sign up for a newsletter and soon they'll be able to find movie show times, download apps or even book a trip right from the app. For creators, YouTube is continuing to build alternative revenue products like Super Chat, channel memberships and the ability to sell merchandise directly to fans.YouTube gaming creator, Marquis player (19:55), increased its revenue by 20% using channel memberships. We continue to see positive traction for our newest subscription experiences too. YouTube Premium YouTube TV and YouTube Music Premium are continuing to expand to many new countries. The team is also investing in growing and improving the news experience on YouTube. More prominently surfacing credible news sources on the platform is a big priority for us.Next, our advertising platforms. Advertisers love that we are bringing our machine learning strengths to offerings like responsive search ads and universal App Campaigns to create more effective ads. One new example is Smart Shopping Campaigns which use signals like seasonality and price to optimize where ads are shown. Tens of thousands of advertisers are using this and seeing an average of 20% more sales for the same budget.Just last week we announced that Nike, Best Buy and Sephora are joining our Shopping Actions program. This allows people to move seamlessly from browsing to buying with a universal card that works across Google search and our system.In apps, we announced a partnership with Unity Technologies, which gives our advertisers access to one of the largest global networks of mobile gaming titles across 1.5 billion devices. Unity's developers can monetize their apps with Google ads without any additional development work.And lastly, our growing cloud business. At Google Cloud Next, we made over 100 announcements including the Titan security key, which features Google designed firmware to help verify that nothing on a customer's key has been tampered with. And we expanded our breakthrough Cloud AutoML portfolio, which now includes vision, natural language and translation.And all over the world we are seeing great customer adoption of our Cloud Platform. With help of SAP, Metro, one of the largest B2B wholesalers globally, is centralizing their finance system on Google Cloud Platform. They're using BigQuery to generate data-driven insights to help create more personalized marketing campaigns.In the U.S., we partnered with the National Institutes of Health to provide access to cloud services that help researchers access large datasets to accelerate biomedical advances. We also added new customers like ING and Broadcom, joining existing customers like PayPal, ANZ Bank and Kroger.Our G Suite business continues to fuel transformation in companies large and small and we crossed two important milestones in the quarter. Google Drive became the eight Google product with 1 billion monthly active users. And Gmail now has more than 1.5 billion monthly active users.One of our big wins in the quarter was Fast Retailing, the Japanese retailer best known for its popular brand UNIQLO, which is migrating its employees globally to G Suite, while also pursuing AI solutions like on-demand forecasting on Google Cloud Platform. Our cloud business is benefiting from our investments in technical infrastructure including a U.S.-Europe cable that will improve speeds for millions of people.Before I wrap up, I want to quickly call out our continued momentum in Asia as well as the investments that we are making in the U.S. As you can see from our results, revenue growth in APAC remains strong. This is a reflection of our very focused efforts to build great experiences for the billions of people across the region. We have adapted many of our core products like search, Maps and YouTube to work well for the next generation of users coming online.We're also building products to meet the specific needs of users in the region like Tez, a digital payments app for India, to help people easily pay their electrician or split it in a bill with just a few taps. Just one year since it launched, over 30 million people in businesses across India now use the app every month and they've collectively made more than 1 billion transactions. We have recently rebranded the app to Google Pay as we look to bring many of the app's features to others around the world.We are also investing closer to home. In Q3, more than 80% of Alphabet's total capital expenditures was within the U.S. Not only do these investments in datacenters, machines and offices allow us to provide great services to users, they have a strong positive impact on the communities around them, supporting thousands of jobs and countless local businesses. This year-to-date we have added over 9,000 new employees in the U.S. and we continue to grow faster outside the Bay Area than in it.As you can see, there's exciting momentum across many different areas. I'm constantly struck by the number of incredible opportunities ahead of us as a company and how far we have come over the last 20 years. I want to say a big thank you to all of Googlers around the world who help us deliver on that mission every day.With that, I'll hand it back to Ruth.Ruth Porat - Alphabet, Inc.Thank you, Sundar, and we will now take your questions.Question-and-Answer SessionOperatorAnd our first question comes from Eric Sheridan of UBS. Your line is now open.Eric J. Sheridan - UBS Securities LLCThanks for taking the question. Maybe two for Sundar if I can. Referencing the blog post and some of the changes about how you see the future of search, I wanted to know what some of the key investments you think the company needs to make so that search becomes more visual or relevant and what that might mean tying it back to the business for engagement with your products relevant to that medium to long term.And then with respect to your comments on YouTube, we're starting to hear from advertisers that there is some blurring between brand and direct response ad budgets as they look at products maybe more across blended lines. It sounds like the YouTube announcements coming out of Adweek were about making YouTube more responsive or more direct response. How are you thinking about the blurring of those lines and what it means for product development long term? Thanks so much.Sundar Pichai - Alphabet, Inc.Thanks, Eric. I'll take the two. The first on search. You're right that search, we are always trying to anticipate what the user experience expectations are and trying to meet them there. And increasingly in mobile, people do want immersive engaging experiences. They want their experiences to be more visual and that's partly what you saw us announce in our 20th birthday event. And we are excited to move in that direction.And I do think we have a lot of important assets to bring here. YouTube is a big part of what we do. We are investing in image search and we do have products like Google Maps and Photos which all add to the visual experience. And as part of doing that, we are investing in our advertising offerings as well. And so over time, we'll adapt that so they go hand-in-hand. But I think it's an important evolution for us.In terms of YouTube, I think part of what makes YouTube great is I think we can offer different opportunities for advertisers. We've always felt direct response is something that can work well on YouTube. And our instinct is bearing out. And I look at my personal use cases that are many times now sometimes instead of search, actually find something I want to do in YouTube, maybe thinking about going to a place. And I research it on YouTube. So I think it offers the same opportunity over time. And from our standpoint, we want to make sure that we are evolving the product to bring those opportunities to advertisers. So I'm very excited by it.Eric J. Sheridan - UBS Securities LLCThank you.OperatorThank you. And our next question comes from Dan Salmon of BMO Capital Markets. Your line is now open.Daniel Salmon - BMO Capital Markets (United States)Good afternoon, everyone. Sundar, two questions for you. First, earlier this month or it might have been late last month, Sridhar Ramaswamy, your Head of Ads and Commerce left to go to a VC firm. I'm betting that wasn't a surprise to you, but I'm just hoping you could shed a little light on sort of succession planning for that important role and whether or not you expect any sort of broad changes to ad product strategy.And then second, just amongst those announcements on the anniversary were the evolution of Feed to Discover. And I recognize that's an evolution of a product, but it does look like you're taking advantage of that long unused white space on google.com. And so, just love to hear a little bit more, just sort of a follow-up on Eric's question on the evolution of search, but how you see that surface in particular evolving and particularly the potential for ad monetization over time. Thanks.Sundar Pichai - Alphabet, Inc.Good. On the first one, look I mean we, one of the things I'm really proud about Google is we have a deep bench of talent and for example in the ads team almost all of our senior ads leadership has been here for well over a decade. And so for us, we are fortunate to be able to tap into it.Our ads leadership comes – Prabhakar who has taken over our ads product and engineering efforts, someone I worked with for many, many years, and most recently has led our G Suite business, but has done many roles before, is a deep computer scientist. And I expect to, for him to continue our tradition of technical excellence with the – approach our advertising work. Also want to mentioned Philip and his team, his extraordinary team, who definitely lead many of our initiatives here. And Philip and Prabhakar, with them I think it's in great hands. And I expect a lot of continuity there.On your question on search and Discover, it's in addition to making search more visual, one of the things we are very, very focused on is not always do users turn to us and actually ask a question. So we feel our job is to be there when users need us, anticipate what they want and sometimes proactively meet them. That's where services like Discover really play a role. Right? And I think we are thinking hard about how we can surface relevant information for our users, stuff they are really looking for, can act on, in a way in which it's delightful for them and is showing up for them when they need it.So I see that as an important evolution of search as well. And so you're going to see us investing more. Mobile offers us a great opportunity. And if you use it in Pixel 3, that's the latest product in which we bring our vision of how to bring all these products together and we'll give you a good sense of how we plan to do that over time.Daniel Salmon - BMO Capital Markets (United States)Great. Thank you.OperatorThank you. And our next question comes from Anthony DiClemente of Evercore ISI. Your line is now open.Anthony DiClemente - Evercore Group LLCGreat. Thank you for taking my questions. First for Sundar, you spent some time on hardware. You spent time discussing your suite of hardware devices, the Google Assistant, the Pixel. How are you measuring the returns on those investments in hardware, both in the products and on the marketing side here in a pretty competitive marketplace? What are the milestones for success that we should be looking for on hardware?And then for Ruth, as we start to look ahead to 2019, as you plan for 2019, how are you thinking about the relationship between revenue growth and dollars of operating income growth for next year, particularly if the macroeconomic environment were to become, let's say, less of a tailwind to the broader ads environment as it was this year and in prior years? Thank you.Sundar Pichai - Alphabet, Inc.On hardware, we always want to be at the forefront of computing. And so, and a lot of times that involves thinking across the whole stack, bringing together the entire experience in an integrated way for our users. And we genuinely see a very differentiated way to do this. We think of our approach of bringing together AI software and hardware is unique and we think we can deliver the best-in-class experience and we are committed to doing it. At the same time, we want to build a great business here as well. So we are investing in the long run because we see it clearly as an important business opportunity for us as well, so both go hand-in-hand.We closely look at metrics, and the metrics we have been very focused on for the last couple of years. This is our third generation of hardware. It's the first time we actually are doing our products end-to-end, and we've expanded to newer categories. We look at user feedback and reception. We measure NPS scores. And our scores are now reflecting best-in-class in the category. And beyond that, we're looking at how the market adoption is and we are thoughtfully building a business but we are committed to building and investing for the long run.Ruth Porat - Alphabet, Inc.And in terms of how we're thinking about planning, we're in the middle of it now. And many of the questions sort of been already asked sort of point to the direction that we feel really good about the underlying strength in the ads business as we've talked about on numerous calls. We continue to invest here because we see ongoing opportunities in particular as we leverage machine learning to provide better experience for users and for advertisers. And some of the comments that Sundar made about the opportunities that open up with visual search again continue to point the direction direct response, continue to point to some of the underlying areas in which we're focused.But as we've talked about on prior calls, that's one element of it, and we continue to invest for opportunities that are sizable over the long term. Sundar has already commented on both hardware and cloud as really important examples, and we think the steps that we're taking, the investments we're making, provide the foundational support for ongoing long-term sustained growth. And so then we marry that with the second part of your question, which is in how do we think about the pace of investment. As we've said repeatedly, we're very focused on investing for the long term. We're trying to make sure that we prioritize crisply across the opportunity set that we have and we make the right types of trade-offs but we do remain focused on long-term investing given the scale of the opportunities that we see.Anthony DiClemente - Evercore Group LLCGot it, thank you.OperatorThank you. And our next question comes from Mark Mahaney of RBC Capital Markets. Your line is now open.Mark Mahaney - RBC Capital Markets LLCThanks. Two questions please. One, Sundar, could you just update us with your thinking on China and the China market and the extent. I know Google is already in that market, but the extent to which you want to expand, re-expand your presence there with search.And then in terms of Waymo, just a quick question. Commercialization of Waymo, do you know when, </t>
+  </si>
+  <si>
+    <t>General Electric Co. (NYSE:GE) Q3 2018 Earnings Call October 30, 2018  8:00 AM ETExecutivesTodd Ernst - General Electric Co.H. Lawrence Culp, Jr. - General Electric Co.Jamie S. Miller - General Electric Co.AnalystsJeffrey Todd Sprague - Vertical Research Partners LLCCharles Stephen Tusa - JPMorgan Securities LLCScott Reed Davis - Melius Research LLCAndrew Kaplowitz - Citigroup Global Markets, Inc.Nicole DeBlase - Deutsche Bank Securities, Inc.Julian Mitchell - Barclays Capital, Inc.Nigel Coe - Wolfe Research LLCDeane Dray - RBC Capital Markets LLCAndrew Burris Obin - Bank of America Merrill LynchSteven Winoker - UBS Securities LLCJohn Walsh - Credit SuisseJoe Ritchie - Goldman Sachs &amp; Co. LLCJohn G. Inch - Gordon Haskett Research AdvisorsChristopher Glynn - Oppenheimer &amp; Co., Inc.Justin Laurence Bergner - Gabelli Funds LLCOperatorGood day, ladies and gentlemen, and welcome to the General Electric third-quarter 2018 earnings conference call. At this time all participants in a listen-only mode. My name is Brandon and I will be your operator for today. As a reminder, this conference is being recorded. I would now like to turn the program over your host for today's conference Todd Ernst, Vice President of Investor Communications please go aheadTodd Ernst - General Electric Co.Thank you, Brandon. Good morning, everyone. Welcome to GE's third quarter earnings webcast. I'm joined this morning by our Chairman and CEO Larry Culp, and CFO Jamie Miller. Before we start, I'd like to remind you that the press release, presentation, supplemental and 10-Q have been available since earlier today on our Investor website at www.ge.com. Please note that some of the statements we are making today are forward-looking statements and are based on our best view of the world and our businesses as we see them today. As described in our SEC filing and on our website, those elements can change as the world changes.And now, I'll turn the call over to Larry. Larry.H. Lawrence Culp, Jr. - General Electric Co.Todd, thanks. Good morning, everyone, and thank you for joining us. We have a lot to share with you, so let's get to it. During the third quarter, we saw positive results in most segments with outstanding performance in our Aviation (01:36-02:19)Now, I know there's been renewed speculation on our future strategic direction. The strategy we announced on June 26 to create a more focused portfolio that sets up our businesses to win and strengthening our balance sheet is today the right plan going forward.Consistent with this strategy, we are announcing two actions this morning. First, GE plans to reduce its quarterly dividend from $0.12 to $0.01 per share beginning with the board's next dividend declaration, which is expected to occur in December 2018. This change will allow GE to retain about $3.9 billion of cash per year compared to the prior payout level. Going forward, we will target a dividend payout ratio in line with peers over time.Second, we will take a materially different approach to running our Power business. The past 30 days, I've spent a lot of time with Russell Stokes and his team. It has become clear to us that we need to simplify the business structure. Therefore, today, we are announcing our intent to reorganize Power into two units, both of which will report directly to me. The first is a unified Gas lifecycle business combining our product and services group gas power systems and power services with the second constituting the portfolio of Steam, Grid, Nuclear, and Power Conversion.Additionally, we intend to consolidate the Power headquarters, Gas Power systems and Power Services teams into the new Gas lifecycle business, effectively eliminating the Power headquarters structure. We have much more to do to improve our performance in Power and we intend to move quickly to enhance our execution agility and improve our cost structure.These actions are a start in bolstering GE for the road ahead. In the last month, I have visited many of our primary business locations. Getting to know this company better from the inside has only strengthened my conviction that GE has considerable strengths. The talent here is real. The technology is special. And the global reach of the GE brand and our relationships are truly impressive.But GE needs to change. Our team knows this. In my old job, we acquired dozens of good but often underperforming businesses. And we always came prepared to convince the acquired teams that they and we needed to drive change. That is not the case here. Our GE team needs no convincing.They really want direction to know how to change. And while I don't have all the answers after one month, I do have a few early impressions. We could use a lot more out and a good bit less up around here, meaning we need to focus more on customers and competition and, frankly, less on corporate.We're going to strike a better balance between managing and reporting so that we ensure we're properly focused on the daily operating rhythms, which drive our actual financial results well ahead of our reporting cycles. Strong daily management makes reporting a lot easier. First things firstAnd we need to accelerate our progress on cash generation. Changes to our compensation system and internal reporting this year were a good start, but we need to operationalize real improvements on cash through business processes in every business, every day.And with that, let me turn it to Jamie for a more detailed discussion of the quarter.Jamie S. Miller - General Electric Co.Thanks, Larry. I'll start with our consolidated quarterly performance. Orders were strong at $31.4 billion, up 7% reported and 13% organically. This was driven by equipment orders, which were up 22% organically and services up 5%. Revenues were down 4%, with Industrial revenues down 5%. Organically, Industrial revenues increased 1% driven by Renewables, Aviation, Healthcare, and Oil &amp; Gas.Industrial profit, which includes Corporate, was down 23% reported and 17% organically, driven by declines in Power and Renewables, partially offset by solid growth in Oil &amp; Gas, Aviation and Transportation. Industrial profit margins were 8.1% in the quarter, down 180 basis points year-over-year on a reported and organic basis, driven by declines in Power and Renewables. Year-to-date, margins were down 50 basis points organically.Net earnings per share was negative $2.62 which includes income from discontinued operations related to GE Capital. Adjusted earnings per share was $0.14 and I'll walk the GAAP continuing EPS to adjusted EPS on the right-hand side of the page. Starting from GAAP continuing EPS of negative $2.63, we had $0.01 of gains, principally from the sale of Value-Based Care, partially offset by held-for-sale marks in Lighting, Aviation and Power.We also booked multiple impairments this quarter related to Power. The first was goodwill. As disclosed previously, we had a thin margin between fair value and carrying value for both Power Generation and Grid. And in the third quarter, both businesses failed their goodwill impairment test, which required us to fair value the assets of the businesses with any remaining value being allocated to goodwill.The size of the charge results from the significant value associated with the unrecognized legacy assets, principally our profitable services backlog, long-standing customer relationships and our gas turbine technology. And the value of these assets essentially squeezed out any remaining room for goodwill.Based on our best estimate, we booked a charge of $22 billion, $19 billion related to our Power Gen reporting unit and $3 billion related to Grid. Most of the $22 billion charge is related to the Alstom acquisition, which occurred in the fourth quarter of 2015. We will true this up in the fourth quarter as it gets finalized.Also, the SEC expanded the scope of its ongoing investigation to include the goodwill charge. The Department of Justice is also investigating this charge. And the other areas that we have previously reported are part of the SEC's investigation. We are cooperating with the SEC and DOJ as they continue their work on these matters.On restructuring and other items, we had $0.05 of charges related to intangibles and long-lived assets in Power Conversion where we continue to restructure the business in the face of market challenges. We also incurred $0.06 of restructuring, principally in Corporate and Power, $0.02 of charges related to BD transactions and $0.01for our share of Baker Hughes GE's restructuring. Lastly, the remaining $0.01 related to an unrealized mark associated with our equity investment in Pivotal. Excluding these items, adjusted EPS was $0.14 in the quarter.Moving to cash, adjusted Industrial free cash flow was $1.1 billion for the quarter and negative $300 million year to date. Income depreciation and amortization totaled $1 billion after adjusting for the $22 billion non-cash goodwill impairment. Working capital was negative $100 million for the quarter as we had a small build in inventory ahead of fourth quarter shipments offset by increased payables volume. Contract assets were a use of cash of $100 million, and we spent $900 million in gross CapEx or $600 million ex Baker Hughes GE.On the right-hand side of the page, you can see the walk of the GE cash balance. We ended third quarter with $9.1 billion of cash in bank excluding Baker Hughes GE. And a few highlights: we generated cash proceeds of $3.2 billion related to businesses' positions, principally Industrial Solutions and Value Based Care. We assumed $6 billion of debt from GE Capital to fund the principal plan. And $2.4 billion of other cash includes investing activity in our Aviation business from the first half of the year, derivative settlements and FX on our cash, and a few other items.While our businesses are generating cash flow along with expectations, it's clear that with respect to Power the issues will persist longer and with deeper impact than we had initially expected which will cause us to significantly miss our full year cash flow and earnings targets.Next I'll discuss financial policy which reflects our strategic commitment to strength and delever the balance sheet. A solid rating is important to us, and we will target a sustainable credit rating in the single A range. S&amp;P downgraded GE and GE Capital's credit rating from single A to BBB+ with a stable outlook on October 2, and Moody's and Fitch have our ratings on review.The impact of the downgrade is manageable, and we were prepared for this. The most pronounced impact is on our commercial paper program. As you know, we have $40 billion of committed credit lines in place. We have tapped a portion of these revolvers and are currently transitioning our commercial paper program to a smaller size, and this is in line with our long term objective of reducing our reliance on commercial paper. We have sufficient liquidity to execute this transition smoothly.We continue to target a leverage ratio of 2.5 times net debt to EBITDA and expect to make substantial progress toward this goal in the next few years. As described in June, we have significant sources available to delever and de-risk the company. The action we announced today on the dividend is an example of strengthening our position.We also continue to complete the remaining actions and transactions that are part of the $20 billion disposition program with an expected close of Distributed Power in the fourth quarter and Transportation by early 2019.Now, I will turn to take you through the third quarter operating results by segment. Starting with Power, which has faced significant external and internal challenges, the market size continues to be in line with our previous expectations. But as we move into the second half it's clear that our previous forecasts were overly optimistic on the timing and level of deal closures on heavy-duty gas turbines and particularly on aeros. And while we are seeing some progress, we're not seeing the pace of operational improvement we expected. And we continue to see issues driven by our own execution and some on project execution with customers and partners.Additionally, as Larry mentioned earlier, we're announcing our intent to reorganize the Power business into two units and are effectively eliminating the Power headquarters structure with an intent to enhance Power's execution agility, improve their cost structure and drive better outcomes.Now with respect to the third quarter results for Power, orders were down 18% reported and down 3% organically. While Gas Power Systems orders were down 45% year to date, they were up 55% in the quarter based on easy comparison. We booked orders for 21 heavy-duty gas turbines, including five HAs. Aero orders for two units were down seven versus last year. Power Services orders were down 16% driven by tough comparison and a more disciplined deal selection process on the transactional fleet which is resulting in higher margins. CSA orders were flat.Revenue was down 33% reported and down 20% organically. GPS revenue was down 55% on lower volume. Power Services revenue was down 4% with CSA's up 2% and transactional services down 12%.While we're making progress commercially on the transactional fleet, the conversion time between orders and revenue has been longer than expected and CSA utilization was in line with expectations.In the quarter, the business incurred an operating loss of $631 million, profitability was negatively impacted by charges in GPS related to challenges in project execution and liquidated damages. We also recorded $240 million of warranty and maintenance reserves related to the HA 9FB stage 1 blade issue.We have a replacement blade in production and we're working proactively with our customers to schedule outages to replace the parts over time, but we also expect to incur a similar incremental amount of cost over time related to the blades as we perform planned outages in our services contracts.Next on Aviation, which had another great quarter, orders were up 35%, equipment orders grew by 82% driven by continued strong momentum of the LEAP engine program, services orders grew 12%, revenues in the quarter grew 12%, equipment revenues were up 17% on commercial engines partially offset by lower military volume.Specifically, we shipped 303 LEAP engines this quarter, up 192 units compared to last year. Services revenues grew 9% on higher shop visits and a spares rate of 28 million per day, up 20%. We continue to experience favorability and services with strength in air traffic driving high fleet utilization and spare parts consumption.Segment profit was up 25% on higher volume, improved price and operating productivity. This was partially offset by negative mix from higher LEAP shipments. Operating profit margins expanded 240 basis points in the quarter. Year to date, we've shipped 739 engines and we're roughly four weeks behind on production as a result of the delays in material, but we remain committed to delivering 1,100 to 1,200 units. Aviation performance remains on track to deliver 15-plus percent op profit growth for the year.Next on Healthcare, Healthcare orders were flat versus last year and up 3% organically. On a product-line basis, Life Sciences orders were up 6% organically with BioProcess up 9%, Healthcare Systems orders were up 2% organically. Geographically, organic orders were up 4% in Europe, driven by successful new product launches across Healthcare System. The U.S. was down 3% due to the non-repeat of a large Healthcare Systems government order. Emerging market organic orders were up 9% with China up 13%. And in China, we saw good performance in BioProcess, imaging and ultrasound.Healthcare revenues of $4.7 billion grew 3% on an organic basis with Healthcare Systems up 3% and Life Sciences up 5%. Segment profit was up 2% on a reported basis and 10% organically, driven by volume and cost productivity partially offset by lower price. Margins expanded by 120 basis points organically. Consistent with our strategy to focus and win, the Healthcare team continues to prepare for separation.On Renewables, orders were down 3% versus last year, driven by lower hydro orders. Onshore wind orders totaled $2.7 billion with U.S. equipment volume up 2.7 times and U.S. repower volume up 72%. International volume was down 66% on tough comps versus last year. Backlog at the end of the quarter totaled $16 billion and was up 17% from strength in onshore wind. Revenues were up 15% reported and 19% organically, mainly driven by onshore wind equipment, which was up 37%. This was partially offset by onshore wind repower volume, which was down 55%, primarily driven by timing, including delays for inclement weather and customer site readiness, as well as a number of new unit delivery delays driven by supply chain issues. The repower market remains robust and we're seeing continued strong demand through 2019 and beyond.Segment profit was down 72% and margins were down 660 basis points, driven by significant pricing pressure and lower repower volume. We expect sequential improvement in our segment profit driven by higher wind turbine and repowering volume and continued product cost improvement. We will continue to monitor the supply chain and logistical issues as we ramp in fourth quarter for the higher volume.Moving to Oil &amp; Gas, Baker Hughes GE released its financial results this morning at 6:45, and Lorenzo and Brian will hold their earnings call with investors today at 9:00 AM.Next, we provide the summary financial results for Transportation and Lighting, shown here, and additional information is available in the 10-Q.Finally, on GE Capital, continuing operations generated net income of $19 million in the quarter, down $5 million from the prior year. Total year earnings will be affected by the timing of asset sales and related gains and losses. Additionally, the business may be impacted by updates to U.S. tax reform legislation and our assessment of the insurance reserves in the runoff insurance business which we perform annually in the fourth quarter.GE Capital ended the quarter with $129 billion of assets, down $11 billion year to date, ex liquidity, and we remain focused on shrinking and deleveraging GE Capital, including improving its leverage profile. We expect to reduce GE Capital's commercial paper balance to zero in the fourth quarter of 2018 as we transition the overall company to a smaller CP program. And as it relates to capital contributions, we're monitoring tax reform, WMC and the fourth-quarter insurance reserves evaluation and we continue to evaluate derisking options for the portfolio.At this point, we're planning at least $3 billion of capital contributions in 2019 and we'll continuously assess the capital adequacy and risk profile of GE Capital. GE Capital's resources are more limited as it shrinks and GE may need to support GE Capital further, if necessary, either to achieve desired capital levels or to execute strategic options around its portfolio.There was a new insurance accounting standard issued in August of 2018. We're evaluating the effect of the standard and anticipate its adoption will materially affect our financial statements when it takes effect in 2021.Now, I'll turn it back to Larry.H. Lawrence Culp, Jr. - General Electric Co.Jamie, thanks. Right now, I'm spending most of my time with the Power business with real help from Jamie and our Vice Chair, David Joyce. We need to establish a realistic outlook there, particularly for the Gas business, and drive improvements from there. The moves we've announced today, in addition to the daily, weekly and monthly operating disciplines we are instilling, will drive transparency and accountability on the path to improved operating performance. When we have our arms around this, we will provide you with our outlook in 2019.As I mentioned earlier, we also intend to maintain a disciplined financial policy and are committed to strengthening and delevering the balance sheet over the next few years. In summary, GE has and will continue to have a strong commitment to all its stakeholders. We are making GE a stronger company operationally and financially. I'm truly excited to lead this storied company into its next chapter. I've spent my career improving strong franchise businesses and taking them from good to great. We know what to do. Now is the time to execute.Before we go to Q&amp;A, I want to acknowledge the pent-up demand for information that you have on a range of topics, but I've been in this job for all of 30 days. I will share with you what I know and can today, but please know that I'll be back to you with more definitive plans and views in the months ahead.In closing, I also want to thank John Flannery for his 30 years of exceptional service to this company. John also made a number of important contributions as CEO. I have the utmost respect for John and wish him nothing but the best going forward.With that, Todd, back to you.Todd Ernst - General Electric Co.Thanks, Larry. Brandon, let's open up the call for questions.Question-and-Answer SessionOperatorThank you. And from Vertical Research we have Jeffrey Sprague. Please go ahead.Jeffrey Todd Sprague - Vertical Research Partners LLCThank you. Good morning, everyone.H. Lawrence Culp, Jr. - General Electric Co.Hey, Jeff. Good morning.Jamie S. Miller - General Electric Co.Good morning, Jeff.Jeffrey Todd Sprague - Vertical Research Partners LLCGood morning. Larry, best of luck. Hey, my first question, and I think it's everyone's question really, is the balance sheet here. And just wondering as you're sitting there with your fiduciary hat on looking at an unstable, perhaps, global economic environment, certainly relative to what the market's telling us, do you see the need to move more quickly on the balance sheet?Is there something with these lawsuits or something that tie your hands on moving with the balance sheet? Could you just give us a little bit more color on how you might move to more quickly lift the cloud and stabilize things here?H. Lawrence Culp, Jr. - General Electric Co.Jeff, let me take that, and then Jamie probably has some perspectives as well. I think we're mindful of the morphing environment, but perhaps more mindful of our leverage situation today. So, coming in as a Director earlier in the year, that was clear. All the more true today as Chairman and CEO. I think what we've tried to do throughout the course of the year is move as briskly but smartly as we possibly can. The dividend move today, to me, fundamentally straightforward, given our desire to preserve that cash to help delever the business. We have a lot of options. We laid these out, I think, in some detail back in June. Certainly, the strategy that we talked about relative to derisking and focusing the portfolio is very much intact today. How we move through those various options, the timing, the pace, the sequencing, something very much on the table to make sure that we tend to the balance sheet as quickly as we can. We don't want to be rushed. We don't want to be rash, but we need to get after this straightaway and I hope today's move on the dividend is evidence of that intent in action.Jamie S. Miller - General Electric Co.Yeah, and the only other thing I would add, Jeff, you mentioned lawsuits. There really is no consideration around that in terms of something that would be a constraint to that plan.OperatorAnd from JPMorgan, we have Steve Tusa, please go ahead.H. Lawrence Culp, Jr. - General Electric Co.Hey, Steve. Good morning.Charles Stephen Tusa - JPMorgan Securities LLCHey. Good morning, Larry. So, I guess as a fresh voice in the room there, you guys kind of addressed the insurance thing, that seems like it's going to be a little bit bigger than expected but there's been a lot of information coming out from these disclosures from the shareholder lawsuits that talks about the accounting for LTSAs and contract assets. Several whistleblowers out there talking about the behavior in the past. I'm wondering, in your seat, if you've really delved into that and you're comfortable enough there to unequivocally rule out the need for more capital and specifically the potential for an equity raise?H. Lawrence Culp, Jr. - General Electric Co.Steve, there are a number of questions there. Let me try to take them in order. Let me state in a straightforward fashion, we have no plans for an equity raise. I think with respect to the service business within Power, this is a good opportunity for us to frankly manage this franchise better than we have. I've been encouraged by what I've seen at the operational level. Clearly there are a lot of issues from the past that the team is dealing with but the opportunity here to work closely with our customers around this installed base and do so in a way that's a win-win for them and for us I think it's clear. I'm excited about this. Now it's not a business in the state that it should be in, or could be in, will be in, but I think a good bit of the time we've spent with Russell and Scott and the team has been very much geared toward putting those improvements in motion. I think as we exit this year, go into next year, at the operational level look for continued progress there.OperatorAnd from Melius Research, we have Scott Davis. Please go ahead.Scott Reed Davis - Melius Research LLCHey. Good morning, guys.H. Lawrence Culp, Jr. - General Electric Co.Hey, Scott. Good morning.Jamie S. Miller - General Electric Co.Hi, Scott.Scott Reed Davis - Melius Research LLCWelcome, Larry, and good luck to you. It's not going to be an easy job, got a lot to fix. I wish you the best of luck.H. Lawrence Culp, Jr. - General Electric Co.Well, I appreciate that Scott.Scott Reed Davis - Melius Research LLCBetter you than me.H. Lawrence Culp, Jr. - General Electric Co.Any time you want to join us, let me know but I'm excited to be here. This is an outstanding company right. The people here I think are strong. The technology again is impressive and in 30 days I've begun to appreciate all the more the reach and the impact this company has around the world. We can do better than where we are today, but this is an important company and I'm pleased to be on the team.Scott Reed Davis - Melius Research LLCWe're glad to have you. But anyway so, my question really is on the business model at GE, it's so different than Danaher. The two biggest businesses, Power and aircraft engines, the company is willing to sell the unit at a big loss in hopes of capturing the spare parts and that seems to be working in aerospace but doesn't seem to be working in Power. Can you fix Power without fixing how you go to market traditionally? Does something drastically need to change there?H. Lawrence Culp, Jr. - General Electric Co.Well, Scott, it's hard to say that we don't need dramatic or drastic change in a business that is performing the way that Power is, right? I mean, in some respects, it's that simple. So, in my mind, beyond compliance and quality, everything is on the table at Power and I think Russell and the team would echo that if they were the call. There's no question that in my prior life I was really on the periphery of both the Power space and aerospace as well.Certainly, in the heart of Healthcare, but I'm of the view that there's a lot that I've done previously that's relevant as I join this team. I've driven a lot of change. Every time we brought a new company in, we were driving a lot of change. That was effectively the value proposition for our investors and I think over time we were able to do that. That change really comes as a function of revisiting assumptions, clarifying strategy, putting the right team together, driving operations day in, day out and clearly deploying capital in and around that business as appropriate.But in a more fundamental level, Scott, it's really about expectations, right? It's about making sure that problems are surfaced and solved and managing in a substantive not superficial way. I think all that's relevant. But to be clear, this isn't about me. This is about the 300,000 people on the payroll, myself included, that want and are committed to having GE in a better place and performing better, both for our customers and for shareholders.OperatorFrom Citi, we have Andrew Kaplowitz. Please go ahead.Andrew Kaplowitz - Citigroup Global Markets, Inc.Good morning, guysH. Lawrence Culp, Jr. - General Electric Co.Andrew, good morning.Jamie S. Miller - General Electric Co.Hey, Andrew.Andrew Kaplowitz - Citigroup Global Markets, Inc.Larry or Jamie, obviously, you didn't give us EPS or cash guidance for the year, but industrial free cash flow in Q3 was arguably not as bad as feared. You did say that you would significantly miss your previous cash flow and earnings target for the year. How should we think about GE's ability to generate earnings and especially cash in what seasonally is usually a strong Q4. And then, really more importantly, when we think about next year, are there any guide posts you would give us at this point as you review the businesses, Larry? Should the Power business in particular be less of a drag on cash in 2019?Jamie S. Miller - General Electric Co.Yeah. So, let me take the first discussion on that one. So, as you noted, we're not offering updated guidance right now. But as we look at the businesses, we see real strength in Healthcare and in Aviation. And in Power, we just are seeing continued impacts from the lower market penetration I talked about. Deal closure delays and uncertainties and just other operational and project execution issues, and we do see those continuing into 2019.But as we pull back, fourth quarter, as you referenced, has always been a significant volume quarter for GE and we expect this fourth quarter to be the same. Again, with strong volume in units at Aviation, Healthcare, Renewables and at Power, and Power is also back-end loaded historically, which is another reason that as we really look at Power and the visibility we have there, both with respect to the market and the operations, we're positioning our views on that right now the way we areH. Lawrence Culp, Jr. - General Electric Co.Andrew, Larry here. I hope that you and others will appreciate that when we talk about numbers on a forward-looking basis, we want to do so with conviction and confidence. I don't want to fool you, let alone myself, in thinking 30 days in that I can give you that today. So, with respect to the quarter and certainly the outlook for next year, there'll be a time and place for that. But make no mistake, we know that the Power business has to perform better and that is what we're going to spend a ton of time on once we get past earnings today.OperatorThank you. From Deutsche Bank, we have Nicole DeBlase. Please go aheadNicole DeBlase - Deutsche Bank Securities, Inc.Yeah. Thanks. Good morning, Larry.H. Lawrence Culp, Jr. - General Electric Co.Good morning, NicoleNicole DeBlase - Deutsche Bank Securities, Inc.So, I guess maybe we could talk a little bit about Power. So, just based on the actions that you're announcing today, is there any sense of the level of savings that those like the headquarter consolidation could actually drive, just to give us a sense of what the baseline of savings could be as we move into 2019?H. Lawrence Culp, Jr. - General Electric Co.Nicole, I think what we've done today is really share both internally and publicly the organizational architecture, if you will, that we have in mind. There are a number of details that Russell, the team and I will be working through in the days and weeks to come. And as those details become more clear, we'll share those first internally, and then we will share them with you and others publicly.So give us a little bit of time to work through that. I think in the interim we want to leave that open. But I would just underscore that while there is an opportunity to improve our cost structure, dare I say it, imperative given our current performance, a good bit of what we are talking about here is also geared toward running the businesses better. I think by consolidating the headquarters and really putting that support around the Gas business, we'll all have a better line of sight on the action day-to-day in that business and be able to make decisions I think more crisply with more transparency and more accountability.Having the rest of that Power portfolio coming in directly as well through a different path will give us an opportunity to see those P&amp;Ls clearly without any noise and work business by business to drive improvements there. And I think that's a better way for us to opera</t>
+  </si>
+  <si>
+    <t>Eaton Corp. Plc (NYSE:ETN) Q3 2018 Earnings Call October 30, 2018 11:00 AM ETExecutivesDonald H. Bullock - Eaton Corp. PlcCraig Arnold - Eaton Corp. PlcRichard H. Fearon - Eaton Corp. PlcAnalystsJeffrey Todd Sprague - Vertical Research Partners LLCNigel Coe - Wolfe Research LLCJoe Ritchie - Goldman Sachs &amp; Co. LLCJeffrey D. Hammond - KeyBanc Capital Markets, Inc.Nicole DeBlase - Deutsche Bank Securities, Inc.Steven Winoker - UBS Securities LLCMircea Dobre - Robert W. Baird &amp; Co., Inc.Joshua Charles Pokrzywinski - Morgan Stanley &amp; Co. LLCStephen Edward Volkmann - Jefferies LLCAndrew Burris Obin - Bank of America Merrill LynchDeane Dray - RBC Capital Markets LLCAndrew M. Casey - Wells Fargo Securities LLCAnn P. Duignan - JPMorgan Securities LLCJohn Walsh - Credit SuisseOperatorLadies and gentlemen, thank you for standing by and welcome to the Eaton Third Quarter Earnings Call. At this time all the participant lines are in a listen-only mode. There will be an opportunity for your questions and instructions will be given at that time. As a reminder, today's call is being recorded. I'll turn the call now to, Mr. Don Bullock, Senior Vice President of Investor Relations. Please go ahead, sir.Donald H. Bullock - Eaton Corp. PlcGood morning. I'm Don Bullock, Eaton's Senior Vice President of Investor Relations. Thank you for joining us for today for Eaton's third quarter 2018 earnings call. As all of you that are on the call have noticed, today our call is occurring at 11 AM versus our traditional 10 start. We moved our call today to allow those of you who follow Cummins to participate in their call, which occurred at 10 AM this morning. With me today are Craig Arnold, our Chairman and CEO; and Rick Fearon, our Vice Chairman and Chief Financial and Planning Officer.Our agenda today as typical includes opening remarks by Craig, highlighting the performance in the third quarter along with our outlook for 2018 and a preliminary look at 2019. As we've done on our past calls, we'll be taking questions at the end of Craig's comments.The press release from the earnings announcement this morning and the presentation we'll go through today have been posted on our website at www.eaton.com. Please note that both the press release and the presentation include reconciliations to non-GAAP measures, and a webcast of this call is going to be available on our website and will be available for replay after the earnings is complete.Before we get started, I want to remind you that our comments today will include statements related to forward-looking future results of the company and are therefore by definition forward-looking statements. The actual results can differ from those forecasted projections due to a range of items covered in the uncertainties covered in our press release, presentation and on the 8-K.And with that, I'll turn it over to Craig.Craig Arnold - Eaton Corp. PlcOkay. Thanks, Don. Hey, let me begin with a quick summary of our Q3 results. And overall it was a solid quarter where our balance across multiple end markets really allowed the company to deliver strong results and so we're really pleased with our Q3 results.Earnings per share of $0.95 on a GAAP basis or $1.43 excluding the impact of the arbitration decision we previously announced in August. This is towards the upper end of our guidance range of $1.35 to $1.45 and up 14% above prior year, excluding naturally the gain from the JV that we formed last year in Q3. Our sales were $5.4 billion, up 4%, and this was comprised of 6% organic growth offset by 1% each from both currency and some small divestitures we had during the course of last year.We're very pleased with our strong margin performance, which included an all-time record margins of 17.6%. Our teams really executed well, which led to all-time record margins in three of our segments including; Electrical Products, Electrical Systems &amp; Services, and Aerospace. And finally, we produced solid operating cash flows of $1 billion in the quarter.On page 4, we compare our performance of the quarter versus prior year and I'll just highlight a couple of items here. Notice that sales were up 4% and strong execution, segment operating margins were up 120 basis points over prior year and we posted 11% increase in segment operating profits.We did have two unusual items impacting the year-over-year comparisons, the gain from the formation of the Eaton Cummins joint venture in Q3 2017 and the expenses from the arbitration decision in Q3 2018. Excluding these items, net income was also up 11%.On page 5, we summarize the quarterly results of our Electrical Products segment. Revenues were flat with organic growth of 1%, offset by 1% currency. And I'll just note here that revenues in the quarter were negatively impacted by the Lighting business. As we discussed in prior calls, in the Lighting business organic revenues declined slightly in the quarter, in line with declines that we've seen in Q2 and excluding Lighting, Electrical Products had 3% organic growth. In the quarter, we saw revenue strength in North America with particular strength and solid growth in the industrial end markets.We had expected our Lighting sales to turn positive in the quarter and we do believe this will happen next quarter. This assumption is also supported by the growth that we saw in our orders during the course of Q3. Overall orders increased 3% for the segment with solid growth in industrial and residential markets in North America. And our backlog is up some 16% over last year. So we're pleased to see the really strong strength and building backlogs during the course of the quarter. Segment operating profits increased 4%, with operating margins up 70 basis points to once again an all-time record of 19.2%.On page 6, we outline the results of our Electrical Systems &amp; Services segment. Organic growth was 9% in the quarter, an acceleration from Q2, which was up 7% and Q1 which was up 2%. Foreign exchange and the divestiture of a small joint venture each reduced revenues by 1% in the quarter. We saw strength in industrial markets and data centers and geographically we saw strength in North America and also in the Asia-Pacific region. Bookings were up 4% with strong growth in EMEA, Asia-Pacific, and with data center orders up double-digit globally.We did see a degree of caution in late September in U.S., especially in large project orders. We've seen this kind of caution in the past on periods of economic uncertainty and so we do think that impacted our orders a bit in the quarter and at the end of the month of September. Notably, our backlog was up 12% versus last year. Operating margins of 15.4% were up 160 basis points and were an all-time record for the segment.On page 7, we cover our Hydraulics segment. Here revenues were up 6%, 7% organic growth offset by 1% from currency. We had strength with multiple OEMs in both construction and ag markets and also in the distribution channel. Orders increased 4% with geographic strength in Asia and in the Americas, and this is on top of very strong comps from Q3 of 2017 which were up some 22% last year. So we saw end market strength in both construction and also in agriculture – with agriculture OEMs.Geographically, orders were up 12% in the Americas, up 9% in Asia and down 16% in EMEA. Similar to last quarter, orders in EMEA were down due to largely reduced lead times. Our shorter lead times and better delivery performance continues to reduce the need for customers to place long-dated orders in the Europe market. Our Europe orders for deliveries in the three month period, so those shorter lead-time orders, were actually up again this quarter. We continue to have a strong backlog, which was up 24% from last year, operating profits increased 18% and our margins were 14% and 140 basis point improvement over last year.Next on page 8, we summarize Aerospace's performance in the quarter. The Aerospace segment accelerated nicely from 6% organic growth in Q2 to 9% growth in Q3. In the quarter we saw strength across many platforms including military fighters, rotorcraft, regional jet, biz jets, and in both military and commercial aftermarket, so really broad-based strength in our Aerospace business. Orders remained strong in the quarter, up 12%, with particular strength in commercial transport, commercial aftermarket, as well as in military rotorcraft.Our backlog is also up strongly, up some 15% in the quarter. And operating leverage here was really outstanding with profits increasing 25% to an all-time record. Margins of 22% and up some 280 basis points over prior year. In addition to solid execution, I will acknowledge as well that we had favorable mix in the quarter, which positively impacted margins, largely as a result of strength in the commercial aftermarket business which grew faster than the overall segment.Moving to page 9 in the Vehicle segment, in Q3, our organic growth was 7%, and this organic growth was offset by 3% from FX and 2% from the formation of the Eaton Cummins joint venture last year. The NAFTA Class 8 market continues to perform well. We've increased our production forecast for 2018 from 295,000 units to 320,000 units and this is being offset somewhat by weakness in light vehicle markets in China and a bit in Europe as well. Operating profits increased 11% while operating margin stepped up 140 basis points to 18.9%. Overall, another very strong quarter in our Vehicle business.And wrapping up our segment summaries, we move to the eMobility segment on page 10. Organic growth was 7%. As anticipated we're ramping up our R&amp;D investment in this business and therefore segment margins stepped down to 12.5%, which is really in line with our full year margin guidance for the segment. In Q3 we secured an additional contract win for a new eMobility program, which reinforces our optimism for this fast-growing market. And we're also currently in discussions with a large number of additional customers and so our long-term growth outlook for this segment remains quite optimistic.Now moving to page 11. With three quarters behind us and heading into the final quarter of the year, we're fine-tuning our segment expectation for 2018 for both organic revenue growth and for operating margin. Our end markets continue to experience solid growth; we're reaffirming both our full-year organic growth target of 6% and our operating margins of between 16.4% and 17%.While the overall organic growth expectation remains unchanged, we are adjusting our growth estimates for four of the segments. In Electrical Products, we're adjusting it down by a half a basis point (sic) [half a point] (11:01) from 3% to 2.5%, and this is mostly due to softness in Lighting, which we say – think has extended one quarter longer than what we originally anticipated. But with orders turning positive in Q3, we're really confident that this headwind for the segment has now abated and we expect to see better growth going forward.We're also reducing Hydraulics down 1% from 13% to 12%. We had previously raised our outlook in Q1 from 10% to 13%, reflecting the strength in orders over the last 18 months, so this change from 12% to 13% we think reflects just some fine-tuning with three quarters behind us now.We're also raising our revenue outlook in two segments. We're taking Aerospace up 2%, from 6% to 8% for the year, really on broad-based strength in a number of our end markets, and for Vehicle, we're raising our organic growth forecast by 1%, reflecting the increased production levels in NAFTA Class 8 market in 2018, moving it from 295,000 to 320,000 units.For segment operating margins, we're fine-tuning some of the targets in a number of the segments, but overall, segment margins for Eaton overall remain unchanged. So we think a strong year of conversion.And just turning to page 12, we've taken an opportunity here to summarize our thoughts around our raw material cost and tariffs. As we outlined in Q2, we expect the tariff impact for 2018 to be modest, and as background, it's important to note that we do manufacture in zone of currency, and as a result, we don't have large material flows that would disproportionally be affected by tariffs. Where we are affected we've been focused on taking both price increases and operational actions to ensure that we stay ahead of this issue and our performance today certainly reflects this in the margin strength that we're delivering in our businesses.As we look to 2019, we remain confident in our ability to mitigate the latest round of tariff impacts with both pricing actions and other supply chain changes. As we take a look at the latest round of 301 tariffs that have been now finalized, we expect about $110 million of additional tariff cost in 2019 and we are in the midst of taking actions now that will ensure that the tariff related cost increases are once again fully offset by pricing and other additional supply chain changes. And so we're confident as we look forward just as we look backward that we have plans in place to fully mitigate any tariff related cost increases.And next on the next page, we provide our Q4 guidance, and an updated guidance on the full year. For Q4, we expect EPS of $1.38 to $1.48 and this assumes 6% organic growth, it assumes margins of between 17% and 17.4% and a tax rate of between 12.5% and 13.5%. And as we take a look at the full year for 2018, for the third time this year, we're increasing the midpoint of our full year EPS guidance to a range of $5.30 to $5.40. This naturally excludes the arbitration decision impact. The midpoint of our EPS guidance is increasing 1% from $5.30 to $5.35. We now expect corporate expenses to be $20 million above 2017 levels compared to $10 million that we previously noted and this is largely the result of slightly higher interest expenses.The tax rate for 2018 is now expected to be between 11% and 12%, reflecting really the impact of the arbitration decisions in Q3 that we noted earlier. And consistent with prior guidance, we're expecting operating cash flows of between $2.9 billion and $3.1 billion. This does exclude the $300 million impact from the arbitration decision in Q3, and also unchanged, our free cash flow is expected to be between $2.3 billion and $2.5 billion, once again, excluding the impact of the arbitration decision.Our assumptions for CapEx and restructuring costs are unchanged from prior guidance. However, certainly given the recent pullback in the stock market, we would expect our share repurchases to range from $800 million to $1 billion for the full year and year-to-date our share repurchases have been roughly $600 million. So we'll certainly view this is a buying opportunity given the pullback that we've seen recently.Lastly, at the midpoint of our EPS guidance, we would expect to generate 2018 EPS growth of roughly 15% excluding the impact of the arbitration decision and the 2017 gain from the formation of the Eaton Cummins JV and the income arising from the 2017 tax bill.Hey, just turning to page 14, and I know this is one of the big questions that's on everybody's mind, during last quarter's earnings call we provided a view of our key end markets and really split by three categories, parts of our businesses that we were basically in the early to mid-part of the growth stage, those that were in the middle part of the growth stage and the late stage of growth. And our conclusion then is still our conclusion today, the majority of our businesses are in the early to mid-part of the economic growth cycle. While we do expect the rate of growth to slow somewhat, given the strong 2018 results. We also anticipate that we'll see solid growth in 2019. This view of our end markets is consistent with our initial outlook for 2019 and our assumption that our end markets will grow between 3% and 4% next year.And just turning the page 15, while we provide specific guidance on our Q4 earnings call in January – we will provide specific guidance on our Q4 earnings call in January, we thought it would be helpful also to share some high-level assumptions around 2019. As I noted, we think our end markets will grow 3% to 4%. At this point in the cycle we'd expect incremental margins on core growth to be between 25% and 30% and this does include any impact associated with tariffs. And our preliminary estimate on corporate costs, including pension, interest and other corporate, suggests that they'll be flat with 2018. We expect our tax rate to be between 14% and 15%, consistent with our expected long-term tax rate, and lastly we continue to see opportunities for attractive returns and restructuring opportunities and we anticipate restructuring spending for 2019 will be generally in line with 2018.So with that, I'll turn the meeting back over to Don Bullock and we're happy to answer any questions that you may have.Donald H. Bullock - Eaton Corp. PlcBefore I have the operator provide you with instructions for the Q&amp;A, I did want to note that we do have a number of individuals in the queue for questions today. Given our time constraints of an hour and our desire to get as many of these questions as possible addressed, please limit your questions to a question and a follow-up. Thanks in advance. With that, I'll turn over to the operator to provide you with instructions for the Q&amp;A.Question-and-Answer SessionOperatorDonald H. Bullock - Eaton Corp. PlcOur first question today comes from Jeff Sprague with Vertical Research.Jeffrey Todd Sprague - Vertical Research Partners LLCThank you. Good morning, everyone.Craig Arnold - Eaton Corp. PlcGood morning.Jeffrey Todd Sprague - Vertical Research Partners LLCCraig, I was wondering if you could actually address capital deployment a little bit more directly, and what you're thinking. The spirit I'm asking the question is what seems some plausible speculation you guys were poking around at Esterline. I don't expect you to address that specifically, but maybe you could give us some thoughts on what your appetite is for bigger deals and how you might kind of play that card as we look into 2019?Craig Arnold - Eaton Corp. PlcYeah. Thanks, Jeff, certainly appreciate the question, and as you noted, we don't comment on any potential acquisitions. I would say that our capital deployment strategy is largely unchanged with where we've been. We've said that our first priority in our call on cash is going to be invest in our businesses and to invest in organic growth, and we continue to see really lots of tremendous opportunities to do that.We'll continue to pay a very healthy dividend and buy back shares, and in this environment, as I noted, we'll certainly be much more aggressive in buying back our shares where we think this is a tremendous buying opportunity, and we'll generate a lot of cash over the next several years, and we have the opportunity to deploy that cash in certainly value-creating acquisitions, and there we've said our priorities continue to be in our Electrical business, in our Aerospace business, and also in our new eMobility segment.But having said that, what we've said all along as well, we are not going to lose our pricing discipline, that we have a very structured approach to the way we take a look at deals and those opportunities, and we think our cost of capital is 8% to 9%, and we talk about delivering a minimum of 300 basis points over the cost of capital. And so we intend to remain very disciplined as we take a look at opportunities and how we price them, recognizing that we always have an opportunity to go out and buy our stock back and essentially create tremendous shareholder value. So, we will continue to be disciplined as we have been in the past around the way we think about capital deployment.Jeffrey Todd Sprague - Vertical Research Partners LLCRight. And by the same token, any other thoughts about just the portfolio overall? I think that probably is something you are always discussing internally, or thinking about internally. Do you think the structure, combined structure still makes sense for Eaton here?Craig Arnold - Eaton Corp. PlcYeah, I think in simple terms the answer is yes, we like the structure of the company today, we like the makeup of the company today, but having said that, as we've shared with this group in the past, we are always evaluating and assessing. We have laid out a very specific criteria for what's required to be a part of Eaton and the type of characteristics that businesses need to have and the type of results that they need to deliver, and to the extent that we have businesses that are not measuring up to those requirements, there are specific actions in place to improve.And obviously they are on the clock, and they have to improve within a certain period of time. And if they don't improve, we'll do what we've done in the past, and we've always been willing to divest parts of the portfolio that don't live up to the company's expectation. And I can assure you that we have a very thorough process with our board where we review all of our businesses, including nonperforming businesses on a regular basis, and so I would tell you that we will continue to be smart and diligent in assuring that the things that are part of the company pass the criteria or have a path to it, or we'll take other action.Jeffrey Todd Sprague - Vertical Research Partners LLCRight. Thank you.Donald H. Bullock - Eaton Corp. PlcOur next question comes from Nigel Coe with Wolfe Research.Nigel Coe - Wolfe Research LLCThanks. Good morning.Craig Arnold - Eaton Corp. PlcGood morning, Nigel.Donald H. Bullock - Eaton Corp. PlcHi.Nigel Coe - Wolfe Research LLCYeah, no one told me about the 10 o'clock, I actually dialed in quite early. So just want to dig in a little deeper on the projects pause, I think you called out, specifically within ESS, and I'm just wondering what are you hearing from customers here? Is this more inflation and having to back to the drawing board to reassess project returns? Is it just uncertainty around the macro? Any color there would be helpful. And any end market color in terms of where the project delays are coming from?Craig Arnold - Eaton Corp. PlcYeah, what I see, Nigel, we did see it, as I mentioned, largely in large projects in the month of September, in the Americas primarily, and it was – certainly caught us by a little bit – by surprise as well, but I do think it's just simply the environment that we're in right now which is filled with lots of uncertainty, whether it's geopolitical issues, or it's the elections or it's tariffs, quite surprisingly, we were clocking along just fine and were surprised in the month of September, but we do think that it's a temporary pause, and if you take a look at the macro data, whether it's the C30 data or you take a look at some of the key end markets that we serve, there's nothing that would suggest that the fundamentals are not still very much intact. And so we'll have to see what Q4 brings, but at this point, there's nothing that would suggest that the underlying strength that we anticipated to see in our Electrical Systems &amp; Services business would abate at this point.Nigel Coe - Wolfe Research LLCOkay. That's helpful. And then just on China, obviously there's a lot of push and pull going on in China with – obviously, we're seeing a slowdown in the data, the stimulus measures coming through. Feels like the construction markets are pretty healthy over there. Obviously you play quite strongly into the construction markets, but any comment in terms of what you're seeing in China would be helpful.Craig Arnold - Eaton Corp. PlcYeah, I think, without a doubt we definitely saw a slowdown in China during the course of Q3. Principally, we saw that slowdown in vehicle markets which I think have been largely widely reported and we saw that slowdown as well, although we did deliver solid growth ourself in China in Q3 based upon a number of new wins.And so I do think that as we think about the project business or commercial construction in China, at this point, we think that market continues to be fine. There's nothing that we're seeing in the overall economy that would suggest a significant pullback, although, clearly, there's some uncertainty in the China market as well.I think the tariff impact and the uncertainty that that's creating, I just – I spent about a week in China myself a couple weeks ago, had an opportunity to meet with a lot of our customers and CEOs of local Chinese companies, and they, too, are feeling this period of uncertainty and I do think there's a little bit of a pause taking place in that market, as well, pending our elections and the ultimate resolution of the trade dispute between the U.S. and China.Nigel Coe - Wolfe Research LLCOkay. Thanks, Rick.Donald H. Bullock - Eaton Corp. PlcOur next question comes from Joe Ritchie with Goldman Sachs.Joe Ritchie - Goldman Sachs &amp; Co. LLCThanks. Good morning, everyone.Craig Arnold - Eaton Corp. PlcHi.Joe Ritchie - Goldman Sachs &amp; Co. LLCSo maybe just following up on that question on just the large project pause in North America, I guess I'm just trying to understand, did you guys have a sense that these projects were going to be awarded in September and then the customers decided to pause on the decision? Or was this more of like just a gap in the market from the strength that you'd been seeing in the most previous quarters?Richard H. Fearon - Eaton Corp. PlcJoe, I'll take that one. It really was the former. We had expected contracts to be signed by the end of September and due to the uncertainties that Craig talked about, there are various customers that delayed committing to projects. We think it's temporary. These are projects that are quite far along, so it's not likely that they won't go forward, but it seemed to be that phenomenon, really, just in the last two weeks of September.Craig Arnold - Eaton Corp. PlcAnd I'd say that that position is really buttressed a little bit by the fact that if you take a look at our backlog in both our Electrical Systems &amp; Services business, as well as in our Electrical Products business, the both of them were up quite strongly in the quarter, up 12% in Electrical Systems &amp; Services and up 16% in Electrical Products. And so I think that that thesis is really borne out by the increase in our backlog.Joe Ritchie - Goldman Sachs &amp; Co. LLCGot it. That's helpful. And perhaps my follow-on question, Craig, you mentioned earlier just initial thoughts into 2019 on the contribution margin of 25% to 30%, so that includes the tariff related impact. I'm just wondering, how much are you anticipating to get back of the $110 million in tariffs? And then, also, if you think about just like cadence from a pricing perspective, like how are you guys thinking about that as you progress through 2019?Craig Arnold - Eaton Corp. PlcYeah, I'd say that – once again, appreciate the question. The 25% to 30% does include the impact of tariffs and while we fully expect to recover all $110 million of the tariff related cost increases, what's obviously problematic is trying to get an incremental on top of a tariff.And so the incrementals that we're talking about for 2019 are somewhat muted as a result of what we think will be an inability to get an incremental margin on a tariff related cost increase, but we certainly expect to fully recover those costs and we expect to be out in front of it and ensure that as we go through the quarter, that the tariff related cost increases are not a headwind to margins.Joe Ritchie - Goldman Sachs &amp; Co. LLCUnderstood. Thank you.Donald H. Bullock - Eaton Corp. PlcThe next question comes from Jeff Hammond with KeyBanc.Jeffrey D. Hammond - KeyBanc Capital Markets, Inc.Hey, good morning, guys.Craig Arnold - Eaton Corp. PlcHi.Jeffrey D. Hammond - KeyBanc Capital Markets, Inc.Hey. So just a couple questions here, truck, big revision here. Is that being driven by the supply chain improving there, any kind of color?Craig Arnold - Eaton Corp. PlcYeah, I'd say, one, Jeff, absolutely. There were some supply chain constraints that we experienced early in the year and there was some concern that we and others had about the industry's ability to actually deliver against the underlying demand that was in the marketplace. And certainly, those constraints have been largely eliminated during the course of the year. And so that's certainly part of what drove us to revise our forecast up, as well as the market has just continued to be very robust. And I'd say the really good news even about some of the order intake that we continue to see in the North America Class 8 market, is that in all likelihood, all of these orders are not going to be delivered during the course of 2018 and they'll spill off into 2019. And so we think 2019 will be another growth year for North America Class 8 on top of a very strong year in 2018.Jeffrey D. Hammond - KeyBanc Capital Markets, Inc.Okay. Great. And then data center, I think you cited as been strong, certainly it's been red hot in 2018. If you just look at backlog and quoting activity, what does that suggest for that data center market into 2019?Richard H. Fearon - Eaton Corp. PlcYeah, right now we enter, we will enter 2019 with a pretty decent backlog and certainly there are continued discussions for some large orders next year. So we would expect 2019 would be another robust year. Right now it's a little bit hard to say will it be as robust as 2018, 2018 after all did step up dramatically, but it should be another strong year.Jeffrey D. Hammond - KeyBanc Capital Markets, Inc.Okay. Thanks, guys.Donald H. Bullock - Eaton Corp. PlcOur next question comes from Nicole DeBlase with Deutsche Bank.Nicole DeBlase - Deutsche Bank Securities, Inc.Yeah, thanks. Good morning, guys.Craig Arnold - Eaton Corp. PlcGood morning, Nicole.Richard H. Fearon - Eaton Corp. PlcHi.Nicole DeBlase - Deutsche Bank Securities, Inc.Hi. So just I don't want to harp too much on this ESS order issue but just had one more point to clarify. I guess when you think about the customer conversations that you're having and the fact that they're kind of pushing out signing contracts, is there any visibility at all on how long they're pushing out? Like is this oh, we'll delay until 4Q because we want to get this into our CapEx year? Or are these contracts more likely to be signed in 2019 once we get past this next stage of tariffs?Craig Arnold - Eaton Corp. PlcYeah, I think it's really difficult to say precisely, Nicole, how much of a delay we're talking about, but with these projects in general you can't delay them for that long, right? I mean, as they're tied to other underlying requirements for facilities and buildings. And so we don't anticipate that this is going to be a long delay and we would hope to see in the course of this year in the fourth quarter and certainly by time we get to Q1, that this thing rights itself.Nicole DeBlase - Deutsche Bank Securities, Inc.Okay. That's helpful. Thanks, Craig. And then second question just around Hydraulics margins, you guys had to take down guidance again. I guess what's going on there? Maybe a little bit more color and is this just a structurally less profitable business than you thought? Or is this just really attributed to price cost and other issues that are more transitory? And I guess, does Hydraulics have a place in Eaton's portfolio given what we've seen with the margin performance year-to-date?Craig Arnold - Eaton Corp. PlcSure. First of all, I'd say we too are disappointed in the fact that we've got to take margins down again in Hydraulics, but I'd say the underlying margin issue in Hydraulics is largely a function of supply chain and operational inefficiencies that we're experiencing throughout the system. They're not structural, they're absolutely fixable but we have continued to struggle with the ability to work through supply chain, we're spending a lot more than we anticipated in premium freight and expedite and overtime as the industry has ramped up and our ability, and quite frankly our suppliers' ability to deal with this ramp in orders and sales.And so I'd say structurally speaking, nothing has changed, but having said that, as I've said with all of our businesses, Hydraulics is on the clock. And there are certain things that we have to do to demonstrate that the Hydraulics business can be a consistent performer in the company in terms of underlying margins and underlying growth rate and reduced cyclicality. And so all of the criteria that we've laid out for every part of the company also applies to Hydraulics and they have some work to do to demonstrate that we can create the kind of business that we want to own long ter</t>
+  </si>
+  <si>
+    <t>PepsiCo Inc. (NASDAQ:PEP) Q3 2018 Results Earnings Conference Call October  2, 2018  7:45 AM ETExecutivesJamie Caulfield - Senior Vice President, Investor RelationsIndra Nooyi - Chairman and Chief Executive OfficerHugh Johnston - Chief Financial OfficerAnalystsDara Mohsenian - Morgan StanleyKevin Grundy - JefferiesBryan Spillane - Bank of America/Merrill LynchAli Dibadj - BernsteinJudy Hong - Goldman SachsLauren Lieberman - BarclaysBonnie Herzog - Wells FargoCaroline Levy - MacquarieAndrea Teixeira - JPMorganSteve Powers - Deutsche BankVivien Azer - CowenAmit Sharma - BMO Capital MarketsPablo Zuanic - SIGRobert Ottenstein - Evercore ISILaurent Grandet - GuggenheimOperatorGood morning and welcome to PepsiCo’s Third Quarter 2018 Earnings Conference Call. Your lines have been placed on listen-only until the question-and-answer session. [Operator Instructions] Today’s call is being recorded and will be archived at www.pepsico.com.It is now my pleasure to introduce Mr. Jamie Caulfield, Senior Vice President of Investor Relations. Mr. Caulfield, you may begin.Jamie CaulfieldThank you, operator. With me today are Indra Nooyi, PepsiCo’s Chairman and CEO and Hugh Johnston, PepsiCo’s CFO. We'll lead off today’s call with a review of our third quarter performance and full year 2018 outlook and then we'll move on to Q&amp;A.Before we begin, please take note of our cautionary statement. This conference call includes forward-looking statements, including statements regarding 2018 guidance based on currently available information.Forward-looking statements inherently involve risks and uncertainties that could cause our actual results to differ materially from those predicted. Statements made on this conference call should be considered together with cautionary statements and other information contained in today’s earnings release and in our most recent periodic reports filed with the SEC.When discussing our financial results on today’s call, we will refer to certain non-GAAP measures, which exclude certain items, such as the impact of the U.S. Tax Cuts and Jobs Act and other tax related items, foreign exchange translation and acquisitions, divestitures, structural and other changes from our reported results. You should refer to the Glossary and other attachments to this morning’s earnings release and to the Investors section of PepsiCo’s website under the Events and Presentations tab to find full explanations and reconciliations of these non-GAAP measures.Now, it’s my pleasure to introduce Indra Nooyi.Indra NooyiThank you, Jamie and good morning everyone. Thank you all for joining us. As most of you know, we announced in August that I'm stepping down as CEO of PepsiCo after 12 years in the role effective tomorrow. And so today will be my final conference call with you. Actually my 75th and final, if you also include the calls I've participated in as CFO.After we complete the primary business at hand, reviewing the results and outlook and taking your questions. I'd like to ask for your patience and allow me to make a few concluding remarks at the end of the call.So, moving on to business; for the quarter we generated $16.5 billion of net revenue driven by 4.9% organic revenue growth and delivered core earnings per share of $1.59, a 9% increase on a core constant currency basis. Overall, we are pleased with our operating and financial performance in the quarter.The organic revenue growth represents another quarter of sequential acceleration and the highest rate of organic revenue growth in 12 quarters. The majority of our businesses again perform well, but particularly strong performances by our international sectors and solid performance by Frito-Lay in North America.And while North American beverages profit performance was impacted by inflation and a double-digit increase in advertising expense, the sector posted 2.5% organic revenue growth with a good balance between volume growth and net price realization.Frito-Lay North America delivered balanced volume growth and net price realization driving by strong innovation and brand marketing. For example, in June we launched Stacy's Cheese Petites inspired by French Cheese Puff, these bite-sized cheese snacks have real cheese baked inside creating a sophisticated snacking experience.In fact cheese is the primary ingredient. Petites are a good source of calcium and have six grams of protein per serving, and they come in a resealable pouch making them great for a convenient on-the-go experience.Over the summer, Doritos and Mountain Dew partnered on our Worlds Collide program to appeal to our Gen Z consumers who thrive on accelerating experiences. The program highlighted the brands recent innovations, Doritos Blaze and Dew Ice and rewarded consumers to purchase both products with merchandise and experiences.The eight-week media campaigns supporting the program span social media channels that are also featured on Pandora to reach our consumers' distinctive music. Tostitos' growth was fueled by new products such as Roasted Red Pepper and Black Bean and Garlic.To support the product launches we created the program to drive trial during the summer get-togethers. Our Buy, Ride, Get Together already program allowed consumers to scan a code of specially marked bags to redeem a $5 lift credit making it even easier for our consumers to get safety to and from summer parties. And Cheetos benefited from the launch of Cheetos Flaming Hot Chipotle Ranch earlier this year, appealing to consumers growing desire for intense flavors.Cheetos further benefited from our Cheetos Museum Win What You See campaign, with our first-ever Cheetos promotion supported by TV commercials directing consumers to winwhatyousee.com where we invited our fans to find and submit unique Cheetos shapes to have a chance to win what they see. We garnered more than 80,000 submissions and the program is now been localized and rolled across seven additional countries and counting.Turning to North American beverages, while the marketplace remains highly competitive, we are encouraged by improving overall category growth trends and a generally rational pricing environment.We had another quarter of sequential organic revenue performance and improvement. Organic revenue growth of 2.5% is the best you've seen in NAB in eight quarters and was driven by retail sales growth in Starbucks ready-to-drink coffee, Lipton ready-to-drink tea, Gatorade, our water portfolio, Pepsi and Mountain Dew.Certainly strong innovation across the portfolio is contributing to the improving performance. For example, LIFEWTR continues its journey advancing and showcasing sources of creativity with the launch of our Series 6 Bottle themed diversity and design.LIFEWTR achieved more than $150 million in measured retail sales in 2017 which was its introductory year. And is on pace to achieve more $200 million in measured retail sales in 2018.Bubly, a new flavored sparkling water where there's no artificial flavors, colors or calories which we launched in February of this year continues to perform exceeding well and has projected to exceed a $100 million in measured retail sales in this first year.Mountain Dew's performance is benefiting from the launch of Mountain Dev Ice, another launch which should surpass a $100 million of retail in its first year from launch, and from the return of Mountain Dew Baja Blast as our summer limited time offering.And in June, we launched Gatorade Zero. With zero sugar and all the electrolytes of Gatorade Thirst Quencher, Gatorade Zero is providing hydration options for more athletes in more occasions and is off to a strong start.And we believe our stepped-up advertising and marketing, particularly on trademarks Pepsi and Mountain Dew, are also starting to contribute to improve performance as we saw sequential net revenue accelerations in both trademarks in the third quarter.Commodity inflation, operating cost inflation particularly in transportation cost, product mix and stepped-up advertising expense each pressured our profit performance in the quarter. However, we expect that our recently implemented pricing actions will improve profit performance in the coming quarters.At Quaker Foods North America, our hot cereal business posted its fifth consecutive quarter of market share gains supported by our marketing campaigns highlighting the functional benefits of oatmeal and innovation like Simple and Wholesome Organic Hot Cereal, a Multigrain Hot Cereal with no artificial colors or preservatives.In addition, Quaker light snacks gains market share with high singe digit retail sales growth. In our Aunt Jemima pancake business, grew retail sales for the eighth consecutive quarter.And to close out our conversation in North America, we are pleased to report that in the third quarter PepsiCo was the largest contributor to food and beverage growth at retail in the United States.Turning to our sectors outside of North America, we are extremely pleased with the 10% organic revenue growth we saw in our developing and emerging market as a group, which is the continuation of the strength and experience across many of these markets in the first half.Strong marketplace execution led to continued solid growth across many of our key international markets. Within Latin America organic revenue grew 10% driven by high single digit growth in Mexico and double-digit growth in Argentina, Brazil and Colombia.The LatAm team is doing an excellent job, building our business and growing our market share in key countries in the region. In our Europe sub-Saharan Africa sector, Russia and South Africa each grew organic revenue high single-digit, while Turkey and Poland had double-digit organic revenue growth. Even within the developed markets of Europe, we saw mid single-digit organic revenue growth in the UK and France. Again, continued good performance from this team.And in AMENA, we had strong double-digit organic revenue growth in China, Saudi Arabia, India and Egypt, and high single-digit organic revenue growth in Australia. Excellent results from our AMENA team. This strong top line performance translated into impressive bottom line results with core constant currency operating profit up 12% in our international divisions as a group.The international results reflect our initiatives to continue to expand distribution of our big global brand and to innovate in locally relevant ways. For example, we continue to drive international growth of our zero sugar Pepsi Black and Pepsi Max trademarks with introductions of lime and cherry flavors across Easter Europe, lime in the Nordics, and lime and vanilla flavors in the Philippines.We are driving growth in Doritos internationally, whether through expansion to new markets like China where the brand just celebrated its first anniversary since launch, to innovation in existing markets like India, where we launched Doritos Heat Wave.And the Quaker's trademark continues its global expansion. From the launch of Quaker's super food in Mexico, to our launches of Quaker Kids and Quaker multigrain instant oatmeal platforms in China.Finally, during the quarter we reach an agreement to acquire SodaStream. As we said on the day of the initial announcement, we believe PepsiCo and SodaStream are an inspired match.Daniel Birnbaum and the rest of the SodaSteam team have built an extraordinary company that is offering consumers the ability to make great tasting beverages while reducing the amount of waste generated.That focus is well aligned with performance with Purpose, our philosophy of making more nutritious products while limiting our environmental footprint. Together, we can advance our shared vision of a healthier, more sustainable planet. SodaStream will also add to our growing water portfolio while accelerating our ability to offer personalized in-home beverage solutions around the world.From breakthrough innovations like Drinkfinity to beverage dispensers like Spire for foodservice and Aquafina water stations for colleges and universities. We are finding new ways to reach consumers beyond the bottle and the SodaStream is fully in line with that strategy.As we previously announced the acquisition was unanimously approved by the boards of both companies. The transaction is subject to a SodaStream shareholder vote, certain regulatory approvals and other customary conditions and consummation of the transaction is expected by January of 2019.Net, we are encouraged by the momentum we are seeing across many of our international markets. In North America, Frito-Lay continues to perform well, North American beverages is making steady improvement, and our recently implemented pricing actions will help improve profit performance in North America. And finally, we are excited about the new opportunities that the pending SodaStream acquisition represents.With that, let me turn it over to Hugh Johnston.Hugh JohnstonThank you, Indra and good morning everyone. I'll jut provide a quick update on the outlook and then we'll move to your questions. After considering our year to-date performance and other factors we've updated our guidance for 2018.Specifically, we now expect at least 3% organic revenue growth for the full year. We now expect our core effective tax rate to be between 19% and 20%. We continue to expect core constant currency EPS growth of 9%.However, we now expect core earnings per share in U.S. dollar terms of $5.65, which reflects a one-point headwind from foreign exchange translation based on current market consensus rates due to the recent strengthening of the U.S. dollar. This is an 8% increase compared to 2017 core earnings per share of $5.23.We continue to expect strong cash flow and to exercise disciplined capital allocation with prudent reinvestment into the business. For 2018 we continue to expect free cash flow of approximately $6 billion which includes approximately $9 billion in cash flow from operations, including a $1.4 billion discretionary pension contribution made in the first quarter. And we now expect net capital spending of approximately $3.3 billion.We continue to expect to return approximately $7 billion to shareholders in 2018 with cash dividends of approximately $5 billion reflecting a 15% increase in the annualized dividend per share that began with the June payment and share repurchases of approximately $2 billion.Finally, as you update your models, I'd like to highlight the following items to consider for the fourth quarter. Frito-Lay North America is lapping 5% organic revenue growth from the fourth quarter of 2017.We expect operating profit to decline in our AMENA division as we lap strong results and a refranchising gain in Jordan from the fourth quarter of 2017. We expect the previously announced refranchising of our Czech Republic, Hungary and Slovakia business operations to benefit ESSA operating profit in the fourth quarter.And finally based on market consensus forecast, we expect foreign exchange translation to negatively impact both net revenue and operating profit by approximately three percentage points in the fourth quarter.With that, operator, we are ready to take the first question.Question-and-Answer SessionOperatorThank you. [Operator Instructions] Our first question comes from the line of Dara Mohsenian of Morgan Stanley.Indra NooyiGood morning, Dara.Dara MohsenianHey, good morning. Congratulations Indra, on an illustrious career of Pepsi and best wishes for you in the future.Indra NooyiThank you.Dara MohsenianSo, the quarter itself clearly saw a large acceleration of the organic sales in emerging and developing markets that's in contrast to some of the fears out there over slowing macro. So, I was just hoping you could give us some more detail there on what drove the sequential improvement? Do you think it's more category growth accelerating or Pepsi market share picking up, maybe some of the key countries behind that. And then most importantly, just are those drivers sustainable as you look going forward beyond Q3 as you think about the strength in the business in the quarter?Indra NooyiHugh.Hugh JohnstonYes. So from an international perspective, I think we saw remarkably broad-based results. The list of countries that had a strong quarter is probably too long to enumerate on the call. We'll use up our entire time doing that. Maybe most notably I think if we saw a strong volume growth both in snacks and in beverages. Snacks were somewhere between 4% and 5% volume growth, beverages between 3% and 4%. And I think it really does sort of demonstrate that both the power of the portfolio and then in addition to that the relatively broad-based strength of economic performance around the world.So, I think we do expect international to continue to perform very well. I think the portfolio was sturdy and well insulated. Look, at any given time as countries are disrupted, we always have some exposure to those disruptions. But by and large I think we have a remarkably powerful international business.Indra NooyiAnd our execution also picked up quite a bit.Hugh JohnstonYes, absolutely.OperatorYour next question comes from the line of Kevin Grundy of Jefferies.Indra NooyiGood morning, Kevin.Kevin GrundyGood morning, Indra. And I want to extend my congratulations as well. Can we start on the North American beverage business? Results improving. So congratulations on that. But coming at costs when we look at the margin pressure year-over-year and understanding the freight and commodities are playing apart, but you're also picking up your advertising and marketing spending. So maybe you could touch on the ROI on the spent if you're satisfied at this point?And then two, maybe touch on the necessity to maintain higher levels here into Q4 and even next year particularly behind CSDs and sports drinks as we look at the some of the market share trends we see in the Nielsen data in order to maintain this level of growth? Thank you.Hugh JohnstonHey Kevin, it's Hugh Johnston. Couple of things on that. You're right. The P&amp;L was negatively impacted by two things. Number one was cost pressure both transport cost and aluminum were up. Number two, it was the increased in advertising and marketing spend across a number of our businesses. Maybe just we'll step back a little bit in terms of the way that we think about advertising and spending levels. Our intention generally speaking is to be competitive on advertising and spending levels, but not to accelerate beyond competition.Our goal is to win based on the quality of our advertising and the execution that follows that advertising rather than that the level itself. So I think we will maintain levels of spending that are competitive, but not beyond competitive. Regarding the input cost inflation whether it's transport or whether it's aluminum, our history is always been to price through inflation in our developed markets. We'll look to do that here. We did that post Q3. It's fairly unusual to take pricing in the middle of the summer. So despite the fact that we felt some of that pressure in the summer, we didn't take pricing until September. I think you'll see the profit picture improve in Q4 as a result of that pricing.OperatorYour next question comes from the line of Bryan Spillane of Bank of America/Merrill Lynch.Bryan SpillaneHey, good morning everyone, and Indra, really just want to wish you the best going forward. It's been a pleasure the last 20 years covering you.Indra NooyiThank you. Thank you very much.Bryan SpillaneI guess the bigger question I would have is just -- you're looking at the business today in this year, right? We've seen some an increase in investment for advertising and marketing. We've also seen SodaStream as a relative to some the acquisitions you've done in the past a little bit bigger, which Soda suggests that there's just more of a need to sort of invest to continue to drive the top line.So I [Indiscernible] yes, Indra, if you could if you could just sort of address this. We are at a point now where there is just a need to spend more whether it's operating expense or M&amp;A to sort of drive the top line or was this year sort of more of an anomaly?Hugh JohnstonHey, Bryan, it's Hugh. Those are too fairly points, so let me address them separately. In terms of capital allocation broadly no change in policy here. We talked about $500 million here in tuck-ins that continues to be our stated policy. SodaStream in a lot of ways is a unique asset in that it gets into a completely different market that we really weren’t touching at all, which are consumers who preferred to prepare beverages at home, whether they be just sparkling water, whether they be flavored beverages. So I would view [Indiscernible] to increase in advertising and marketing in the beverage business as anything more than a response to competitive increase and that’s a competitive increase that remains to be seen as to where it goes in the future. I think our expectation as we said before is we want to compete on execution, we want to compete on the quality of innovation that we want to compete on the quality of our marketing and we think we are well positioned to do that particularly whether integrated system.OperatorYour next question comes from the line of Ali Dibadj of Bernstein.Ali DibadjHey guys, first Indra very start -- if you go, you’ve really transformed the company and frankly the whole industry, so we feel very good about that, so would love to hear what made you decide to go after 12 great years and maybe that will be in the closing remarks but would love to hear that at or now or later. And then more specifically about the quarter, clearly the topline has been very good, the margins have seen little bit of pressure and we understand about the advertising increases as well as some of the commodity and other costs that are in there, but historically you’ve been able to insulate a lot of that through the $1billion or year of cost savings plan that we’ve seen here, where do you think you are on that, are you towards the end of that and that’s why we are seeing a little more pressure on the margins or do you think that has led to continue for many more years and to insulate you guys from what we are seeing from this quarter and most recent quarters on margin pressure? Thanks.Hugh JohnstonAli, well I’ll handle your second question first. In terms of productivity going forward, the bucket which we drive productivity, we call operating expenses about $28 billion bucket. It’s got a natural rate of inflation of about 3% to 4% partly because the bucket is more tilted internationally where inflation rates are higher. So I do think we’ve got years and years of productivity to come into the future. I’m not here to announce a specific new program right now beyond what we’ve announced, but I do think we have lots of opportunity out there for further productivity.Regarding your question on whether we can continue to drive growth through the P&amp;L funded by productivity. I think broadly the answer to that is yes, in a lot of ways I think that the third quarter was reflective of the timing of our pricing decisions where we decided to take those post Q3 rather than during the quarter which obviously pressured margins a little bit, and it was also reflective of continued investments that we are making in top line growth initiatives, whether it’s advertising and marketing which was up about 6% in the quarter, R&amp;D spending was up about 22% in the quarter, e-commerce spending was roughly double in the quarter.So I think in many ways what you saw was a timing issue in terms of the timing of commodity increases versus the pricing increase and continued investment in the business while delivering the short-term performance that frankly in many ways has been emblematic [ph] of interest entire 12 years in running the company or posture in doing so over the last 20 or more years with the company.Indra NooyiAli and I’ll answer your first question in my closing comments for sure.OperatorYour next question comes from the line of Judy Hong of Goldman Sachs.Judy HongThank you, good morning and congratulations Indra and best wishes from me as well. So I guess first on the guidance used so the FX [ph] obviously came down by about a percent, the core EPS didn’t change, the revenue went up, the tax rate came down so maybe there’s a little bit of additional pressure kind of between those lines, so maybe a little bit color there. And then just follow up on NAV pricing, so Q3, post Q3 the price increase, can you just give us a little bit color just the magnitude of the price increases and the category that you have announced the price increases and where you think the elasticity might be in terms of the pricing impact? Thanks.Hugh JohnstonYes, so in terms of the – the point that you made regarding the P&amp;L. We’ve said all along to the degree that we have upsides from tax and things like that we intend to deliver our guidance and invest back in the business. You just heard me articulate a few of the areas that we’ve been investing in. Regarding pricing in the market place what we said broadly is the pricing will be somewhere in the low to mid single digits and that pricing is basically in right now in the beverage business.OperatorYour next question comes from the line of Lauren Lieberman of BarclaysIndra NooyiGood morning, Lauren.Lauren LiebermanGood morning, thank you. Indra, I was hoping to just take this opportunity to ask you kind of as you look forward and you think about what are the biggest opportunity do you think that are still ahead for PepsiCo what do think some of the biggest challenges are and into the loss that has been built under your watch to continue development for example of DST in the U.S. and that we’ve got this dramatic changes in retail. So if you could just give us some thoughts on kind of opportunities but then also some of the challenges and adjustments that might need to be made in the business model going forward as you set to your retirements in the company? Thanks.Indra NooyiThanks, Lauren. And I think PepsiCo has the scale and scope to remain one of the most successful food and beverage companies well into the future. I think over the years we’ve assembled the portfolio that is very synergistic, has tremendous growth potential and more importantly we’ve built out a geographic footprint which is quite impressive.Going forward, I think there’s still tremendous amount of growth available in emerging markets. I think there’s growth available and re-thinking some of our businesses as platforms rather than just products. For example, we still haven’t fully exploited how snacks can be mini meals and what we can do with the combination of our snacks and dips [ph] and that’s something our teams are looking at very seriously. How do we look at sports beverages more as holistic sports nutrition on a sports field platform and our teams are looking at that? And so our growth prospects whether it’s a development markets or the developing markets and emerging markets is actually what we imagine it to be, not necessarily what the reported numbers are, so that’s the first topline opportunity.I think the wonderful thing about PepsiCo is that we reinvent ourselves constantly, whether it’s rethinking innovation and top line new capabilities we need to invest behind, or if its re-thinking the cost structure. As I’ve said to many of you I think there’s lot of technology driven disruptions that are coming down the pie that are going to force us to rethink many many parts of our cost structure, but we started that work several years ago and I think over the next year or so you will start seeing a lot of these taking root, and how we implement these in the company and reshape our cost structure for the new realities is really going to separate the great companies from the not so great companies and I’m confident PepsiCo is among the great companies and we will re-shape our cost structure using technology as a big driver and I think will also use data analytics and insights to think about innovation a whole lot differently.So I feel good about where we are. We have made a lot of investments, the trick now is to keep investing in the company judiciously so that we deliver a good balance of short term results and make investments to keep this engine going into the future.OperatorYour next question comes from the line of Bonnie Herzog of Wells Fargo.Indra NooyiGood morning, Bonnie.Bonnie HerzogGood morning and congratulations to Hugh and Indra, we all wish you really the very best in the future. And I had a quick question on your guidance. Your outlook for organic sales is now slightly higher for the year, but it implies a sequential deceleration in Q4, so could you guys first reconcile that for us and then whether you are being conservative or is there something else going on and then I was also hoping to hear an update on your current thinking on the strategic options you are exploring for your beverage business in North America, guess I’m wondering if you guys have made any more progress and you know determining the right path for this business and really what your latest thoughts are on potential benefits of refranchising? Thanks.Hugh JohnstonYes, happy to jump in on that. Number one, I would remind you that the Q4 lap on revenue is more difficult that Q3 was so while the guidance does imply a sequential slowdown in Q4 some of our thinking is driven by that. And frankly the guidance we’ve laid out there is at least 3%, so we’ll see how the quarter comes. And regarding North America beverage and refranchising nothing new to report on that. We’ve said we look at it as we always do, the one thing that I would say generally is we do think the integrated system does make us more innovative, it does make us faster to respond to customer needs and it does make us more cost competitive. So those are the hurdles that we have to overcome if we were to see some benefit to refranchising in the future.OperatorYour next question comes from the line of Caroline Levy of Macquarie.Caroline LevyGood morning and – and hi Indra congratulations and really can’t wait to see what you are up to next, and you’ve been a great role model for many women, so congratulations. I just – my question is on Frito North America where the margin growth hasn’t been as robust this year as it has historically and I’m wondering how you are thinking about the fourth quarter which has a very difficult lap. I know you had some one-time payments in the first quarter on bonuses, but as Frito has always been such a great driver of growth for the total company Frito, North America is there a point at which the margin expansion story thinking longer term maybe needs to slow as you invest in new opportunities?Hugh JohnstonHey Caroline, it’s Hugh. I think the answer to your question is no, because we think that, that business is so strong in its ability to leverage new ideas and new technology and to scale them relatively quickly to provide increased margin overtime. In terms of the short term numbers that you are speaking to, what are the factors affecting Frito-Lay this year is transport cost. Now transport in Frito was more heavily internal relative to beverages which uses more common carriers. So beverages has been more exposed to the driver shortage and the impact in terms of transport cost, but Frito-Lay is not immune to that it does use some common carrier and there is some wage inflation and the driver pool is well up. One of the things you will see Frito-Lay do is take some pricing in the fourth quarter particularly in single served which I think will mitigate the impact of the inflation and you will see their margin performance return to a more normal, a more normal margin improvement.OperatorYour next question comes from the line of Andrea Teixeira of JPMorgan.Andrea TeixeiraHi, thank you and Indra thank you for making history and best wishes for you and Ramon as well.Indra NooyiThank you.Andrea TeixeiraThank you. My question is related to NAB, why are we encouraged to see the volumes return to positive, but the trends continue to decelerate on a two-year stag, so how should we think about volume performance on a sequential basis as you move through the fourth quarter, I’m assuming that you are going to have some of the results of your increased investments and also execution that strayed? Thank you.Hugh JohnstonYes, Andrea, I’m not going to – I don’t want to get into guidance on a division specific perspective and on a division specific quarterly perspective particularly not. I would view it as the business is both improving but it’s improving in a broad based way. So w</t>
+  </si>
+  <si>
+    <t>The Kraft Heinz Co. (NASDAQ:KHC) Q3 2018 Earnings Call November  1, 2018  5:00 PM ETExecutivesChristopher M. Jakubik - The Kraft Heinz Co.Bernardo Vieira Hees - The Kraft Heinz Co.David H. Knopf - The Kraft Heinz Co.Paulo Luiz Araújo Basílio - The Kraft Heinz Co.AnalystsKenneth B. Goldman - JPMorgan Securities LLCBryan D. Spillane - Bank of America Merrill LynchSteven Strycula - UBS Securities LLCDara W. Mohsenian - Morgan Stanley &amp; Co. LLCAndrew Lazar - Barclays Capital, Inc.David Palmer - RBC Capital Markets LLCChristopher R. Growe - Stifel, Nicolaus &amp; Co., Inc.Akshay Jagdale - Jefferies LLCJason English - Goldman Sachs &amp; Co. LLCRobert Moskow - Credit Suisse Securities (NYSE:USA) LLCDavid Cristopher Driscoll - Citigroup Global Markets, Inc.OperatorGood day. My name is Latif, and I will be your operator today. At this time, I would like to welcome everyone to The Kraft Heinz Company's Third Quarter 2018 Earnings Conference Call.I will now turn the call over to Chris Jakubik, Head of Global Investor Relations. Mr. Jakubik, you may begin.Christopher M. Jakubik - The Kraft Heinz Co.Hello, everyone, and thanks for joining our business update. We'll start today's call with an overview of our third quarter and nine months results as well as our view on the path forward from Bernardo Hees, our CEO; and David Knopf, our Chief Financial Officer. Then, Paulo Basilio, President of our U.S. Zone, will join the rest of us for the Q&amp;A session.Please note that during our remarks today, we will make some forward-looking statements that are based on how we see things today. Actual results may differ materially due to risks and uncertainties, and these are discussed in our press release and our filings with the SEC. We'll also discuss some non-GAAP financial measures during the call today. These non-GAAP financial measures should not be considered a replacement for and should be read together with GAAP results. And you can find the GAAP to non-GAAP reconciliations within our earnings release and at the end of the slide presentation available on our website.Now let's turn to slide 2, and I'll hand it over to Bernardo.Bernardo Vieira Hees - The Kraft Heinz Co.Thank you, Chris, and good afternoon, everyone. Three months ago, we said that we expected organic growth from Q3 onwards, driven by a stronger more incremental marketing and innovation pipeline, leveraging investments in category management and go-to-market capabilities and supported by incremental merchandising spend and best-in-class customer service.Today, we believe and are confident our Q3 results show that the turnaround of our top line performance is firmly underway, not just in terms of headline organic growth, but also real volume growth.The transitory factors that negatively impacted first half sales are fading as expected and we saw further improvement in consumption trends in most countries, in most key categories. In fact on a global basis, more than half of our categories saw consumption growth in Q3.In our categories in United States, are going to a trend bend, with aggregate consumption across our categories, improving nearly 2 percentage points in Q3 versus Q2. Excluding planters club entity, they are flipping from negative to positive.Our market shares are also improving. Across the total company, Kraft Heinz is holding or growing share in more than half of our categories, including very strong market share gains in our Rest of World markets.And finally, we continue to see solid performance in non-measured channels, including e-commerce and global foodservice. Breakthrough innovation and strong in-store activity, distribution gains and whitespace expansion are coming together.Overall, while we did provide solid end market support for these activities and pricing in Q3 was down versus the prior year, it's important to note that our commercial growth is positive.Commercial profitability or the profit contribution from price, volume and mix is positive and growing. Execution is improving, and our pipeline is getting stronger, both in terms of innovation and go-to-market initiatives.At the same time, third quarter profitability was held back by several one-off factors, including commercial investments, the unfavorable impacts of bonus accrual versus 2017 and supply chain inflation as we expected, but also, by our decision to prioritize customer service as you saw volumes ramp-up and for goals, some degree of profitability in the short term.In the end, we are confident pushing commercial growth higher, given the greater visibility we have on both retailer support and consumer interest in our programming as well as below-the-line for favorability from both tax and lower-than-expected interest expenses that we see coming through.And as David will discuss, we are equally confident that profitability will improve going forward, as one-off negative factors from Q3 fall away. But before I hand it over to David, I think it's important to recognize that the commercial growth you're now seeing, and I believe that are in the path to sustainable, profitable growth, and driven by the fact that we are adapting the company with speed. And doing these two investments in both, our people and in-house capabilities.On the slide 3, we show this fixed goals from the post integration framework, we introduced early this year. During the third quarter, we continued to make good progress in each one of those areas. More important, the different investments and in-house capability we have built are now coming together for measurable, sustainable gains and making our brands more relevant than ever.For instance, look at our efforts in data driven marketing and brand building and innovation, we can see in United States that our ratio of quality impression to total impression is at 75%, significantly outpacing the industry average, (6:52) impression, I expect it to be up 9% in 2018 versus the prior year.And year-to-date, we have had $14.5 billion PR impressions versus $13.5 billion of all of 2017, all good numbers, but more powerful when you consider how these two areas come together to drive incremental gains.For instance, again in the United States, our PR campaigns to generate awareness for the launch of Heinz Mayo, not only lead to strong share gains in Mayo, but gave birth to a new product, Heinz Mayochup, which just landed of the shelves of American retailers and we will be going to the UK next.This summer, Country Time rally people to save lemonade stands contributing to the strong gains we're seeing in our beverage mix business. And now our renovate all natural Capri Sun line up is taking ongoing in-school cafeterias through the #SitTogether pledge.The data driven insights and in-house capability that drive these results are scalable and sharable across all categories and geographies. I mentioned on last call that you felt, that you had the strongest pipeline of activities in place. In our short history at Kraft Heinz and the numbers are starting to prove it.In a similar fashion, our efforts to reinvent category management by deploying tools like revenue management, assortment management and planograms are supporting and informing everything we do, as we expand go-to-market capabilities around the world. For instance, we have more than doubled our in-store head count in United States, now fully trained Kraft Heinz employees armed with insights from our category management tools are helping to drive faster product velocity.In areas, where we have greater in-store coverage we are seeing better performance in our key power windows, lower rates of out-of-stock merchandising and brand activation to display and shelving initiatives. This will help us push our total dollar velocities ahead of category average. And in both meals and sauces, our combination of powerhouse brands and optimize category management activities is driving dollar velocities 40% and 28% above their respective category average.And we have been able to push strong incremental gains with innovation like Just Crack an Egg, which in the third quarter had velocities that outperformed its entire category. The old (10:07) United States retail in foodservice, you are seeing the benefits from assortment management, as we look to expand distribution and drive incremental gains in each region of the world, while reducing complexity in our supply chain.And in the digital space, our year-to-date e-commerce sales in United States are up roughly 80%. We are capturing our fair share. And in many focused categories like snacks, nuts and condiments, we're significantly ahead of our fair share.That being said, we still see a long runway for global growth. The ability to further leverage our data-driven insight and category management knowledge and we're investing aggressively in the next generation of capabilities.These initiatives include deploying the next-generation of our Kraft recipes website, a cornerstone of our relationship marketing effort; building easy-to-use mobile technologies that learns about you and your family; recommends meal plans; and seamlessly connects you to grocers; and establishing a venture capital fund that can invest up to $100 million in emerging tech companies to further strengthen our business model.From a capability building perspective, these initiatives can improve our ability to engage consumers in an environment characterized by expanding retail channels and fast-changing shopping patterns.Finally, what make all of this come together is our effort to build best-in-class operations, as well as recruit, develop and align our people. In operations, we continue to deliver against industry-leading targets, we set for ourselves in quality, safety and customer service in all geographies where we operate.Cost is one area we are falling short this year. This is due to a combination of greater than expected cost inflation in United States, our desire to invest and protect customer service as we ramp-up volumes as well as (12:43) to delay some savings projects to avoid operational disruption.That said, we believe we have the right people, the right training and the right level of engagement to execute with excellency in all areas going forward. Specifically, our employees' recruiting remain strong with more than 85 candidates for each spot in our United States trainee and MBA program, and more than 400 candidates per spot internationally.And our vertical promotion ratios are up versus prior year showing meritocracy in action. To summarize, we feel good about our commercial performance, sales and profitability and our ability to sustain this positive momentum. We continue to build and deploy new capabilities and adapt with speed. And while we have seen and accepted more volatility in EBITDA in the near-term, we believe our investments will allow our brand to be there in a bigger way tomorrow.I will now hand it over to David to provide more color in our results and our path forward.David H. Knopf - The Kraft Heinz Co.Thank you, Bernardo and hello everyone. Turning to our results on slide 4. Total company organic net sales were up 2.6% in Q3, bringing year-to-date organic growth into positive territory. This was driven by 3.5 percentage points of volume/mix growth in Q3 and bringing volume/mix to essentially flat through the first nine months. Encouragingly, this performance was driven by volume/mix growth in every reporting segment and led by consumption growth in a majority of U.S. categories.Pricing was down 90 basis points in Q3, driven by increased promotional activity and key commodity-related pricing in the United States that more than offset higher pricing, mainly to offset local inflation and Rest of World markets.By segment, the U.S. had a strong volume/mix led quarter, characterized by consumption-led growth across the majority of categories. As expected, the change from positive first half pricing in the U.S. to lower pricing in Q3 was primarily driven by combination of three factors. One, lacking carryover pricing from last year; two, increase in-store activity to support our commercial pipeline, including higher year-over-year support in natural cheese and ready-to-drink beverages; and three, passing-through recent declines in some key commodities during the quarter, mainly bacon.In Canada, while we saw solid growth in Coffee and Mac &amp; Cheese, sales were down as anticipated from a combination of select product discontinuations, higher promotional expenses in the current year as well as comparisons with prior year limited time condiments offers and activities that were not repeated. As we mentioned on our last call, however, we do expect a solid pipeline of activities to return Canada to growth in Q4.EMEA stayed in positive growth territory in Q3 as strong growth in Southern Europe and Germany, where we continue to grow the Kraft brands more than offset some one-off headwinds in Middle East. And in Russia, where we ran into destocking activity related to World Cup-related promotional products.That said, we expect EMEA to improve sequentially in Q4 as the headwinds in Middle East and Russia fall away. And in Rest of World, in addition to the strong contribution from pricing, we've seen all year, Latin America drove strong organic volume/mix gains from a combination of pasta sauce and condiments growth in Brazil as well as whitespace expansion across the region. And this more than offset lower shipments of canned seafood and cordials in Indonesia.Moving to EBITDA. Q3 adjusted EBITDA was in fact lower than expectations we had outlined in our previous earnings call, resulting in year-to-date adjusted EBITDA now being down 7.2% on a constant currency basis. We certainly benefited from organic net sales growth. And in fact, our commercial profitability with the profit contribution from volume/mix and pricing combined, was positive. Despite all the stepped up merchandising activity we carried out during the quarter. However, several factors that we do not expect to repeat negatively impacted both EBITDA growth and our absolute level of profitability in Q3.As expected and as we outlined in our previous call, year-on-year EBITDA growth was negatively impacted by a combination of the commercial investment programs we've talked about all year, the swing from overhead favorability last year to a more normal bonus incentive compensation accrual this year, and the non-key commodity inflation we've previously noted.In addition to that, our absolute level of profitability in Q3, was negatively impacted by three factors. The first was higher than expected one-off operating costs in the U.S. from our decision to prioritize customer service, delays some saving projects to avoid disruption and buy more spot market freight during the quarter than we otherwise would, in a normal course of business. Second, was the disproportionate impact from commercial investments, particularly marketing, as we stepped up our investment levels in the second half of the year. And third, were some unanticipated one-off supply chain costs mainly in the Middle East.Looking forward, we expect both EBITDA growth and our absolute level of EBITDA margin to improve beginning in Q4. Specifically, we expect to sustain our organic top line momentum, the one-off factors that drag Q3 EBITDA down should fall away. And on top of that, we expect to see a better year-on-year balance between cost inflation and savings.Finally, at adjusted EPS, we were down $0.05 versus Q3 last year as lower taxes on adjusted earnings in the current period mitigated part of the adjusted EBITDA decline.I would also add here that for the full-year in 2018, we now expect an effective tax rate of approximately 20% versus 21% previously. And incremental interest expense in 2018 should be roughly $70 million versus the $80 million, we previously outlined.Which leads to our outlook on slide 5. I'll start by reiterating what we said before that we believe the pipeline and capabilities are now in place for us to push a more aggressive growth agenda from innovation that drives incremental consumption, to distribution gains across channels and expanding our brands into geographic and category whitespace.We continue to believe we're in a strong position to deliver organic growth for the full-year and sustain that momentum into 2019. We also expect a much better balance of top and bottom line growth going forward.2018 has clearly been a year where results have been more or less dominated by a number of transitory issues, on both the sales and cost sides of the equation, that we do not expect to repeat.At the same time, we've essentially accelerated what would have been three years of commercial investments into 2018, push commercial grow even harder than originally planned, given greater visibility over the likely success of our pipeline. And this was largely offset by tax savings.Going forward, we feel good about our ability to continue driving commercial growth and our ability to drive EBITDA dollar growth and industry-leading margins as one-off factors fall away and the contribution from our savings initiatives accelerate.To-close, I think it's worth repeating the thoughts that we've expressed all year, that we're developing capabilities to create brand and category advantage and achieve profitable growth that we're investing aggressively now in order to see benefits sooner, and that these are the key factors shaping our near-term results into 2018 and we believe will drive sustainable profitable growth into 2019 and beyond.We think our focus on EBITDA dollars and our returned based discipline in sales, marketing and innovation will lead us well positioned to deliver top-tier organic growth at industry-leading margins.We have good visibility on considerably better post-integration cash flow. We have and will continue to strengthen our balance sheet and credit standing through both de-risking and other activities such as divestitures of non-core assets when consistent with our strategic framework as we recently announced.And our ability to continue building brand and category advantage through differentiated capabilities will not only be a key enabler, but will make two plus two equal more than four in the event of a transformational deal.Now we'd be happy to take your questions.Question-and-Answer SessionOperatorThank you. Our first question comes from the line of Ken Goldman of JPMorgan. Your question please.Kenneth B. Goldman - JPMorgan Securities LLCHi. Thank you so much. Wondering if you can help us quantify the magnitude of what you would consider one-time or non-recurring cost in the P&amp;L. There is a lot different costs, there is a lot of different things that drag down your EBITDA this quarter. I think some of them like marketing probably don't go away, some of them like maybe the customer service issues maybe do go away. I'm just trying to get a sense of that, because it's difficult to maybe model ahead unless we have a better understanding of sort of what just happened.David H. Knopf - The Kraft Heinz Co.Hi, Ken, this is David. Thanks for the question. So, as I break this down for you, I think the first thing to reiterate here is commercial profitability for Q3 or the profit contribution from vol/mix and pricing combined was positive, okay? Which is good considering all the growth initiatives and stepped up merchandising activity that we had in the quarter. So, we're very happy with that.Beyond that, there are really four main drivers of the year-over-year decline, many of which were one-off in nature. So first, we have the stepped up commercial investments that we previously outlined, with Q3, seeing the heaviest quarterly impact within the year.Second, you have the swing from overhead favorability we mentioned last year to more normal incentive compensation accrual this year, so that is one-off in nature.Third, we had additional cost inflation that we previously noted, however the impact was worse in Q3 from our decision to prioritize customer service, as our volumes ramped up through the quarter, which in turn led us to delay certain supply chain savings projects and also by more spot markets freight than we otherwise would have.So, a lot of those factors were in fact kind of one-off in nature for the quarter. On top of that, we had some unanticipated one-off supply chain costs that were mainly related to the transition of the Middle East business to our European business.All that to say, we're not going to provide precise numbers around it but we expect both EBITDA growth and our absolute level of profitability to improve significantly beginning in Q4 and into next year versus what we saw this year and in the first half.Kenneth B. Goldman - JPMorgan Securities LLCOkay. And then can you – as a follow-up, just the prioritizing of customer service is a headwind, can you just walk us through what that means in practical terms? I'm not quite sure I understand in this case.David H. Knopf - The Kraft Heinz Co.Yeah, sure, Ken. This is David, again. So I'd say some of the savings projects that we anticipated for this year were very much variable cost in nature, so things like yield and variable labor. So – and this is versus fixed cost that we've captured over the last three or so years. So we decided to delay some of those productivity initiatives that we're executing across our factories. And this is really to ensure that there is no disruption as volumes ramped up in the quarter and ramped up more than, frankly, we had expected. On top of that, the additional volume that we didn't anticipate above and beyond what we planned for came at an additional cost and a lot of those costs are logistics or freight related.Kenneth B. Goldman - JPMorgan Securities LLCThank you.OperatorThank you. Our next question comes from the line of Bryan Spillane of Bank of America. Your question, please.Bryan D. Spillane - Bank of America Merrill LynchHi. Good afternoon, everybody. Two questions from me. One is just a follow-up to Ken's question. I think on the last earnings call, the expectation was the EBITDA split for the year would be roughly 50-50, first half, second half. So given that we missed by, I don't know, about $100 million or so in the quarter. I guess the question is, is the split for the year now more like 49-51? Or is the split different? Just trying to get a sense for kind of where things stood relative to maybe where you're fourth quarter expectations were. And then I have a follow-up.David H. Knopf - The Kraft Heinz Co.Hi, Bryan, thanks for the question. This is David, again. So as we said in the last call, as you pointed out, and as we said today, we do expect both EBITDA growth and our absolute level of EBITDA margin to improve in the back half and further improve in Q4. And this is based on the sustained organic top-line momentum that we're seeing, the one-off factors that I talked about that drag EBITDA this quarter which will fall away next quarter, and a better year-on-year balance between cost inflation and savings.Relative to your specific question that we talked for the last quarter, I think given the unexpected one-off factors in Q3 that we experienced, it may be difficult to get all the way back to the 50-50, first half, second half, (28:32) EBITDA that we targeted. But we should see a very good sequential improvement into Q4.Bryan D. Spillane - Bank of America Merrill LynchOkay. So order of magnitude, it's around that $100 million sort of miss in the quarter is sort of the one-off piece that you may or may not be able to close the gap on?David H. Knopf - The Kraft Heinz Co.Yeah, I think around that range would be appropriate.Bryan D. Spillane - Bank of America Merrill LynchOkay. And then just one other question in terms of asset sales. I guess the asset sale in India. is that sort of indicative of the larger sort of strategy of maybe potentially selling more assets down the road? Just some color or some context around that as well. Thanks.Bernardo Vieira Hees - The Kraft Heinz Co.Hi, Bryan. Hees (29:17) Bernardo. Look, we – like we always said, we like our portfolio. I think each brand has its role in its specific country and region. But we do evaluate every business and brand on its own and see the returns and what we can do with that, right?In the India case, I think it was very clear for us that we didn't have really the competitive advantage in the new market and the beverage portfolio we have in the country. It could not scale, right, for the level you wanted to. (29:55)And the value we're receiving from the proceeds are really higher than we could have been doing with the business. Like you said, I think there are other things to be considered within the portfolio in general. And we always evaluate very careful on a case-by-case situation. I think an important side effect of this is really the fact that we – obviously, with the proceeds, we're able to strengthen our balance sheet, right, and give us more firepower, especially in a moment where industry evaluations are more attractive, right? And that I think is a positive in this case.OperatorThank you. Our next question comes from the line of Steve Strycula of UBS. Your line is open.Steven Strycula - UBS Securities LLCYeah. Hi. Thanks for the question. So similar to the previous two, I wanted to dig into the $100 million EBITDA miss that we saw in the quarter. At what point did you realize that things were tracking below plan? How did you react to it? And can you walk us through what of that $100 million actually washes away in the fourth quarter? And then I have a quick follow-up. Thank you.David H. Knopf - The Kraft Heinz Co.Sure, Steve. This is David, again. Thanks for the question. So we said that we expected Q3 adjusted EBITDA dollars to be down a greater order of magnitude than what we saw in the first half. So that gets you to more than $140 million at the start. So kind of two big factors in the quarter that took us lower than what we had originally expected. Again, we had a higher than expected one-off operating cost in the U.S. against a prioritized customer service. We delayed some of those savings projects to avoid disruptions. And we bought more on the freight market, which increased our logistics costs than we otherwise would have given the additional volume. And then on top of that, the unanticipated one-off supply chain costs.But again as I said, we expect both EBITDA growth and our absolute level of profitability to improve significantly into next quarter. But unfortunately, we're not going to provide any more specifics around the magnitude of that into Q4.Steven Strycula - UBS Securities LLCOkay. And given what you've seen right now, is there any reason to think that EBITDA dollar growth can't expand in calendar 2019? I know it's early to talk about 2019, but given the inconsistency of recent performance, I think, maybe investors deserve a little bit of clarity as to how confident you feel about the sustainability of what the trends you're seeing develop in the fourth quarter. And is the tax rate sustainable at 20%? Thank you.David H. Knopf - The Kraft Heinz Co.Sure, Steve. David, again here. Thanks for the question. So for 2019, we do expect a much better balance of top- and bottom-line growth going forward. In 2018, we've had a number of transitory issues that we don't expect to repeat. We really accelerated and pushed commercial growth harder given the greater visibility on the investments that we're driving and putting in the business. And then on top of that, the tax favorability which mitigated a number of these headwinds on the bottom-line.Going forward, we feel good about that balance for several reasons. Our ability to continue driving real volume/mix driven organic growth; our ability to drive EBITDA dollars and at industry-leading margins as one-off factors fall away and the contributions from our savings curve accelerate.And finally, I think our ability to build the brand and category advantages and capabilities that we've been talking about, the same thing will make two plus two greater than four in the event of a transformational deal.And then finally, with respect to your tax rate, I think we started the year a bit higher but based on further clarity on new tax laws, I think, we're really expecting to get to that 20% for the full year.OperatorThank you. Our next question comes from the line of Dara Mohsenian of Morgan Stanley. Your line is open.Dara W. Mohsenian - Morgan Stanley &amp; Co. LLCHey, guys. So I just want to focus on U.S. pricing. I understand that some of the decline was probably pass-through pricing, but I'm assuming you're still down ex that or at least not up substantially, which is surprising just given the level of gross margin pressure and EBITDA pressure we're seeing here at the corporate level. So just wanted to get your thoughts around what sort of drove the sequential deceleration in pricing?Obviously, a lot of your direct and even more so indirect peers in CPG land have been talking about taking more pricing recently given some of the margin pressures in this sector. So do you have plans to increase pricing going forward? And as you look at your price premiums in the categories you compete, given they moved up over the last few years, do you think you need adjustments in those price premiums? Or are you comfortable you can get more pricing going forward? Thanks.Paulo Luiz Araújo Basílio - The Kraft Heinz Co.Hi, Dara. This is Paulo. Thanks for the question. So when we think about the price and the profile we have in the quarter, it was really consistent with our expectations. The change from the positive pricing we had in the first half to a lower net pricing in the third quarter was primarily driven by three factors. The first one was we start lapping (35:45) the carryover pricing we had from prior year. Second, we pass through recent commodity declines, mainly in bacon. And given our strong innovation pipeline and portfolio position, we believe that was the right time to expand trial, consumption, and drive strong volume gains which we didn't (36:05).As David noted before, our commercial profitability or our profit contribution from pricing and vol/mix was solid. We believe that we have a very strong portfolio of brands with ability to price as we have been showing over the past several quarters as we've mentioned. And for your last point, and you look forward to the next year, for sure, price will be an important lever we will consider in managing our cost profile.Dara W. Mohsenian - Morgan Stanley &amp; Co. LLCOkay. And then the comment on 2019 EBITDA, I just want to be clear. You talked about a better balance. Did you mean year-over-year growth in EBITDA in 2019, just to be clear? Or are we talking about sort of level of improvement relative to 2018? I just want to be precise there. Thank you.David H. Knopf - The Kraft Heinz Co.Hi, Dara. This is David, again. Thanks for the question. So, when we talk about our ability to drive EBITDA dollars, we do mean year-over-year.Dara W. Mohsenian - Morgan Stanley &amp; Co. LLCOkay. Thank you.OperatorThank you. Our next question comes from the line of Andrew Lazar of Barclays. Your question, please.Andrew Lazar - Barclays Capital, Inc.Hi, good afternoon. Just two things from me. One quick one first. Sometimes when – I think when investors hear sort of the term spending to ensure customer service and things like that, I mean sometimes the notion comes up of, is it slotting or paying more to keep product on the shelf for retailers sort of asking for more dollars or those sorts of things. So, I was hoping you could just address that just to take that off the table if that's not the case.And then I guess more importantly, putting the one-offs and the one-off spending aside, you still did it looks like or sounds like increased sort of commercial spending, spending around capabilities, spending that's ongoing that will be in the base, if you will.And it sounded like after the second quarter that you had a pretty good read on that and obviously it increased in the third. So, really, I guess what gives you that comfort level that this is the right number and that in 2019 there's not, ultimately, the need for another significant step-up? Because we have seen some other food companies already starting to talk to 2019 and saying, hey, one year of reinvestment spending that was tax reform-led actually isn't enough to get the top-line going. It really needs to be a multi-year timeframe. So, any color on that would be really helpful, too. Thank you.David H. Knopf - The Kraft Heinz Co.Hi, Andrew, this is David. Thanks for the question. So, let me take your firs</t>
+  </si>
+  <si>
+    <t>Facebook, Inc. (NASDAQ:FB) Q3 2018 Earnings Call October 30, 2018  5:00 PM ETExecutivesDeborah Crawford - Facebook, Inc.Mark Elliot Zuckerberg - Facebook, Inc.Sheryl Kara Sandberg - Facebook, Inc.David M. Wehner - Facebook, Inc.AnalystsDouglas T. Anmuth - JPMorgan Securities LLCEric J. Sheridan - UBS Securities LLCBrian Nowak - Morgan Stanley &amp; Co. LLCJustin Post - Bank of America Merrill LynchRoss Sandler - Barclays Capital, Inc.Lloyd Walmsley - Deutsche Bank Securities, Inc.Brent Thill - Jefferies LLCMark A. May - Citigroup Global Markets, Inc.Anthony DiClemente - Evercore Group LLCHeather Bellini - Goldman Sachs &amp; Co. LLCRalph Edward Schackart - William Blair &amp; Co. LLCOperatorGood afternoon. My name is Mike, and I will be your conference operator today. At this time, I would like to welcome everyone to the Facebook third quarter 2018 earnings conference call. All lines have been placed on mute to prevent any background noise. After the speakers' remarks, there will be a question-and-answer session. This call will be recorded. Thank you very much.Ms. Deborah Crawford, Facebook's Vice President of Investor Relations, you may begin.Deborah Crawford - Facebook, Inc.Thank you. Good afternoon, and welcome to Facebook's third quarter 2018 earnings conference call. Joining me today to discuss our results are Mark Zuckerberg, CEO; Sheryl Sandberg, COO; and Dave Wehner, CFO.Before we get started, I would like to take this opportunity to remind you that our remarks today will include forward-looking statements. Actual results may differ materially from those contemplated by these forward-looking statements. Factors that could cause these results to differ materially are set forth in today's press release and in our Quarterly Report on Form 10-Q filed with the SEC. Any forward-looking statements that we make on this call are based on assumptions as of today, and we undertake no obligation to update these statements as a result of new information or future events.During this call, we may present both GAAP and non-GAAP financial measures. A reconciliation of GAAP to non-GAAP measures is included in today's earnings press release. The press release and an accompanying investor presentation are available on our website at investor.fb.com.And now, I'd like to turn the call over to Mark.Mark Elliot Zuckerberg - Facebook, Inc.Thanks, Deborah, and thank you all for joining us today. We had a solid quarter, and our community and business continue to grow quickly. 2.3 billion people now use Facebook every month, and 1.5 billion every day. Revenue grew 33% year over year to $13.7 billion.Last quarter, for the first time, we also shared the number of people who use at least one of our apps each month. We believe this is a better way to measure our community over time because so many people use more than one of our apps. There are now more than 2.6 billion people using Facebook, WhatsApp, Instagram or Messenger each month, up from around 2.5 billion last quarter. But now, on average, more than 2 billion people use at least one of our services every day.Today, I want to talk about our strategy overall as we navigate challenges and opportunities on several fronts. For one, we're seeing the way people connect shifting to private messaging and stories. We have great products here that people love, but it will take some time for our business to catch up to our community growth.Two, we're seeing video grow dramatically across the ecosystem. And while Watch is now growing very quickly, we're well behind YouTube and still working to make this a unique people-centric experience. Three, we continue to face increased safety and security threats. We've significantly improved our systems here, but we have more to do.So let's start with messaging and stories. Public sharing will always be very important, but people increasingly want to share privately too, and that includes both just smaller audiences with messaging and ephemerally with stories. People feel more comfortable being themselves when they know their content will only be seen by a smaller group and when their content won't stick around forever. Messaging and stories make up the vast majority of growth in the sharing that we're seeing.On messaging specifically, we think we've built the best messaging apps in the world. People now send around 100 billion messages each day using our services that even our second most popular service, Messenger, has a higher daily message volume than SMS had globally at its peak. And this isn't just text. People share more photos, videos and links on WhatsApp and Messenger than they do on social networks.We are leading in most countries, but our biggest competitor by far is iMessage. And in important countries like the U.S., where the iPhone is strong, Apple bundled iMessage as a default texting app and it's still ahead. In countries where there's more competition between iOS and Android, like much of Europe, people tend to prefer our services.Now, it's worth noting that one of the main reasons people prefer our services, especially WhatsApp, is because of its stronger record on privacy. WhatsApp is completely end-to-end encrypted, does not store your messages and doesn't store the keys to your messages in China or anywhere else. And this is important because if our systems can't see your messages, then that means that governments and bad actors won't be able to access them through us either.Our roadmap focuses on continuing to make WhatsApp and Messenger even simpler, faster and adding basic utility features like payments. We found that every time we make our services faster and simpler, people communicate more. We'll also keep pushing our messaging services to be more private and secure, and we believe this will continue to be a competitive advantage for us.On the business side of messaging, our first step has been to enable people to connect with businesses organically in ways they find useful, and then the second step is to give businesses additional paid tools to increase those interactions. We're well into step one at this point, with more than 3 million accounts on WhatsApp Business. We'll begin step two with a couple of products, paid messaging and ads in Stories.And by making businesses pay to send messages, we believe it will make them more selective with what they send. Payments will make each of these services more useful for people and businesses, even though we don't plan to profit from it directly. I'll update with more progress on each of these efforts in the next few quarters.On Stories, we are even better-positioned. People now share more than 1 billion stories every day. We lead in almost every country. There are a couple of reasons we've focused on building Stories in all of our apps. First, I just think that this is the future. People want to share in ways that don't stick around permanently, and I want to make sure that we fully embrace this.Second, Stories is a medium like feeds that can feel very different in very different contexts. So just like most major social apps have feeds, including Pinterest, Twitter, or LinkedIn, but you wouldn't say that those services do the same things, I think many services will have Stories in the future too, but will serve different functions.Now, while this effort is going well, we're also working through a couple of challenges here. One is that while WhatsApp Status and Instagram Stories immediately took off and have been huge successes, Facebook Stories started off slower. It's now growing quickly and I think we'll be in a better position soon, but our effort to shift Facebook from News Feed first to Stories first hasn't been as smooth as I had hoped. But this is important for the Facebook community long term.Another challenge is that we're earlier in developing our ads products for Stories, so we don't make as much money from them yet as we do from feed ads. We're following our normal playbook here of building out the best consumer products first and focusing on succeeding there before ramping up ads. I'm optimistic that we'll get ads in Stories to perform as well as feed over time, and that the opportunity will be even bigger because it looks like Stories will be a bigger medium than feed has been.But I want to be up front that even assuming that we get to where we want to go from a feed-only world to a feed plus Stories world, it will take some time and our revenue growth may be slower during that period like it was while transitioning our products to mobile.Now, talking about messaging and Stories raises the question of what's the future of our feed product and the Facebook app overall. On feed specifically, people continue to use them heavily and we don't expect that to decrease. From a business perspective, feeds will drive the majority of our growth over the next couple of years, at least until Stories become an even bigger driver.On the Facebook app overall, what we see is that we are generally stable, although we may be close to saturated in developed countries while we continue to grow quickly in developing countries. For a few years, we saw a trend where people's time was increasing primarily because they were consuming more video and public content, even as they interacted with friends and family less. But people were telling us what they wanted was to interact with people more. So we didn't think that this trend was sustainable.We've made a number of changes this year to focus the product on meaningful social interactions, and those generally seem to be working. That means the trends in how people are interacting have improved, even though we've purposefully reduced time spent on things like lower-quality viral videos and news to achieve this.While there's a lot to do to improve News Feed, our roadmap for the Facebook app is very focused on a few priorities: Stories, which we've discussed; video, which I'll get to in a moment; and a much bigger focus on communities and groups.If the last 10 years have been about friends and family, then the next 10 years will be about your communities as well. When we say communities, we mean both helping people connect with people who share their interests, which is a major need in people's lives, and also building out specific services for bringing people closer together, like helping you find someone to date, or find a job, or buy and sell things, or grow your small business, or create an event, or start fundraisers, or bring together a group to volunteer.A lot of these services are growing quickly. Hundreds of millions of people now belong to meaningful communities that are a central part of their social support structure. Marketplace is now used by 800 million people and is emerging as one of the most popular places to buy vehicles online. On jobs, our new tool has helped people find more than 1 million jobs. On fundraisers, in the last year we've helped people raise more than $300 million for charities on their birthdays alone. And I'm looking forward to rolling out dating across the world soon too.These are services that generally benefit from having everyone you know connected on a single platform. And while people may not spend as much time on some of these tools as they do in News Feed, these are very high-value activities for our community.Now, we're seeing a similar dynamic in Instagram, where there's still a lot to improve in feed, but we're increasingly focused on other experiences as well. But in Instagram, instead of focusing on communities, we're very focused on helping you explore your interests. So this will take the form of IGTV, which I'll discuss more in a minute, plus new shopping experiences and really building out Explore. These areas have huge potential for serving our community and a lot of potential for businesses as well. For example, Explore is already about 20% of the time that people spend in Instagram. But unlike feed, we haven't built any ads experience for it yet, so that's an opportunity.Now, I want to discuss what we're seeing with video specifically, since it's such an important and growing area. Our efforts here have grown, but we've had challenges reconciling all this passive video consumption with what people uniquely want from us, which is meaningful social interaction.Video has grown a lot on our services, but as I mentioned earlier, we hit a dynamic where when it grows in feeds in Facebook and Instagram, it displaces some social interactions, and people tell us it makes the experience less valuable even though they're spending more time on it.So the solution to this has been building separate video experiences outside of our feeds with Watch on Facebook and IGTV on Instagram. And what we found is that when people seek out video experiences intentionally, they don't displace social interactions as much, and the quality of the experience is generally higher. We've also been able to build experiences that help creators build communities around their content, which fits our mission and our focus to encourage meaningful interactions.At this point, Watch has really hit its stride and it's growing incredibly quickly, about 3x in the last few months in the U.S. alone. IGTV is still earlier in its development, but I think we have a good sense of how to make it work as well. To be clear, these services are still well behind YouTube, which is our primary competitor in this space, but they're growing very quickly.Now, that said, beyond the mission challenges of video displacing social interactions, there is also a business challenge, which is that video monetizes significantly less well per minute than people interacting in feeds. So this means that even though we've made video more community-oriented and minimized displacement of social interactions, as video grows, it will still displace some other services where we'd probably make more money.From a mission and a business perspective, though, we still believe this is the right thing to do. Video is a critical part of the future. It's what our community wants as long as we can make it social, and I think will end up being a large part of our business as well.All right, next I want to talk about safety and security. So let me start by saying that last month, we had a serious security issue. Our teams did well to find and close the vulnerability quickly, but we have a long road ahead to prevent these kinds of attacks in the future. Over the last couple years, though, we've done a lot of work and made a lot of progress. We still have at least a year before our systems are at the level that we want, but they're getting better every day, and that's both technology and people.Our systems for proactively identifying harmful content are improving. Our systems for detecting interference in elections are a lot more mature now. The upcoming elections will be a real test of the protections we've put in place. With a community of more than 2 billion people, we will see all the good and bad that humanity can do. And we will never be perfect, but I'm proud of the work that we're doing here.We've reduced the incentives to spread misinformation. We're partnering more closely with governments and outside experts to improve security, including here in the U.S. And we set a new standard for transparency in advertising. This quarter alone, we've found and taken down foreign influence campaigns from Russia and Iran attempting to interfere in the U.S., UK, Middle East, and elsewhere, as well as groups in Brazil that have been active in their own country. We still have a lot of work to do in all of these areas that I've talked about.News Feed continues to be very important. We're building the best messaging and stories and community tools in the world. Our video services are getting better and growing quickly, and we still have a lot of work to do on safety. And we're also heavily investing in AR and VR, as well as hardware for bringing people closer together, like Portal for video presence and Oculus Quest, the all-in-one VR experience that delivers rift like quality with no wires attached.So with all of this ahead, I expect 2019 to be another year of significant investment. Dave will say more about this in a moment, but I want you to know that looking out beyond 2019, I know that we need to make sure our costs and revenue are better matched over time; and that's something that I'm focused on as well.So, overall, this has been an important year. It's been a tough year, but we've built products that I'm proud of and we've made a lot of progress on some of our hardest issues. As always, I appreciate your support. And thank you for being a part of this journey with us.And now, here is Sheryl.Sheryl Kara Sandberg - Facebook, Inc.Hi, everyone.It was another good quarter for our business, with ad revenue up 33% year over year. Our growth was broad-based across regions, marketer segments and verticals. Mobile ad revenue grew 40% to $12.5 billion, making up approximately 92% of our total ad revenue. Since Facebook launched its first ad products, we've been in the business of growing our clients' businesses, from the largest brands in the world, to the entrepreneur in her living room.Over 90 million businesses rely on Facebook pages to reach potential customers for free. In a global survey, half of small businesses with a presence on Facebook said that they are hiring because of growth they're able to achieve through our platform. More than 6 million advertisers are active across Facebook, Instagram and our other services. With more than 2 billion people using at least one of our services every day, we're the best place for these advertisers to show people ads that work.We know that our continued growth depends upon maintaining the trust of the people who use our services and earning our clients' business each and every day in a very competitive environment. Every time I meet with clients, I tell them that we want to be the best minute and the best dollar, euro or peso they spend. As we look ahead to 2019 and beyond, we're focused on continuing to build our clients' businesses and ours by helping advertisers reach consumers where they are and making ads better.First, helping advertisers connect with people where they are. Consumers often adopt new technologies before businesses do. Our competitive advantage is helping advertisers close that gap. We've done this before on desktop, mobile and News Feed. In the early days, we helped businesses deliver personalized marketing at scale on desktop. With the shift to mobile, we've helped companies large and small build their mobile presence.Now, we're doing it again with stories, messaging, Marketplace and Watch. Today, the primary way advertisers are reaching people on our services is through Facebook News Feed and Instagram Feed. Feed ads on Facebook and Instagram represent the majority of our revenue growth and the majority of opportunities for marketers to generate ROI.Quarter after quarter, we make improvements that help advertisers use feed ads to launch new products, find new customers, build awareness and increase sales, all in a highly efficient way. We're always working to enable more marketers to achieve their goals through mobile feed, and we see continued opportunity here going forward.At the same time, as Mark mentioned, more and more consumers are using stories and private messaging in addition to the time they spend in News Feed and Instagram Feed. Because our services share a common platform, advertisers can use the same tools to buy across all our ad services.Building on the strength of ads and Instagram Stories, we rolled out ads in Facebook Stories in Q3 and announced plans to introduce ads in WhatsApp Status next year. We know it's not enough to make a new format available. We also need to make it easy for advertisers to optimize their campaigns.In Q3, we improved how ads from News Feed look in Stories. This is important for advertisers like Pandora, which uses Facebook and Instagram to reach potential listeners. Previously, they would buy Instagram Story ad separately and develop unique creative each time. Now, with automatic placements, our technology converts their horizontal video and captions from Facebook into a design that looks native to the vertical Instagram Stories format. For Pandora, this resulted in a 10% lower cost per view than their stand-alone campaigns simply by checking a box in our ad tool.When it comes to messaging, we have an opportunity to help people and businesses connect in ways that are valuable for both. On Messenger, over 10 billion messages are sent between people and businesses every month. It's still early, but we're exploring how we can help advertisers reach people in Messenger through sponsored messages and inbox ads.For WhatsApp, we're growing our business ecosystem starting with the WhatsApp Business model app on Android. In August, we launched the WhatsApp Business API to help larger companies send useful information such as boarding passes or delivery confirmations. This paid messaging model will ensure that companies are selective about what they send and don't clutter people's chats. As always, people will be able to block any business they want with one tap. As we build the business on WhatsApp, we're determined to maintain the simple private user experience that people love.That's also true for Marketplace and Watch. Last year, we started allowing advertisers to extend their News Feed ads to Marketplace, helping businesses reach people where they already shop. In Q3, we expanded Marketplace ads to nearly 70 marketers. It's early days, but advertisers are seeing good results.With Facebook Watch, we've been working closely with advertisers to better fit their current planning and buying process for video. In Q3, we introduced a way for advertisers to buy video placements from a selection of the most engaging publishers, choose specific content categories they want their ads to play alongside, and pay only for ads that are watched to the end. Again, it's still early, but we're pleased with advertiser interest and results so far.We have a big opportunity to help our large and growing advertiser base expand to new platforms and formats to reach potential customers. Our service makes it possible for every business to access the same tools as the largest brands. We start by making it simple for small businesses to transition from using our consumer apps to using our business tools, and then we make it easy to run more sophisticated campaigns.This has been true every step of our journey so far, from online to mobile and now for messaging and stories. In the future, this will include opportunities with the new VR/AR platforms that we're creating as well.We're also focused on making ads better. One of the top things people tell us about our ads is that they want them to be relevant. We create value for people when we show ads they are likely to find useful, for advertisers when we deliver ads to the right audience, and for our own business by performing this match effectively.Our business model is and always has been to connect people and businesses with relevant marketing messages without sharing people's personal information. Protecting people's privacy is incredibly important because people and businesses will only use our services if they feel Facebook can be trusted and if sharing on our platform is safe. That's why we're making significant ongoing investments to better protect privacy and security.In Q3, we completed the shutdown of partner categories and tightened our standards for Custom Audiences. These changes help protect peoples' privacy and ensure that advertisers have more oversight of the information they use for advertising. We also continue to invest heavily in technology and people to remove bad content as quickly as possible and prevent it from going up in the first place, while giving advertisers more control over where their ads are placed.This quarter, we added more tools for advertisers to see where their ads might appear in Audience Network, Instant Articles and instream placements like Watch. They can block their ads from running in videos or articles from certain publishers or categories of content and review all of their placements at the end of each campaign.Making ads better also means increasing efficiency for advertisers. In Q3, we expanded campaign budget optimization so advertisers of all sizes can now set a single budget, and our system automatically finds the best opportunities across each of those segments. Improvements like this one add up and help businesses maximize the value they're gaining from our products over time. This is critical for small businesses that don't have large advertising budgets or expertise, and it's an important way we support economic growth and job creation around the world.As we wrap up the year, I want to thank our clients for their partnership and their continued feedback which helps us improve. And I also want to thank our teams at Facebook for helping these businesses reach their customers and grow.And now, here is Dave.David M. Wehner - Facebook, Inc.Thanks, Sheryl, and good afternoon, everyone. Let's start with our community metrics. Daily active users on Facebook reached 1.49 billion, up 9% compared to last year, led by growth in India, Indonesia and the Philippines. This number represents approximately 66% of the 2.27 billion monthly active users in Q3. MAUs were up 199 million or 10% compared to last year.Note that our Q3 2018 community metrics reflect an update to our calculation methodology. This resulted in the removal of the small percentage of accounts or approximately 15 million DAU and 9 million MAU worldwide. This change will modestly impact our year-over-year user growth rates until we lap it next year. Further details are included in the earnings slides on our IR website.Turning now to the financials, all comparisons are on a year-over-year basis, unless otherwise noted. Q3 revenue was $13.7 billion, up 33% or 34% on a constant currency basis. Had foreign exchange rates remained constant compared to last year, Q3 total revenue would have been $159 million higher.Q3 total ad revenue was $13.5 billion, up 33% or 35% on a constant currency basis. In terms of regional ad growth, Asia Pacific was strongest at 38%, followed by Europe and North America at 34% and 33%, respectively. Rest of world ad growth trailed at 26% due to both currency weakness and economic challenges in Latin America.Mobile ad revenue was $12.5 billion, up 40%, and represented approximately 92% of total ad revenue. In Q3, the average price per ad increased 7% and the number of ad impressions served across our services increased 25%, driven primarily by feed ads on Instagram and Facebook.Our impression growth in Q3 came primarily from product surfaces and geographies that monetize at relatively lower rates. For example, ads in Instagram Stories contributed to our impression growth this quarter, although these ads currently monetize at lower rates compared to feed ads. Payments and other fees revenue was $188 million, up 1%.Turning now to expenses. Total expenses were $7.9 billion, up 53%. We ended Q3 with approximately 33,600 full-time employees. That's up 45%. The majority of our new hires in the past year have been in technical functions. Operating income was $5.8 billion, representing a 42% operating margin. Our Q3 tax rate was 13%. This was lower than we expected because we did not take the one-time charge that we anticipated due to the Ninth Circuit Court withdrawing its decision in the Altera case.Net income was $5.1 billion or $1.76 per share. Capital expenditures were $3.3 billion, driven by investments in data centers, servers, network infrastructure and office facilities. In Q3, we generated $4.2 billion in free cash flow and ended the quarter with approximately $41.2 billion in cash and investments. In the third quarter, we bought back approximately $4.3 billion of our Class A common stock.Turning now to the revenue outlook, in Q4, we expect that our total revenue growth rate will decelerate by a mid to high single-digit percentage compared to our Q3 total revenue growth rate. Several factors are contributing to this deceleration. First, we expect more of our impression growth to continue to come from product services and geographies that monetize at lower rates. Second, we are seeing some impact from data privacy initiatives on pricing growth. And third, as we focus more of our product efforts on the growth of Stories, its more prominent placement on Facebook will displace some ad impression opportunities.Turning now to the expense outlook, we anticipate our full-year 2018 total expenses will grow approximately 50% to 55% versus our prior range of 50% to 60%. We anticipate that full-year 2018 capital expenditures will be approximately $14 billion to $14.5 billion compared to our prior estimate of $15 billion.Turning to tax, at current stock prices, we expect that our Q4 tax rate will be in the mid-teens. As a reminder, fluctuations in our stock price will impact our tax rate.I'd also like to share our initial outlook on 2019 operating expenses and CapEx. As Mark mentioned, we plan to continue to invest aggressively across the business and expect that full-year 2019 total expenses will grow 40% to 50% compared to full-year 2018. We also expect that full-year 2019 capital expenditures will be approximately $18 billion to $20 billion, driven by a continuation of our data center build strategy that seeks to put in place adequate capacity ahead of our needs. We anticipate that our full-year 2019 tax rate will be in the mid-teens.The third quarter marked a period of both solid revenue growth across the globe and heavy investment as we make progress on our mission to bring the world closer together. We are confident in our ability to improve the products that our community loves as well as to provide innovative new experiences in the near and long-term.And with that, Mike, let's open up the call for questions.Question-and-Answer SessionOperatorWe will now open the lines for a question-and-answer session. Your first question comes from the line of Doug Anmuth from JPMorgan.Douglas T. Anmuth - JPMorgan Securities LLCThanks for taking the questions. I just wanted to ask two. First for Mark, I was just hoping you could talk a little bit more about some of the challenges that you see for Stories within Facebook relative to their stronger adoption in Instagram and for WhatsApp Status. And then also, what if Stories don't gain traction on Facebook over time here? How do you think about that for the platform as well?And then, secondly, for Dave, just on OpEx for 2019, the 40% to 50% growth, should we think about that as still the same buckets of spend that you've been talking about over the last year or so, and does their prioritization change at all for next year? Thanks.Mark Elliot Zuckerberg - Facebook, Inc.Sure, so I can take the first part. I think a lot of this is really basic. When I say that we got started slower on Facebook, that starts with literally rolling out on Facebook a number of months after we had rolled out on either WhatsApp or Instagram. And then the initial version of what we shipped I just think wasn't as high-quality as where it needed to be. It wasn't as fast. There were bugs. And we've been working on dialing that in.I'm less worried at this point about it not working because we're starting to see it really take off. Certainly, with different groups of people, it's stronger on Instagram or WhatsApp or Facebook, but across all three at this point, it's growing. And as I said in my opening remarks, I think we're going to be a lot better positioned here in Facebook in the next year.David M. Wehner - Facebook, Inc.Hey, Doug. It's Dave. Just on the 2019 expense growth guide, a lot of that is consistent with what we've been talking about as our big investment areas. If you look at just head count growth in the past year, it's up 45%. So that compensation expense base that we're bringing into 2019 is really factoring into the overall growth guidance for the total expense guide, so that's a big factor there.In addition, we've been investing significantly in CapEx, and those investments are starting to flow through the P&amp;L in terms of depreciation. And then I'd point to significant investment areas like AR/VR efforts, the content ecosystem around video, and the ongoing investment in safety and security.OperatorYour next question comes from the line of Eric Sheridan from UBS.Eric J. Sheridan - UBS Securities LLCThank you so much, maybe one for Sheryl. When you thi</t>
+  </si>
+  <si>
+    <t>Microchip Technology, Inc. (NASDAQ:MCHP) Q3 2018 Earnings Call February  6, 2018  5:00 PM ETExecutivesJ. Eric Bjornholt - Microchip Technology, Inc.Ganesh Moorthy - Microchip Technology, Inc.Steve Sanghi - Microchip Technology, Inc.AnalystsCraig M. Hettenbach - Morgan Stanley &amp; Co. LLCWilliam Stein - SunTrust Robinson Humphrey, Inc.Harsh V. Kumar - Piper Jaffray &amp; Co.Chris Caso - Raymond James &amp; Associates, Inc.Mark Delaney - Goldman Sachs &amp; Co. LLCChristopher Brett Danely - Citigroup Global Markets, Inc.Craig A. Ellis - B. Riley FBR, Inc.Adam J. Gonzales - Bank of America Merrill LynchKevin Edward Cassidy - Stifel, Nicolaus &amp; Co., Inc.Harlan Sur - JPMorgan Securities LLCGil Alexandre - Darphil AssociatesJohn William Pitzer - Credit Suisse Securities (NYSE:USA) LLC (Broker)Hans Mosesmann - Rosenblatt Securities, Inc.OperatorGood day, everyone, and welcome to the Microchip Technology Third Quarter and Fiscal Year 2018 Financial Results Conference Call. As a reminder, today's call is being recorded. At this time I would like to turn the call over to Microchip's Chief Financial Officer, Eric Bjornholt. Please go ahead, sir.J. Eric Bjornholt - Microchip Technology, Inc.Good afternoon, everyone. During the course of this conference call, we will be making projections and other forward-looking statements regarding future events or the future financial performance of the company. We wish to caution you that such statements are predictions and that actual events or results may differ materially. We refer you to our press release as of today, as well as our recent filings with the SEC that identify important risk factors that may impact Microchip's business and results of operations.In attendance with me today are Steve Sanghi, Microchip's Chairman and CEO; and Ganesh Moorthy, Microchip's President and COO. I will comment on our third quarter fiscal year 2018 financial performance, and Steve and Ganesh will then give their comments on the results and discuss the current business environment as well as our guidance. We will then be available to respond to specific investor and analyst questions.I want to remind you that we are including information in our press release on this conference call on various GAAP and non-GAAP measures. We have posted a full GAAP to non-GAAP reconciliation on the Investor Relations page of our website at www.microchip.com, which we believe you will find useful when comparing GAAP and non-GAAP results.I will now go through some of the operating results, including net sales, gross margin and operating expenses. I will be referring to these results on a non-GAAP basis prior to the effects of our acquisition activities and share-based compensation.Net sales in the December quarter were $994.2 million, modestly higher than the midpoint of our guidance and down 1.8% sequentially from net sales of $1.012 billion in the immediately preceding quarter. We have posted a summary of our revenue by product line and geography on our website for your reference.On a non-GAAP basis gross margins were at the high end of our guidance range of 61.4% in the December quarter. Non-GAAP operating expenses were at 22% of sales which was a record low and below the low end of our guidance range which was 22.2%. Non-GAAP operating income was a record $391.7 million at 39.4% above the high end of our guidance of 39.2%. Non-GAAP net income was $341.2 million and was up 38.4% as compared to the same quarter last year. Non-GAAP earnings per diluted share was $1.36 which was above the midpoint of our guidance.On a GAAP basis, gross margins including share-based compensation and acquisition-related expenses were a record 61.1% in the December quarter. GAAP gross margins include the impact of $3.5 million of share-based compensation. Total operating expenses were $361.8 million, and include acquisition and tangible amortization of $121 million, share-based compensation of $20.5 million, $1.2 million of acquisition-related and other costs, and special charges of $0.2 million.GAAP net income was impacted by a $439.8 million discrete tax event in the quarter primarily associated with the Tax Cuts and Jobs Act, and we also incurred a loss of $2.1 million on the retirement of our 2037 2.125% convertible bonds. After these adjustments, the GAAP net loss was $251.1 million or $1.07 per diluted share.The non-GAAP tax rate was 8.5% in the December quarter, and we expect the rate to be about the same in the March quarter. Due to the Tax Cuts and Jobs Act we expect about $300 million of taxes to be paid over the next eight years related to the tax incurred on foreign earnings that were permanently invested offshore referred to as the transition tax. We estimate the tax payments to be approximately $25 million in years one through five, $45 million in year six, $60 million in year seven and $75 million in year eight. We will continue to evaluate the impact from the Tax Cuts and Jobs Act and these estimates may change as we complete our analysis.We are working through the impact of recent U.S. tax reform on Microchip's longer term effective tax rate. There is no impact on the fiscal year 2018 rate as you can see from our March quarter guidance provided in today's earnings release. Excluding the transition tax from the Tax Cuts and Jobs Act, we expect our ongoing long-term cash tax rate to be below 9%, which is what we are providing to investors and analysts for cash flow and operating model forecasting purposes. We will continue to refine this over the coming months prior to providing guidance for Q1 of fiscal year 2019.Moving on to the balance sheet, our inventory balance at December 31, 2017, was $487.1 million. Microchip had 115 days of inventory at the end of the December quarter, our targeted inventory levels are between 115 and 120 days. Inventory at our distributors in the December quarter were at 34 days and up 3 days from the prior quarter, and in the normal historical range for distribution inventory.The cash flow from operating activities was a record $365 million in the December quarter. As of December 31, the consolidated cash and total investment position was $1.985 billion, of which about $550 million is domestic cash. Due to the Tax Cuts and Jobs Act, the majority of our offshore cash could be brought back to the U.S. without incurring any material additional tax cost.We bought back the remaining amount of our 2037, 2.125% convertible bonds in the December quarter through $58.3 million in cash. Capital expenditures were $66.4 million in the December 2017 quarter. We expect about $50 million to $60 million in capital spending in the March quarter and overall capital expenditures for fiscal year 2018 to be about $200 million to $210 million, which is at the lower end of the guidance that we provided last quarter.We are aggressively adding capital to support the growth of our production capabilities for our fast growing new products and technologies, and to bring in house more of the assembly and test operations that are currently outsourced. These capital investments will bring significant gross margin improvements to our business, particularly for the Atmel manufacturing activities that we are bringing into our own factories.As mentioned last quarter, our capital spending in fiscal 2018 also reflects three new building projects we are constructing in Arizona, India and Germany, which will give us meaningful lease cost reductions and avoidance in the future, as well as allow us to cost effectively scale our future growth. Depreciation expense in the December quarter was $32 million.We also want to provide an update on the tax treatment of our dividends. In fiscal year 2017, our dividends paid to shareholders were treated as return of capital and we were expecting similar treatment in fiscal year 2018. The tax cuts and Jobs Act which passed in December 2017 has changed this outlook. Due to the U.S. taxation and fiscal year 2018 of our foreign earnings which were historically permanently invested offshore, Microchip is taxable in the U.S. in fiscal year 2018. As a result, dividends in the June September and December 2017 quarters are fully taxable to our shareholders, and dividends to be paid in March 2018 will be fully taxable to our shareholders. We believe the impact of U.S. tax reform on Microchip's U.S. taxable income in future periods will result in dividends being fully taxable to shareholders in fiscal year 2019 and beyond. We will continue to provide updates to shareholders on this topic in the future if facts and circumstances change.I will now ask Ganesh to give his comments on the performance of the business in the December quarter. Ganesh?Ganesh Moorthy - Microchip Technology, Inc.Thank you, Eric, and good afternoon, everyone. We performed better than we expected in the seasonally slow December quarter with a sequential revenue decline of 1.8% and year-over-year growth of 12.8%, all organic growth as there was no contribution from acquisitions in the last four quarters.The Microchip 2.0 transformation continues to make good progress especially in terms of new design opportunities as we enable our clients' innovation with the very best smart, connected and secure solutions. Taking a closer look at microcontrollers, our Microcontroller business performed well in the December quarter with revenue down sequentially only 0.6% as compared to the September quarter.On a year-over-year basis the December quarter Microcontroller revenue was up a very strong 18.9%. 8-bit Microcontroller revenue actually set a new record again, edging out the September quarter performance, while 16-bit and 32-bit revenue continue to have strong year-over-year performances.Our Microcontroller portfolio and roadmap has never been stronger and we are seeing continued growth in our design-in funnel which we expect will drive future growth as these designs progress into production over time. Microcontrollers represent a 66.5% of Microchip's overall revenue in the December quarter.Now moving to our Analog business. Our analog revenue was sequentially down 3.2% in the December quarter as compared to the September quarter, and up 1.5% on a year-over-year basis. As we highlighted at our last conference call, our publicly reported analog results continue to see some revenue classification headwinds resulting from a deliberate shift in strategy we made several quarters ago. The change in product line strategy, as we reported last quarter, is that we have for some time been adding microcontroller cores to several of our more complex analog products, especially those that provide our clients with smart connectivity solutions.The addition of microcontroller cores to these analog products enables us to sell a higher value and more defensible total system solution. These smart connectivity products are growing nicely, and as they replace older products and new designs, our revenue classification for these new products have shifted from the analog product line to our Microcontroller product line. Transitioning to more sticky and higher margin smart connectivity revenue is the right Microchip answer, but does impact some of the product line reporting that analysts are interested in as some of the revenue growth shifts into our Microcontroller product line.In the longer term, as the revenue from analog attached design wins continues to ramp, we fully expect that the analog product line revenue will grow nicely. Our analog products represented 23.3% of Microchip's overall revenue in the December quarter.Moving next to our licensing business. This business was up 6.8% sequentially in the December quarter and up 15.5% on a year-over-year basis, setting a new record in the process. We are seeing the fruits of having licensed several foundries and independent device makers for several years on multiple process technology nodes as they manifest in our results as the license processes ramp volume and generate royalty revenue for many years to come.Finally, our memory business was sequentially down 7.6% in the December quarter as compared to the September quarter, and up 3.4% on a year-over-year basis.Let me now pass it to Steve for some general comments about our business and our guidance going forward. Steve?Steve Sanghi - Microchip Technology, Inc.Thank you, Ganesh, and good afternoon, everyone. Today, I would like to first reflect on the results of the fiscal third quarter of 2018. I will then provide guidance for the fiscal fourth quarter of 2018. Our December quarter financial results were good. Our net sales were slightly above the midpoint of our guidance, which itself was slightly better than five years of seasonality. Our non-GAAP gross margin of 61.4% of sales was at the high end of our guidance.Operating profit of 39.4% of sales made a new all-time record, and earnings per share of $1.36 exceeded the midpoint of our guidance by $0.01 per share. I want to thank all the employees of Microchip worldwide for delivering an outstanding quarter and calendar year 2017. On a non-GAAP basis, this was also our 109th consecutive profitable quarter.Now I will provide you with an update on Microchip 2.0. We are continuing to experience an enormous customer preference to design with our Microcontroller solutions in all 8-bit, 16-bit and 32-bit customer applications. On top of that, our various acquisitions have now built a powerful diversified product line through which we are able to provide total system solutions to our customers. We are winning incremental design wins with multiple products in the same boards of our customers. We have a robust design win funnel and we feel very optimistic that Microchip 2.0 is working and increasing the organic growth of Microchip.Based on SIA numbers, our Microcontroller market share in calendar 2017 was at a record 15.7%, up 220 bps from calendar 2016. To be fair, calendar year 2016 only had three quarters of Atmel, while 2017 had all four quarters of Atmel. So I calculated market share for three quarters of 2016 to three quarters of 2017, which will be April 1 to December 31 of both years. Based on that nine-month comparison, our market share gain was 91 bps higher than 2016. Also, our Microcontroller market share grew in each of 8-bit, 16-bit and 32-bit product lines.Now let us go into the guidance for March quarter. Our inventories at Microchip at the end of December 2017 were 115 days, which is right at our target. We were able to get to this target a quarter or so ahead of what we were thinking. This is due to enormous progress we made on the manufacturing side and bringing capacity online and decreasing lead times.Our book-to-bill ratio has also continued to moderate from 1.11 in both March 2017 and June 2017 quarters, and then the book-to-bill ratio was 1.05 in September 2017 quarter and 1.0 in December 2017 quarter. This moderation of book-to-bill reflects the improvements in lead times that we have seen or we have been able to achieve over the last several quarters.As we have indicated before, our seasonality for any given quarter will change as we integrate acquisitions and end up with a new blended seasonality. The seasonality of the Atmel business is driven by a larger percentage of consumer-oriented business, which has a sharper decline in the March quarter. In fact, the historic Atmel seasonality in the March quarter over the five years prior to the acquisition was a 7.8% sequential decline when they were an independent company. Meanwhile, Microchip's historic seasonality in the March quarter in the five years prior to acquiring Atmel was a 2.75% sequential growth. The blended average March seasonality results in a minus 1% sequential decline.You can also see the contribution from Atmel's consumer business in the stronger than seasonal blended results Microchip experienced in the June, September and December quarters of 2017. We will compare our March quarter guidance to this combined seasonality of new Microchip. So now let's go into the non-GAAP guidance for the March quarter. We expect total net sales in the March quarter to be down 3% to up 1% sequentially, giving us a midpoint of the guidance at minus 1%, which is right at seasonality that I explained about.In September quarter last year, our net sales were up 15.8% from a year ago quarter. In December quarter, our net sales were 12.8% from a year ago quarter. In March 2018 quarter, we are guiding the net sales to be up 9% from a year ago quarter, clearly demonstrating the soft landing scenario that we have been talking to the investors. Our total fiscal year 2018 sales ending March 31, 2018 with midpoint of the guidance is expected to be up 13.2% from fiscal year 2017 sales, beating most of our competitors for the same time window.Regarding gross margin, we see a steady improvement in overall gross margin of the company. Based on Microchip 2.0 margin drivers, we expect gross margin for the March quarter to be between 61.3% and 61.7% of sales. We expect overall operating expenses to be between 22% and 22.4% of sales. We expect operating profit percentage to be between 38.9% and 39.7% of sales. And we expect earnings per share to be between $1.30 and $1.39 per share.I want to remind investors that our long-term financial model is a non-GAAP operating profit of 40% and you have seen that we are relentlessly marching towards this model. Given all the complications of accounting for the acquisitions including amortization of intangibles, restructuring charges and inventory write up on acquisitions, Microchip will continue to provide guidance and track its results on non-GAAP basis. We believe that non-GAAP results provide more meaningful comparison to prior quarters and we request that the analysts continue to report their non-GAAP estimates to First Call.With this, operator, will you please pool for questions?Question-and-Answer SessionOperatorCertainly. We'll take our first question from Craig Hettenbach with Morgan Stanley.Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCYes, thank you. Steve, thanks for the color in terms of book to bill and lead times. When you think through the March quarter seasonality with Atmel/Microchip combined can you help us as you go toward June in terms of what you typically see for the June quarter?Ganesh Moorthy - Microchip Technology, Inc.Well, the June and September were stronger quarters for Atmel as well as for Microchip and you have seen pretty strong June and September quarters for the last couple of years since we have had Atmel in both quarters. And you've seen the December quarter slightly stronger than our historic seasonality as we just reported. And what their results is significant difference in the March quarter seasonality where Microchip was historically up for 2.5% to 2.75%, and Atmel was down a whopping 7.8%. And that's really when you combine it together, that's what results into a minus 1% seasonality.Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCGot it. And then maybe just a follow up for Eric. As you approach the target model and given the margin expansion you've seen, can you talk about just some of the initiatives this year and maybe on the intermediate term for both gross margins and op margins?J. Eric Bjornholt - Microchip Technology, Inc.So, I mean, on the gross margin front it's more of the same of what we've been talking about over the past year in terms of investing and the assembly and test and bringing more of that in-house, and we're making progress on that front. We've deployed a lot of capital over the last couple of quarters, we had more coming in this quarter as we talked about in my prepared remarks on the $50 million to $60 million of capital coming in. So that will continue to add to the gross margin improvement over time.We've got good utilization in our wafer fabs and all those things are making our cost structure very favorable. At a midpoint of guidance here of about 61.5% gross margin, we've got about a 1% improvement to go to get to the target model, and we're confident that we're going to get there with all these initiatives that we have.Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCGot it. Thanks.Steve Sanghi - Microchip Technology, Inc.And same thing on the operating margin, we just reported 39.4%, and our long-term model is 40%. And we're fairly confident that most of that gross margin will fall through and we're going to be in that range.Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCGot it.OperatorWe'll go next to William Stein with SunTrust.William Stein - SunTrust Robinson Humphrey, Inc.Great. Thanks for taking my question. I'm wondering if the inventory build is something that you had expected at the start of the quarter or if that occurred more as a result of perhaps orders not coming in with turn rates as fast as you might have expected when the quarter started?Steve Sanghi - Microchip Technology, Inc.So the inventory was pretty much right on target what we had guided to and what we achieved. The turns rate in December quarter was not soft. We beat the December quarter from the midpoint of our guidance so I don't think there was any issue in terms of our bookings in December quarter, which will have changed the inventory.J. Eric Bjornholt - Microchip Technology, Inc.Yeah. And you can see from the guidance that we had on our release, we think we're going to continue to be within our inventory target range of 115 to 120 days in the quarter that we're in right now, so I think inventory is well managed.William Stein - SunTrust Robinson Humphrey, Inc.That helps. One follow-up, if I can. You might have mentioned this, and I apologize if I missed it, but you've been talking about supply constraints on the Atmel portfolio, in particular in backend tests, and I think you've noted that you expected to be supply constrained there for – one time you said for the next year, maybe now we're at either six or nine months more. Any update on that relative to the capacity you've been adding. And I see the book-to-bill coming down and lead times coming down. Is that specifically related to the Atmel backend test? And any update there will be helpful. Thank you.Ganesh Moorthy - Microchip Technology, Inc.So Atmel had many business units. It was just not one business, it was microcontrollers and memory and defense and aerospace and RF and automotive and wireless and other businesses. We had broad based challenges on the Atmel business, and every quarter certain products, certain business units get help you on that. And we have been guiding from the very beginning that we expect this to take until about June of this year for it to – all business to get healthy and that really hasn't changed.So as we speak right now, there is largely, I would say, one-and-a-half business units that are still having significant challenges. Most of the others are in the very tail end where a large amount of problems have been resolved. And this last one-and-a-half business unit largely chose the testing platforms to be the one that you cannot acquire any more of. These were very old testers of 1970, 1980 vintage that should have been obsoleted prior to the year 2000. And 20 years later they're still running, but they're not running, they're not running well. And the capacity on them is going down not up because every quarter you've got to take one of it down to use for spare parts because you cannot buy anymore, so therefore the capacity is decreasing not increasing.So we are bringing that testing up on those products on more modern testers or microchip platforms, but that process is painful and then qualification of customers, many of those are automotive customers. So that is the process we've been going through for the last year-and-a-half, and I think during which we have grown the business, results have been great, lead times have been slowly coming down, but some of the remaining challenges remain and we think we need another five months to get it all behind.William Stein - SunTrust Robinson Humphrey, Inc.Thanks for the details.Steve Sanghi - Microchip Technology, Inc.Welcome.OperatorWe'll go next to Harsh Kumar with Piper Jaffray.Harsh V. Kumar - Piper Jaffray &amp; Co.Yeah. Hey, guys. First of all, congratulations on a solid quarter. 9% growth is pretty impressive, Steve. I wanted to ask about your outlook for March. In those markets, your broad end markets, auto-industrial consumer, which one do you think is going to outperform, in your opinion, the most?Ganesh Moorthy - Microchip Technology, Inc.Well, if the question is just for the March quarter, the consumer, obviously, is the weakest.Harsh V. Kumar - Piper Jaffray &amp; Co.Sure.Ganesh Moorthy - Microchip Technology, Inc.Automotive should do very well. Industrial should do very well. In some markets you have kind of brand new budgets coming in, in the New Year. The only market that is soft which is driving a minus 1% guidance is because of the Atmel seasonality which is usually down almost 8%, and that is driven by some of the consumer markets. Everything else should be good.J. Eric Bjornholt - Microchip Technology, Inc.And maybe I'll add to that on a geographic basis, this will be a strong quarter for Europe. It always is, just many more shipping days in the quarter without the holidays. Asia is the most challenged just because of the Chinese New Year, and Americas should do pretty well.Harsh V. Kumar - Piper Jaffray &amp; Co.So Steve, as my follow-up, you guys always run the company for the long-term, and historically in lean times even you've grown inventories, your target level of inventory is 115 to 120 days. You just hit 115 days now. By all metrics, end markets are still pretty good. Does it actually make sense for you to – can you make the case that you should actually be growing your inventory levels even further and beyond the 115 days? So why stop here?Steve Sanghi - Microchip Technology, Inc.Well, if our inventories get below 100, then we don't have usually all the right product in the right place and all the permutations and combinations and SKUs and permutations and combinations and SKUs and flavors available, and then you go on support and you're expediting and you're going to have a lot of manufacturing challenges. When you are in the 115, 120 days of inventories and I think we can manage our business reasonably well. I mean, I wouldn't distinguish between 115, 120 or a few days left or a few days even more than that on the outer side. But we don't want to have – keep going, like you said, to have 135, 140, 150 days of inventory, because then you're not really making the right use of that inventory.We don't need that much inventory and you have the opposite risk of obsolescence where certain products, customer changes are flavored. They want to use a different package and we packaged it in and we want to keep most of the inventory and die (00:30:23) inventory. And when you do that, then its dollar value doesn't grow as much versus if you put it in the finished goods.So I think that's well-tried over the years, that's really the right kind of number. And when we are lower than that, we're trying to grow inventory, when we are higher than that we're trying to decrease inventory, and that's kind of still the right number.Harsh V. Kumar - Piper Jaffray &amp; Co.Understood. Thanks, guys, and congrats.Steve Sanghi - Microchip Technology, Inc.Thank you.OperatorWe'll go next to Chris Caso with Raymond James.Chris Caso - Raymond James &amp; Associates, Inc.Yes. Thank you. Good evening. I guess to start if you could talk a little bit about where lead times are in general now? You're talking about them coming down. Would you consider them at normal levels now? And just following on from that, Steve, you had talked about the soft landing that you were trying to achieve. You've got lead times down now, you had the book to bill at 1, I mean, would you consider that with what you are seeing now, that soft landing is what we're seeing now or are there are more steps that need to be taken as you go into next year in order to achieve that?Steve Sanghi - Microchip Technology, Inc.So let me have Ganesh answer the lead time, then I'll pick up on your soft landing question.Ganesh Moorthy - Microchip Technology, Inc.So lead times are running – if I look at the December quarter in the 4-week to about 14-week window. So if you remember, we had – at the peak of this, we've had between 4 and 20 weeks and we have started out the capacity has come on board as we're able to get our manufacturing to respond. We've been bringing that down and we fully expect that it gets a little bit farther down in the March quarter, maybe closer to about 10, 11 weeks at the top end, and then gets down to between 4 and 8 weeks which is what we would consider to be normal on about 90% of our standard line items by the June quarter, right about on the same timeline we established about a couple of quarters ago.Steve Sanghi - Microchip Technology, Inc.So picking up on the soft landing scenario, I think I would say we've pretty much demonstrated it. We're on the tail end of it. So March quarter is right at seasonality combining Atmel and Microchip together. And if June quarter grows from here, June, September are stronger quarters, then we kind of just right went through soft landing and getting back to kind of seasonality and March quarter is up 9% year-over-year. And right in the upper end of that range that we had given you and over time it gets into the middle maybe or something around that. I mean, we're not minus 10%, we're not correcting like some of the people thought we will.Chris Caso - Raymond James &amp; Associates, Inc.Okay. Thank you. Just as a follow-up on the analog business and some of your comments on that. And I think I understand what you're saying that there's growth in analog within the microcontroller market which is affecting what gets classified in the analog segment, but what does that mean going – well, I guess two questions. One is why are we seeing that now in that – are there particular product cycle transitions happening which would cause that to show up in the numbers now? And then what does that mean for the analog business going forward? Should we expect some flattening of the growth on the analog business over the next several quarters as that trend plays out?Ganesh Moorthy - Microchip Technology, Inc.So the transition we're going through is some of our analog business was connectivity business when it either got originally created or if it came to us from an acquisition, was largely all analog in its functionality and therefore classified as analog. As time went on, if you look at a customer's system, we then begin to see what are the other functions that are on that customer's system. And often there are microcontrollers that are there to be able to take advantage of that analog.What we did some time back was create a new set of products which effectively combined the microcontroller and the analog into a single product. And as we go win new designs – and by the way, sometimes that microcontroller was ours, in other cases the microcontroller was somebody else's. But when you take a complete solution, which is a single chip which has the microcontroller and the analog, particularly in some of these smart connectivity solutions and there's a fair amount of software that we provide, the combined solution is a far more defensible, far higher margin and far more sticky business that we have. So it creates the right answer and we don't think ahead of time should we create products that fall into analog or fall into microcontroller. We're doing what we think we need to do to be able to grow, protect and have high profitability on the products we have. So that's one part of the headwind you're seeing, so to speak, by classifying it as microcontroller versus analog.But the other side of the tailwind that is coming, and I think we will see it progress along is the standard analog products that we've had, as they get attached around our microcontroller, our new designs as we have talked about the total system solution and the whole Microchip 2.0 approach of going to market. The remaining analog products will, over time, get back some of that tailwind and have that growth. And there's a bit of cross-currents between some of the analog that is moving to microcontroller for the right reasons, and the new analog designs that will come in and give us growth. But in the long run, we fully expect that analog will be a part of the growth story for Microchip.Steve Sanghi - Microchip Technology, Inc.By the way, if a pure analog company adds a microcontroller core to another complex product to improve performance or programmabili</t>
+  </si>
+  <si>
+    <t>Silicon Laboratories, Inc. (NASDAQ:SLAB) Q3 2018 Earnings Call October 24, 2018  8:30 AM ETExecutivesJalene Hoover - Silicon Laboratories, Inc.John Carter Hollister - Silicon Laboratories, Inc.George Tyson Tuttle - Silicon Laboratories, Inc.AnalystsCody Acree - Loop Capital Markets LLCGary Mobley - The Benchmark Co. LLCTore Egil Svanberg - Stifel, Nicolaus &amp; Co., Inc.Rajvindra S. Gill - Needham &amp; Company LLCCraig Ellis - B. Riley FBR, Inc.Blayne Curtis - Barclays Capital, Inc.Suji Desilva - ROTH Capital Partners LLCOperatorGood morning. My name is Mariama and I will be your conference operator today. At this time I would like to welcome everyone to Silicon Labs' Third Quarter Fiscal 2018 Earnings Conference Call. After the speakers' remarks, there will be a question-and-answer session. All lines have been placed on mute to prevent any background noise. Thank you. I would now like to turn the call over to Jalene Hoover, Director of Investor Relations and International Finance. Jalene, please go ahead.Jalene Hoover - Silicon Laboratories, Inc.Thank you, Mariama, and good morning everyone. Tyson Tuttle, Chief Executive Officer, and John Hollister, Chief Financial Officer, are on today's call. We will discuss our financial performance and review our business activities for the third quarter. After our prepared comments, we will take questions.Our earnings press release and the accompanying financial tables are available in the Investor Relations section of our website at www.silabs.com. This call is also being webcast and a replay will be available for four weeks.Our comments today will include forward-looking statements subject to risks and uncertainties. We base these forward-looking statements on information available to us as of the date of this conference call and assume no obligation to update these statements in the future. We encourage you to review our SEC filings which include and identify important risk factors that could cause actual results to differ materially from those contained in any forward-looking statements.Additionally, during our call today, we will refer to certain non-GAAP financial information. A reconciliation of our GAAP to non-GAAP results is included in the company's earnings press release and also in the Investor Relations section of Silicon Labs' website. I would now like to turn the call over to Silicon Labs' Chief Financial Officer, John Hollister.John Carter Hollister - Silicon Laboratories, Inc.Thanks, Jalene. I'm pleased to report that we achieved record revenue of $230 million in the third quarter, up 16% year-on-year and just above the high end of our guidance range. Our IoT products generated a new all-time record of $125 million for the quarter or 25% growth year-on-year.In Q3, we saw year-on-year increases in all major IoT product lines including 8- and 32-bit MCUs, Bluetooth, 15.4 wireless, proprietary wireless and sensors. We also shipped our first full quarter of Z-Wave products. We continue to see solid growth in the smart home and broad industrial market segments. Smart metering delivered sequential growth in Q3 although it is still down year-on-year.Our Infrastructure products delivered another record quarter with third quarter revenue ending at $53 million, representing year-on-year growth of 35%. Isolation achieved record design wins and established record revenue with strength in automotive and industrial end markets. Timing declined slightly in the quarter with growth in 100 gig offset by declines in 10 gig optical transport markets.As expected Broadcast increased sequentially in the quarter to $36 million with both consumer and automotive up. However, auto was down year-on-year due to softness in Europe resulting from production delays related to new emission standards. Year-on-year Broadcast was down 16%.Access surpassed expectations in Q3 increasing sequentially to $16 million on strength in SLICs and Power Over Ethernet products. Year-on-year, Access was down 4%.Third quarter distribution revenue was 72% of total sales. Our top 10 customers represented less than 20% of total year-to-date revenue with no customer greater than 5% of our revenue.Looking at revenue by end market, industrial was up in Q3 driven by growth in IoT. Our participation in the industrial end market now represents just over half of our revenue. We also saw overall sequential growth in automotive from Broadcast isolation and 8-bit MCUs.The communications end market also increased on timing, 8-bit MCUs and Power Over Ethernet products. And finally, consumer was up for the quarter led by a seasonal peak in Broadcast TV tuner revenue.Looking at geography, revenue was up in APAC and the Americas in the quarter. Sales into Europe were down. Third quarter non-GAAP gross margins were slightly higher than we expected at 60.8%, though down slightly sequentially due to product mix with Broadcast consumer revenue seasonally high.Non-GAAP operating expenses ended at $87 million. Non-GAAP R&amp;D expenses were $47 million, roughly flat to Q2 with an increase in head count offset by lower travel and fringe.Non-GAAP SG&amp;A expenses were $40 million, down $1 million due to reduced travel and variable compensation offset by an increase in head count. Third quarter non-GAAP operating margin ended strong at 23% which is 120 basis points higher than in Q3 2017.I am pleased to report record non-GAAP operating profit in the third quarter, surpassing the $50 million mark for the first time and ending at $53 million.During the third quarter, we made certain adjustments to our income tax accounting related to ongoing updates to transition tax regulations associated with the Tax Cuts and Jobs Act. We reversed a portion of the transition tax charge recorded in Q4 2017 and recorded a discrete GAAP tax benefit of $6 million. Based on the regulatory update, this transition tax item will now be recognized over a multi-year period for GAAP and tax purposes instead of being recorded as a one-time charge. Our non-GAAP tax rate increased to 15.6% for the quarter to provide for the year-to-date 2018 portion of this adjustment. Looking forward, we estimate a steady state non-GAAP income tax rate of around 13%.Non-GAAP earnings per share ended at the high end of guidance at $1.01, up 12% over the same period of the prior year. On a GAAP basis, third quarter gross margins were 58.9% which reflects the impact of the $4 million fair market valuation adjustment for Z-Wave inventory recorded in Q2 and which fully turned around in Q3, consistent with our expectations. Total Q3 GAAP operating expenses declined to $110 million with R&amp;D expenses at $61 million and SG&amp;A expenses at $49 million. Diluted GAAP EPS ended at $0.63 due to strong operating results combined with the aforementioned favorable GAAP tax adjustment. Stock compensation was $13 million with the amortization of intangible assets ending at $11 million, both in line with expectations.Turning now to the balance sheet, we ended the quarter with cash and investments of $608 million. Our accounts receivable balance declined to $75 million on 29 days sales outstanding and our inventory balance declined to $78 million on improved turns of about 4.9 times. Year-to-date 2018 operating cash flow was $145 million with excellent cash flow realized in the third quarter. Our board of directors has increased our buyback authorization to $200 million and extended the term of the authorization to the end of fiscal 2019. Third quarter year-to-date we have repurchased $24 million.I will now cover guidance for the fourth quarter. We expect revenue to be in the range of $221 million to $227 million with IoT up and declines in Infrastructure, Broadcast and Access. By end market, in Q4 we expect industrial to increase and we expect consumer, automotive and communications to decline.We expect non-GAAP gross margin to be between 60% and 60.5% and we expect non-GAAP OpEx for Q4 to be approximately $88 million. We expect our non-GAAP effective tax rate to be around 13% and we expect non-GAAP EPS to be in the range of $0.91 to $0.97. On a GAAP basis we expect gross margin to be approximately 60% and we expect GAAP OpEx to be around $111 million. We expect our GAAP effective tax rate to be approximately 10% and we expect GAAP EPS to be in the range of $0.39 to $0.45I will now turn the call over to Tyson.George Tyson Tuttle - Silicon Laboratories, Inc.Thanks, John. We are delighted to report outstanding third quarter 2018 financial performance including 16% year-on-year revenue growth. We saw sequential growth in all core business categories in Q3 and delivered record performance in IoT and Infrastructure. We have delivered target operating model performance in top line revenue growth, non-GAAP gross margin, non-GAAP OpEx, and non-GAAP operating margin for the past five quarters.Year-to-date our IoT products have delivered nearly 21% year-on-year growth including more than $20 million from the acquired Z-Wave business.Industrial IoT revenue has more than doubled over the past 10 quarters, reflecting growth in target applications for key market segments including smart home, metering, lighting and industrial automation.While smart metering revenue was still down in the third quarter year-on-year, we were pleased to see some recovery in Q3 with the resumption of normal shipment volumes in the UK from the SMETS1 to SMETS2 transition expected in early 2019.Simplicity is the key to scaling our IoT business. Our IoT opportunity funnel has grown to approximately $7 billion and our IoT design win lifetime revenue increased over 80% in Q3 year-on-year. The more we can do to make it easy to add connectivity to IoT devices the more we accelerate IoT adoption and growth.During the quarter we introduced new Wireless Xpress modules, enabling developers to move from product concept to prototype in a matter of hours instead of weeks. Silicon Labs' Wireless Xpress provides a configuration-based development experience with everything needed including certified Bluetooth Low Energy and Wi-Fi modules, integrated protocol stats, and easy to use tools.Bluetooth and Wi-Fi products based on Wireless Xpress can be remotely managed and updated using over the air native device management features. With Silicon Labs' Device Management Services, end users can easily install and update firmware, view real-time device metrics, and adjust product settings through the cloud and mobile applications. This type of product is well positioned to move through the channel and is rapidly gaining traction.I'd like to share an example of one of the many interesting ways IoT adoption is improving lives, transforming industries, and enabling smarter cities. Transportation studies show that drivers searching for parking spots have a substantial impact on urban traffic. To address this challenge during the quarter Q-Free and Silicon Labs announced an outdoor parking sensor solution designed to make it faster and easier for drivers in urban areas to locate open parking spots.Q-Free ParQSense is 99% accurate in determining whether a vehicle is taking up a parking space. The application transmits data to centralized base stations over long distances using Silicon Labs' Wonder Gecko wireless MCU.On the product development front we were pleased with the progress of our first generation EFR32 Wireless Gecko IoT platform in 90 nanometer process technology which consists of a portfolio of multi-protocol and multiband SoCs, modules, stacks, and tools.We are seeing broad adoption of this platform across smart metering, smart home, and industry market segments addressing Zigbee, Thread, Bluetooth, and proprietary protocols and we are now migrating Z-Wave under our first-generation hardware.Our focus in investment in software and security for the IoT continues to increase. We are very excited about our new second-generation Wireless Gecko IoT platform in 40 nanometer process technology which will deliver significantly lower power, improved range, superior multiprotocol capabilities and advanced security based on an ARM Cortex-M33 core with TrustZone, an embedded secure element technology. We are sampling the first product from our second-generation platform now and have already secured several Tier 1 design-ins for residential and commercial connected lighting applications.While the lighting market has underperformed in 2018 we are well positioned for anticipated growth in 2019 and beyond. We expect to be in full production with our second generation platform next year and welcome the opportunity to continue to build out the portfolio and drive leadership in connectivity and security for the broad IoT market.Moving on to Infrastructure, Infrastructure has delivered a especially strong performance this year with Q3 year-to-date growth of more than 35%. Our timing business has traditionally been strongest in the core optical networking market. This year we have seen strength and growing diversity in our customer base into industrial, data center and wireless infrastructure applications which now represent almost 40% of timing revenueWe continue to invest in these key growth products. During the quarter we enhanced our any-frequency clock portfolio which combines a clock IC and a quartz crystal reference inside the same package, simplifying board layout and design while guaranteeing reliable startup and operation over the lifetime of end products.Data center is the primary market for this new device and longer term we expect its ease of use will drive adoption in other applications.As further evidence of our progress in the wireless infrastructure market, during the quarter we secured key design wins in wireless timing applications with multiple Tier 1 communications customers in China. We are excited about the growing diversity of our timing portfolio including opportunities in 4.5 and 5G wireless.Our isolation portfolio represents a broad-based channel-friendly set of products which has grown to approximately 40% of Infrastructure revenue.Our CMOS-based digital isolation solutions continue to replace traditional optocouplers, offering longer lifetimes, significantly better stability over temperature and ageing, faster switching, and much higher noise immunity for designs requiring protection from high voltages.In Q3 isolation achieved record revenue in design win activity with strength across a broad range of applications including power supplies, solar, industrial, and automotive. We continue to gain traction in the automotive end market where we are the number one supplier of digital isolation technology for electric and hybrid electric vehicles. During the quarter we secured several significant design wins with a large European OEM which we expect to drive revenue beginning in late 2019.We are further encouraged by longer-term macro trends around the demand for electric vehicles. In fact the International Energy Agency forecasts the number of electric vehicles on the road will grow to 125 million by 2030 and this presents a large opportunity for Silicon Labs.We offer an ideal solution and have captured leading market share where we are selling approximately $10 to $50 of isolation content per vehicle today.Broadcast increased more than 5% sequentially with seasonally high consumer revenue and sequential growth in automotive. During the quarter we secured a major automotive OEM design win with a multiyear lifetime revenue opportunity of approximately $100 million and expect to begin shipping in 2021. This win underscores the technical superiority and flexibility of our Broadcast automotive portfolio and the growing penetration we are enjoying in the market.In Broadcast consumer, this month we reached a tremendous milestone with 1 billion cumulative units of TV tuners shipped into the global flat panel TV and terrestrial set top box markets since 2010 and where our share now exceeds 70%. This accomplishment is a testament to the RFC CMOS based tuner technology we developed and optimized over 6 generations of designs. We solved technical challenges which many other companies had tried and failed to deliver, ultimately replacing more than 100 external components with a single 3 x 3 millimeter tuner IC.Our TV tuners serve as a great example of what we can achieve when we focus and work together to drive cycles of learning and optimization. Our world-class engineering team has made this possible through groundbreaking RF design and IT. Our operations teams continue to drive manufacturing efficiencies and our sales and marketing teams engage customers and keep winning sockets.In conclusion, despite near-term turbulence in macro and regulatory environments as well as end markets we are keeping our eyes focused on the long term and are bullish about our ability to outperform the market. More than 80% of our products target long-term diverse growth markets including IoT, communications, infrastructure, industrial applications, electric vehicles, and automotive infotainment.Our opportunity pipeline is approaching $10 billion and we are focused on executing on our exciting product roadmaps and converting a rich pipeline of opportunities into wins.Jalene, I'd like to turn the call back to you.Jalene Hoover - Silicon Laboratories, Inc.Thank you, Tyson. Before we open the call for the question-and-answer session I would like to announce our participation in Barclays Global Technology, Media and Telecommunications Conference in San Francisco on December 5. We would now like to open the call up for your questions to accommodate as many people as possible before the market opens. We ask that you please limit your questions to one with one follow-up.Question-and-Answer SessionOperator. Your first question comes from the line of Cody Acree with Loop Capital. Your line is open.Cody Acree - Loop Capital Markets LLCGood morning, guys, and thanks for taking my questions and congratulation on the progress. Tyson, you alluded to this maybe in the last sentence or so of your comments, but I assume you were able to take a look at TI's comments from last night about a broad slowing of demand, semi demand across most major markets. I guess I would like to get your comments, your thoughts on that, and maybe what drivers you're seeing, and then maybe as a follow-up just what are the plans, if this is a period of slowdown in the markets, what is the plan to come out the other side better positioned? Thank you.George Tyson Tuttle - Silicon Laboratories, Inc.Yeah. Thank you, Cody, for the question. If we look – I'm going to talk little bit about IoT and I'll let John talk a little bit about the Broadcast and Infrastructure areas. We saw – we are seeing growth in wireless. We're seeing IoT going to be up in Q4 and that's really driven by the growth we're seeing in wireless with Z-Wave, proprietary, and Wi-Fi in particular having strength, and really coming off of a record design win quarter in Q3. So we see traction on IoT heading into 2019. We do see some as we enter into Q4 the macro impacting a little bit of our 8-bit business in China. But the 8-bit business is quite broad with a wide range of applications and is a good indicator of some slowdown in the communications and also the industrial area there in China, so we are seeing that. And then if you look at our other businesses in Infrastructure and Broadcast and Access, all of those will be down some somewhat. I'll let John comment a little bit on that.John Carter Hollister - Silicon Laboratories, Inc.Yeah, Cody. So looking further at the Infrastructure business, we had strength in industrial in the first half. And we also had some strength in China in some of the 10 gig business in China. That in particular is down as we expect it to be in Q4 with relatively flat performance on the industrial side for timing. We also see a bit of macro weakness on the isolation side and that's also an area where we've had just a long string of quarterly increases in the business, so that is settling back some. So overall we're guiding Infrastructure down. Looking further at Broadcast, consumer is seasonally high in the third quarter which is not surprisingly forecasted to be down in Q4. And as I mentioned in my prepared comments, the automotive part of the Broadcast business is down, really around some of the regulatory issues in Europe affecting the emissions standards and production being impacted by adoption of that.OperatorYour next question comes from Gary Mobley with Benchmark. Your line is open.Gary Mobley - The Benchmark Co. LLCGood morning, everyone. Thanks for taking my question. I want to ask about your long-term gross margin outlook. I know you're going to shy away from giving any sort of commentary with respect to fiscal year 2019, but your long-term target is 58% to 60%. You've been consistently running above that throughout all of 2018 and so all mix issues considered how do you feel about the gross margins staying above 60% level at least for the foreseeable future – for fiscal year 2019?George Tyson Tuttle - Silicon Laboratories, Inc.Yes, Gary. This is Tyson. In terms of the long-term gross margin, if you look at the last few quarters, we have been above our product target range of 58% to 60% and that's driven by a few things. One, our Infrastructure business does tend to be at a higher gross margin than the corporate average and with the strength that we've seen there, 35% year-on-year growth in Q3, that has tended to push up the gross margin as well as some of the weakness that we've seen in some areas of the IoT as some of that growth has been a little bit below.We had a little bit of softness in the lighting market. We also had this pause in the smart metering market so that overall the mix has been favorable to gross margin, but at the same time we've been driving costs very, very aggressively. We have a culture where we sell the value of our products and really look at how we can best extract the value in the market and we continue to drive innovation. So it's our goal to maintain a premium gross margin and we're looking in Q4 at 60% to 60.5%. So we still believe that we can continue to do that. I'll let John comment a little bit as well.John Carter Hollister - Silicon Laboratories, Inc.Yeah, Gary. I appreciate the question. I think it's a good indicator of what our engineering and operations teams are capable of doing around optimization of our cost structure. We're holding the 58% to 60%. We've seen some positive results this year. We do continue to be in growth mode and have our eye on greater share gains, so looking forward we're holding the 58% to 60% model at this point.George Tyson Tuttle - Silicon Laboratories, Inc.Yeah. I would like to add one thing which was below the target gross margin was when we decided to go into modules, the modules had some third party content and tended to be a little bit below our corporate gross margin. We have been aggressively driving cost reductions in the modules and as Z-Wave has come in, Z-Wave actually ships mostly in modules, and we've been able to achieve substantial cost reductions on the module manufacturing there, both in manufacturing and in tests, and so we just continue to hammer on this and we'll provide updates as we go forward.Gary Mobley - The Benchmark Co. LLCOkay, here's my follow-up and speaking of IoT modules, can you share with us your thoughts on how the introduction as announced the other day of LTE-M impacts your server available market. Does this open up new use cases for Silicon Labs?George Tyson Tuttle - Silicon Laboratories, Inc.This is – the LTE-M is an area where we currently are partnering with other providers. In this case it was with Digi International and we have a reference design with them using our microcontrollers and have a number of activities in partnership with other manufacturers on the wide area network solutions. Currently we are focused on the local area network and personal area network areas of IoT for our organic development and continue to monitor the wide area network. It would be doing that internally would be an expansion of SAM, but also we have so much opportunity in the local and personal area network spaces. We've decided to focus there and to partner on the wide area network stuff for the time being.Gary Mobley - The Benchmark Co. LLCAll right. Thank you.OperatorYour next question comes from Tore Svanberg with Stifel. Your line is open.Tore Egil Svanberg - Stifel, Nicolaus &amp; Co., Inc.Yes. Thank you and congratulations on the record results. I'm pretty intrigued by this Wireless Xpress technology. Tyson, maybe you can elaborate a little bit more how that stacks up versus what's out there in the marketplace right now from a competition perspective and when should we start to see sort of the benefits of this technology? How it shows up in numbers or share gains, or any other sort of metric we might be able to track?George Tyson Tuttle - Silicon Laboratories, Inc.Yeah. So the whole purpose of Wireless Xpress is to make it easy for customers to get to market quickly without having to write a lot of code and we've been working on – we've been talking about simplicity being the key to scaling IoT for a long time, and it's something that is actually very difficult to do.You have such a wide variety of applications and a lot of different communication standards and it's our goal to try to abstract the complexity of that as much as possible so that our customers can get to market quickly and also our support cost can scale across that broad market. And so the Wireless Xpress is a key stepping stone to getting there. We have a lot of customer activity going on around that. It's very easy for our channel partners to support and that we believe this is especially for the long tail of customers that you're going to see in IoT is really the key to success.We believe that we have not only a best-in-class offering in terms of our protocol stacks and in terms of our hardware and modules and development tools, but we believe that compared to the competition there is really nothing out there that is comparable to the ease of use and completeness of the solution that we've been able to bring. Currently we've got this working on Wi-Fi and Bluetooth and we intend to extend this into other protocols and other types of development within IoT to make things easier, so I think this is one of the cornerstones of our ability to grow and scale the IoT business over time.OperatorYour next question comes from Rajvindra Gill with Needham &amp; Company. Your line is open.Rajvindra S. Gill - Needham &amp; Company LLCYes, thank you, and I echo my congratulations on the IoT revenue. Tyson, a question on isolation. You mentioned that isolation now is 40% of Infrastructure which is a significant improvement, but you mentioned some kind of near-term headwinds. Can you kind of give us more of a long term view if we go into 2019 of how you think about isolation. Should we continue to expect more diverse end markets driving isolation going forward?George Tyson Tuttle - Silicon Laboratories, Inc.Well, isolation is very broadly penetrated into the markets and very channel-friendly and it's grown substantially this year. We've had very strong growth in isolation both in 2017 and 2018. If you look at the growth we've had close to 50% year-on-year growth rates in isolation and that's a good indicator of the strength there. If you look across the end markets you've got power supplies going to the data centers and a lot of industrial equipment. You've got solar inverters. We talked about the traction in the automotive end market, so we feel very good about our penetration. As the business gets larger, it's hard to maintain that kind of level of growth and coming off of such a fast growth we do see that the law of large numbers gets difficult but we still feel very good about the isolation products and our ability to grow those going into 2019 based on our design win traction.Rajvindra S. Gill - Needham &amp; Company LLCAnd for my follow-up, the IoT, if you take out Z-Wave of $13 million or so (00:32:13) the growth was about up 12% year-on-year. So there is still some deceleration from previous year, but it's starting to stabilize. You mentioned UK smart metering starting to see some shipments. That's been a big driver of your IoT business in the past. How do we think about that as we go into 2019? When do you expect the UK government to fully transition to the SMETS2 platform and how that will affect your business positively in 2019?George Tyson Tuttle - Silicon Laboratories, Inc.Right, so we've seen about $20 million of Z-Wave revenue cumulative throughout the partial shipment quarter in Q2 and then followed by a full quarter in Q3. If you pull that out, our IoT growth is somewhat below. It's still double digits, but below the 20% target. That's really isolated to two primary areas. We've seen the smart lighting market. We had anticipated faster growth there and we have seen some softness in the smart lighting market. We do have some nice design wins and do anticipate that coming back as we move into 2019. And then you look at the smart metering market, it's actually been down. We saw a little bit of recovery in Q3. And if you just take those two factors those account for a bit of the – or most of the below-target model performance there. We did have 26% year-on-year growth in IoT organically last year and we're a little bit below, so this 20% is a long-term target. But we do see that in 2019 we've got a number of things that are coming back with the Z-Wave portfolio now at full year as well as the lighting market or just the overall design win traction. We were 80% up on design win dollars Q3 over last year. So we think we've got a lot in the pipeline. We've just got to focus on converting that pipeline into wins and driving revenue growth.Rajvindra S. Gill - Needham &amp; Company LLCThank you.OperatorYour next question comes from Craig Ellis with B. Riley. Your line is open.Craig Ellis - B. Riley FBR, Inc.Thanks for taking the question. And, Tyson, congratulations on the strong IoT growth and the TV tuner shipment milestone. My first question is a follow-up on isolation. You provided in your prepared comments an example of very robust content in the automotive end market and these design wins (00:34:47) in Europe. Is automotive yet a material part of isolation revenues and if not, what would you expect it would, it would get to something that was a material part of that sub-segment?John Carter Hollister - Silicon Laboratories, Inc.Yeah, Craig. This is John. So given the broad diversity of the isolation business, really no single application or opportunity represents a large component of it, but if you sort of order them around the relative significance of the – actually the power supplies and the data center application is the largest opportunity. Automotive is right up there. And we do expect robust growth coming from automotive in the future as the electric vehicle phenomenon continues to take off.Craig Ellis - B. Riley FBR, Inc.That's helpful. And then the follow-up is on the cash position and the increase in the share buyback authorization, but a very robust cash position, a little over $600 million share buyback authorization increase. Is the intent to continue to use share buyback as something to really manage dilution with perhaps priority for cash, inorganic growth or given what we're seeing in the market, has there been any changes? How do you expect to deploy cash? Thanks, guys.John Carter Hollister - Silicon Laboratories, Inc.Yeah, Craig, it's John again. Really no major change in the company's overall strategy in these areas. We are pleased as we expected to have seen strong third quarter operating cash flow coming off of what was a relatively light first half, so that's good. I think the capital deployment strategy remains intact that we will focus on share repurchases on an opportunistic basis and we also continue to be mindful of inorganic opportunities to grow the business in areas that makes sense strategically for the company.Craig Ellis - B. Riley FBR, Inc.Thank you.OperatorYour next question comes from Blayne Curtis with Barclays Capital. Your line is open.Blayne Curtis - Barclays Capital, Inc.Good morning. Thanks for taking my question. I'm just curious and probably a little direct impact, but just curious the impact of tariffs on downstream products and customers and if you've accounted for any of that in your outlook? And then maybe a related point, with the slowdown here just curious if you've seen any change in inventory levels within the channel or your end customers? Thanks.John Carter Hollis</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co. (NYSE:JPM) Q3 2018 Results Earnings Conference Call October 12, 2018  8:30 AM ETExecutivesJamie Dimon - Chairman and CEOMarianne Lake - CFOAnalystsGlenn Schorr - Evercore ISISteve Chubak - Wolfe ResearchBetsy Graseck - Morgan StanleyErika Najarian - Bank of AmericaMike Mayo - Wells Fargo SecuritiesJim Mitchell - Buckingham ResearchJohn McDonald - BernsteinAl Alevizakos - HSBCKen Usdin - JefferiesSaul Martinez - UBSMatt O’Connor - Deutsche BankBrian Kleinhanzl - KBWGerard Cassidy - RBCMarty Mosby - Vining SparksOperatorGood morning, ladies and gentlemen. Welcome to JPMorgan Chase’s Third Quarter 2018 Earnings Call. This call is being recorded. Your line will be muted for the duration of the call. We will now go live to the presentation. Please stand by.At this time, I would like to turn the call over to JPMorgan Chase’s Chairman and CEO, Jamie Dimon; and Chief Financial Officer, Marianne Lake. Ms. Lake, please go ahead.Marianne LakeThank you, operator. Good morning, everyone. I’m going to take you through presentation which is available on our website. Please refer to the disclaimer at the back of the presentation.Starting on page 1. The firm reported net income of $8.4 billion and EPS of $2.34 on revenue of $27.8 billion with the return on tangible common equity of 17%. The result this quarter was strong. Record net income for third quarter even excluding the impact of tax reform with key drivers being higher net interest income across businesses reflecting continued rate normalization and solid growth in both loans and deposits, as well as very strong credit performance across all portfolios.Highlights include, average core loan growth excluding the CIB up 6% year-on-year, card and debit sales as well as client investment assets and merchant processing volumes and consumer were all up double digits. We gained share in global IB fees and across all regions year-to-date and in Asset &amp; Wealth Management, AUM and clients assets were both up 7%.Turning to page 2 and some more detail about our third quarter results. Revenue of $27.8 billion was up $1.4 billion or 5% year-on-year. Net interest income was up $945 million or 7%, reflecting the impact of higher rate, net of lower market NII as well as loan and deposit growth.Noninterest revenue was up $425 million driven by market NII and higher auto lease income, partially offset by markdowns on certain legacy private equity investments.Expense of $15.6 billion was up 7% year-on-year. More than half of the increase relates to investments we’re making in technology, marketing, bankers broadly defined and real estate. And the remainder is driven by revenue related costs, principally higher auto lease depreciation and transaction expenses on higher volumes.Credit trends remained favorable across both consumer and wholesale. For the quarter, credit costs of $950 million were down $500 million year-on-year, driven by changes in consumer reserves.Briefly on page 3, turning to balance sheet and capital. So, little to say here other than as you can see, capital and risk weighted assets remained basically flat quarter-on-quarter with the CET1 ratio of 12%.Moving on to page four and Consumer &amp; Community Banking. CCB generated $4.1 billion of net income and an ROE of 31%. Core loans were up 6% year-on-year, driven by home lending up 10%, business banking up 5%, card up 4% and auto loans and leases up 3%.Deposits grew 4% year-on-year, continuing to outpace the industry although slower than a year ago. According to the recently released FDIC annual survey, we grew at nearly 2 times the average and we were the fastest growing bank in 9 of our top 10 markets. Chase also earned the number one spot in customer satisfaction in the J.D. Power U.S. National Banking Satisfaction Study.Client investment assets were up 14% as we saw clear record net new money flows, more than doubling year-on-year, with flows accounting for more than half of the growth. Card sales volume was up 12% with strength across our portfolio, and we also saw very strong debit sales performance, up 13%.Revenue of $13.3 billion was up 10%. Consumer and business banking revenue up 18% on higher NII, driven by continued margin expansion and deposit growth. Home lending revenue was down 16% as higher rates drive loan spread compression and the smaller markets pressuring production margins. In addition, net servicing revenue was down including the MSR.Card, merchant services, and auto revenue was up 10%, driven by higher card NII on margin expansion and loan growth, higher net card fees on lower acquisition costs predominately offset by lower net interchange and also on higher auto lease volumes. Expense of $7 billion was up 7%, driven by continued investments in technology and by auto lease depreciation. The overhead ratio was 53%.Finally on credit, starting with reserves. This quarter, we built reserves in card of $150 million, largely driven by growth. And we released reserve in the home lending purchased credit-impaired portfolio of $250 million, reflecting improvements in home prices and delinquencies.On charge-offs, there are few moving pieces. Year-on-year charge-offs were down $137 million, driven by a recovery from a reperforming loan sale in home lending this quarter of about $80 million, together with an approximately $50 million charge-off adjustment in auto this period last year.Excluding those, charge-offs were about flat. But, we are seeing improvement across all portfolios except for card. And in card, while charge-offs are up as newer vintages season, they are up less than expected and credit performance remained very strong. At this point, we expect card charge-off rates for the year to be below our guidance at about 310 basis points.Now turning to page five and the Corporate and Investment Bank. CIB reported net income of $2.6 billion, and an ROE of 14% on revenue of $8.8 billion up 3%. In banking, we maintained our number one ranking year-to-date in global IB fees as well as in North America and EMEA, and gained share across regions. For the quarter, IB revenue of $1.7 billion was flat to a strong prior year and we outperformed in a market of sound meaningful as we saw robust activity, particularly in ECM. Equity underwriting fees were up 40%, gaining share across all products with continued strength in IPOs, particularly in technology and healthcare.Advisory fees were down 6% compared to a third quarter record last year, outperforming the market and gaining share year-to-date. And debt underwriting fees were down 11% although better than the market, as our strong lead left positions drove share gains. Looking forward, the overall pipeline remains strong, up solidly from the prior year across products.Moving to markets. Total revenue was $4.4 billion, down 2% or up 1% when adjusting for the impact of tax reform, so another good performance. Fixed income markets revenue was down 6% adjusted with no single predominant driver. We saw mild weakness in rates, financing, credit rating and securitized products as a result of compressed margins and tighter financing spreads in range-bound and competitive markets. This was partly offset by higher activity levels in emerging markets on volatility and commodities returning to more normal levels relative to a weaker prior year.Equities continued the momentum from previous quarters and was up across all segments on the back of strong client activity. Equity revenue was up 17%, reflecting continued share gains in cash and prime and strong performance in corporate derivatives. Treasury services and securities services revenue were $1.2 billion and $1.1 billion, up 12% and 5% year-on-year respectively, driven by higher rates and balances. And securities services also benefited from higher asset-based fees on new client activity. Quarter-on-quarter, securities services revenue was down principally on seasonality and the impacts of the business exit.Finally, expense of $5.2 billion was up 8%, driven by higher legal expense, higher compensation expense as we invest in technology and bankers, and volume related transaction costs.Moving to commercial banking on page six. Another strong quarter for this business with net income of $1.1 billion and an ROE of 21%. Revenue of $2.3 billion was up 6% year-on-year, driven by higher deposit NII. Gross IB revenue of $581 million was flat, although we saw a strong underlying flow of business and pipelines remained robust and active.On deposits, while we continue to benefit from the normalizing rate environment, as expected, balances are down year-on-year and bases are trending higher, as we are seeing some migration at the top end to higher yielding investments.Expense of $853 million was up 7%, as we continue to invest in the business in banker coverage and technology initiatives. Loan balances were up 4% year-on-year and 1% sequentially. In C&amp;I, demand remains muted in the wake of tax reform as well client confidence is high, balance sheet is strong and liquid, and the environment is competitive.For us, C&amp;I loans were up 4% year-on-year and flat sequentially, in line with the industry. But if you decompose it, we’re growing strongly in our expansion markets and specialized industries, growing solidly in our core markets, but are seeing notable offset in tax expense activity, given the mix of our business.CRE loans were up 3% year-on-year, a little less than the industry as we’re seeing increased competition and continue to be very selective. Finally, credit performance remained strong with net recovery of 3 basis points.Moving on to asset and wealth management on page seven. Asset and wealth management reported net income of $724 million with a pretax margin of 27% and an ROE of 31%. Revenue of $3.6 billion was up 3% year-on-year, driven by higher management fees, net of fee compression on higher market levels and continued growth in long-term products. These are partially offset by lower mark-to-market gains, including on seed capital investments.Additionally, banking is also strong. Expense of $2.6 billion was up 7%, driven by continued investments in advisors and technology, as well as high external fees on revenue growth. For the quarter, we saw net long-term inflows of $8 billion with positive flows across all asset classes. In addition, we saw net liquidity inflows of $14 billion. AUM of $2.1 trillion and overall client assets of $2.9 trillion were both up 7% with more than half of the increase being driven by flows and the remainder on higher market.Deposits were down 8% year-on-year, reflecting migration into investments with us, and down 5% sequentially including seasonality. Finally, we had loan balances up 12% with strength in global wholesale and mortgage lending.Moving to page eight and corporate. Corporate reported a net loss of $145 million. Treasury and CIO net income was up year-on-year, primarily driven by higher rates. Other corporate was a net loss of $241 million, including markdowns on certain legacy private equity investments of $220 million pretax. For the whole Company, legal costs were a modest negative, with the benefit here in other corporate being more than offset in the CIB.Moving to page 9 and outlook. We recently gave you updated outlook, so unsurprisingly that still holds and it’s here on the page. Only two things of note. Our expense outlook assumes that the FDIC surcharge ended this quarter. So, clearly an extension would pose a risk. And on tax, there are a number of questions in the rules, which we expect to be clarified by the end of the year. We will have to work through them but would not expect any changes to be material.So to close. We are growing across most of our businesses. We’re investing heavily in all of them. We’re investing in technology, bankers and beyond. Credit is in great shape and the earnings power of the Company is evident. We are particularly proud of the strength and improvement in customer satisfaction broadly and our continued investments which drive leadership positions and market share gains. This quarter, we announced Sapphire Banking and our digital investing platform You Invest. We opened our first branch as part of our expansion strategy in Washington DC, announced additional expansion into Philadelphia and Boston, and also announced our AdvancingCities initiative as we invest for growth in the clients and communities that we serve.With that, operator, please open the line to Q&amp;A.Question-and-Answer SessionOperator[Operator Instructions] Your first question comes from the line of Glenn Schorr with Evercore ISI.Marianne LakeGood morning, Glenn.Glenn SchorrGood morning. So, at the Investor Day, I remember asking you the same question. So, I apologize. But, you have talked about consumer and corporate balance sheets being in great shape and having low debt service burden. The 10-year is up a modest 35 basis points since then and the world is freaking out that it’s the end of the cycle and that’s going to choke off the recovery. Your results are your results but they’re some will say backward looking. Are you seeing any impact, A, at the modest increase in the curve now? And B, I’ll ask again, is there a level of rates where you would start to see an impact of slowdown in what you’re willing to lend rising in credit costs, things like that? Thank you.Marianne LakeYes. So, I would say -- I would sort of pick up on the tone that you had in your question, which is the level of rates is not surprisingly high. And so, from our vantage point we’re not seeing anything in terms of looking at our current dialogue or for that matter at credit trends that would suggest that this is problematic. With higher rates and we do this all the time, we obviously look at all of our portfolio and stress them for shocks of up 100 basis points even up 200, although clearly where we are now, risks are more asymmetric but -- I mean more symmetric. But, there doesn’t seem to be any extraordinary stress that becomes evident, even if you -- obviously, the margin you’re going to get more but it doesn’t seem to be overwhelming. And it speaks, I think to the fact that low rates have been around for long term -- time. People have had the chance to get prepared. There is a lot of liquidity. And in the corporate space in particular, people have been able to hedge. So, is there an absolute level of rates where things will be problematic? At some point, but we don’t think we’re anywhere near there. So, I’m not saying that there couldn’t be select downgrades; I’m not saying that at the margin, there may not be some incremental stress if rates continue to go much higher, but that’s not where we are right now.Glenn SchorrOkay. Thanks very much, Marianne.OperatorYour next question comes from Steve Chubak with Wolfe Research. Steve ChubakSo, I wanted to start with the question on the You Invest launch. As we think about the strategy for the business, I want to understand, is the goal to compete with the incumbents to win new clients or are you simply trying to augment the existing offerings for JPMorgan clients? And it’s really just our effort to understand the long-term strategy, given that the pricing is quite competitive but at the same time, the marketing effort has been fairly minimal so far?Marianne LakeYes. I mean, remember, You Invest, it’s early. Jamie just said, I don’t know if you heard it. Yes and yes. Clearly, we are trying to add products and capabilities and value to our existing clients in an effort to continue to drive loyalty and engagement, and also earn more share of their wallet. But, we do think that the proposition is compelling and that the pricing is disruptive. And we should also expect over time to be able to attract new accounts. So, yes and yes, but it’s early days. We’re going to continue to develop, You Invest, its capabilities to iterate it and improve it. So far, it’s early but good.Steve ChubakAnd just one follow-up for me relating to the commentary on the deposit side. You spoke of some of the headwinds to the deposit growth and these are more industry trends, including yield-seeking behavior on both the commercial and asset management side. I know you’ve given some helpful guidance in terms of the impact of Fed QE unwind as well, in the past. I’m just wondering, is the yield seeking-behavior you’ve seen so far consistent with your expectation, do you still expect to grow deposits as we look out for the next couple of years?Marianne LakeYes. So, the answer is generically yes, as we would have expected. Obviously, we have no crystal ball as to the sort of timing and parts of these things. But, it is paying out arguably little slower than we thought, but like we thought. And I would say that our outlook for deposit growth is -- for it to be slower, but still positive.OperatorThe next question comes from the line of Betsy Graseck with Morgan Stanley.Betsy GraseckSo, first question just on the rate question that you got earlier. But, I wanted to understand how you’re thinking about the impact on the outlook for your asset yields, in particular the securities portfolio. I know you’ve given guidance on that before, but given the sharp backup that we’ve got over the last couple of weeks, how is that impacting your forward look on that?Marianne LakeYes. So, I mean, on the asset side of the balance sheet just a big rule of thumb is that a little less than half of our loans are variable, index sort of prime and LIBOR. And so, what we’ve been seeing -- in any one quarter, there can be noise on one time item mix or whatever else. But, largely speaking, for every rate hike we’ve been seeing on the front end, we’re seeing our assets reprice about half of that and that -- or loans be priced about half of that and that’s what we’d expect. Similarly, if we see sustained increases in the low end of the curve, then we would see that play through into our investment securities yield. Obviously, this quarter while there was a meaningful increase on a spot basis, on average basis that wasn’t the case and particularly not for mortgages. So, it had a modest impact on investment security yields this quarter. But, again, if it was a sustained and more sizeable, we would see that play through yes -- or would rotate the assets into higher book yields over time.Betsy GraseckOkay. And then, my follow-up question has to do with a blockchain that you launched this quarter. I think, it was on September 25th, you launched a blockchain for international payments. And I know at Investor Day, you talked a lot about the investments you were making on that side. Should we be viewing this as a competitor to SWIFT? Is that how the vision is for this blockchain?Marianne LakeSo, this is the Interbank Information Network which we talked at Investor Day. And now, we have I think 75 banks and growing signed up to it. I wouldn’t necessarily look at it exactly like that. I would say, this use case at least for now is very much around reducing the friction in the wholesale payment space in terms of inquiry and information sharing and not at this point about processing payments. So, we are still exploring use cases across the board on blockchain. I’m very excited about this and the uptake; it will be I think meaningful. But, I wouldn’t think of it that way, not yet. OperatorYour next question comes from Erika Najarian with Bank of America. Erika NajarianMy first question expands on what the Glenn had asked. So, clearly, the bank stocks have been hit along with the broad market. And I guess, you’re telling us one of two things. One, either the economy is slowing down or the relationship between bank revenue growth and solid economic growth in the U.S. is broken or not somehow is correlated as expected. And I’m wondering, given your fairly strong results across the board, where is the market wrong in terms of how they’re thinking about either the economy or bank revenues related to a strong economy?Marianne LakeYes. I would just start by saying, I think there is a lot of sort of macro uncertainty, noise and overhang that have been affecting the market over the last few days. So, overthinking any one driver or sort of confusion I think might be challenging. I would say that as we look at the economy, we don’t see it slowing down. It seems to be continuing to grow pretty solidly. There is divergence around the world. So, it’s led by U.S. strength, but still expecting there to be more convergence going forward. So, I actually think that our outlook is still quite optimistic on the global economy, and not to say to James’ point that there are some risks out there.And so, as we -- and also, just to talk about monetary policy for a second. Everything, given that growth outlook, is really sort of lining up for December rate hike and sort of more hikes into 2019 and the continuation hopefully of a steeper yield curve, and that all should be constructive for bank stocks. It is definitely the case that as we’ve been talking about the years now, as the Fed is shrinking its balance sheet and liquidity is coming out of the system, yes, we are seeing deposit growth slow. And there is a natural feedback loop, as you reprice liabilities, you’ll have a natural asset base response. And so you might have slower growth on the asset side relative to the past, but it should be at higher spreads, and that should be how it plays out. So, there is really no change, I don’t think in our expectation of the drivers.Erika NajarianThat’s helpful. And just as a follow-up, and I picked up in part of your response to an earlier question Marianne. As we think about your wholesale loan trends year-over-year which continues to outpace the banking industry. Could you tell us a little bit more about the dynamics in terms of competition from non-banks, particularly in private middle market lending? And I guess, we’re really wondering what you’re observing in terms of competition more in structure rather than rates? And whether or not some of the liquidity that you noted could be drained out of the system, would change the competitive dynamics near term? And sort of what is JPMorgan’s indirect exposure that remains on balance sheet on the sponsor-backed transactions. Sorry, I know that is a lot.Marianne LakeYes. I’ll try to remember all of that. First of all, I would just clarify that when you say wholesale loan growth has been outpacing the industry, I would say that from my recollection, over the course of the last several quarters, we’ve basically been saying in line with, if not maybe even slightly less than in line with the industry, but it is nuance, you need to get beneath it. There are areas where we would fully expect to be growing more strongly than the industry, and those are in our newer expansion markets where we’ve been investing, we’re reaping the benefits of those investments, and we’re growing from a smaller base and deepening into the market. In our core markets, the mature markets, in line to maybe not even quite as we are being cautious given where we are in the cycle. So, I just want to clarify that…Jamie DimonWe haven’t changed our standards.Marianne LakeWe haven’t materially changed our underwriting standards, no. And if anything, I would say, we’re just being cautious of the margin. And with respect to competition outside of banks, it’s definitely true that non-banks are gaining share. And it’s also true that they are structure-wise going to be willing to do and are willing to do things that we are not. And so, for our best clients, we aren’t largely going to lose on price, we would be willing to work on price. But we would walk away on structure. Jamie DimonAnd we don’t have a lot of residual exposure to sponsors doing that kind of lending.Marianne LakeThat’s right.OperatorYour next question comes from Mike Mayo with Wells Fargo Securities.Mike MayoSo, Marianne, look, I mean ROTCE of 17%, you seem to have some deposit market share gained, but year-over-year for the third quarter, expenses are up more than revenues. So, can you highlight the dollar amount of investment spending and how that’s changed and where you are in that progression?Marianne LakeYes. Just before we get into expense for a second, if you step back, just a couple of things. I wouldn’t look at any one quarter when I’m thinking about operating leverage, not to overplay seasonality or anything else. But, I would look at the whole year. And tax reform is an important part of that. So, if you look at year-to-date on a reported basis rather than a managed basis, year-over-year, year-to-date, we have about 200 basis points of positive leverage. So, tax reform is a big factor. And then, obviously, we had some private equity losses which are episodic in this quarter’s revenue print. So, I think there is strong growth across the businesses. So, expense number and investments, our expenses are up over a $1 billion year-on-year, in line outside of FDIC and revenue related costs, in line with the guidance we gave at the Investor Day. So, think about that sort of $2.7 billion of year-over-year investments, and we’re working through it. So, we’re on track. It’s different from revenues insofar as it’s more linear. And so, expenses are in line and leverages -- positive leverages are I think pretty strong.Mike MayoAnd just one separate question for you, Jamie. Your CEO letter highlights the expectation that interest rates would go a lot higher, so I guess for a long -- the track that you laid out. But, it doesn’t seem like the market is digesting it as maybe as well as you might have thought the market would digest. So, it’s basically what you expected. So, what’s different between your expectations and how the recent market’s been reacting?Jamie DimonI think, I noted that the market may not take it that well if rates go up and -- because it’ll surprise people a little, people shouldn’t be surprise. And of course, so many things have changed as we’ve been through this before, like monitory policy, liquidity ratios, capital ratios et cetera. So, I was also pointing out that -- just about probability that rates can go higher, people should be prepared for that; they should not be surprised about it. So, I’m always surprised when people are surprised. And the why is more important? You’re still growing. The economy is strong, rates are going up. Most of us consider it a healthy normalization, and going back to a more of a free market when it comes to asset pricing and interest rates et cetera, and we need that. So, to me, overall, it’s a good thing, particularly because the economy is strong. And so, I do expect rates will continue to go up. We don’t bet the company on that. That’s just my own expectation. I have a -- I would put much higher odds in it being at 4% to most of the people, but again, the economy is strong. So, as long as it’s normalized strong economy, it’s a good thing. The economy could be strong for a while. I mean, Marianne pointed out wage is going up, participation is going up, credit has been written as pristine. Housing is in short supply. Confidence, both small business, consumer is extraordinarily high. And that could drive a lot of growth for a while, in spite of some of the headwinds out there.Marianne LakeI also think -- I mean, not exactly, but if you went back and looked a couple of years ago, what the 2-year forward 10-year rate would look like, it would look much like this. And so, it’s just that it’s been -- because the covers having a hard time pushing up that people are now focused on it, but this is what we would have expected, should expect and higher.OperatorYour next question comes from Jim Mitchell with Buckingham Research.Jim MitchellHey, good morning. Maybe just a quick question on deposits. We’re starting to see some slowing of growth if not outflows in some areas as rates rise. How do you -- but you guys still have a loan to deposit ratio that’s in sort of the mid-60s and you’ve been gaining share on the retail side. What’s your sense of I guess competition for deposit and pricing, particularly in the core retail bank?Marianne LakeYes. So, when we think about the -- well, it’s not really about competition particularly. When we think about the deposit base and the retail consumer relationship, deposits and rate paid is a important part of it, but it’s increasingly less important, not that it’s not significant. And so, when you think about the value that we give to our customers, it’s not just that but it’s also all of the customer experience initiatives that we’ve had, it’s about convenience, about digital mobile capabilities, it’s about launching new products, new services, simplifying the environment for them. So, there’s a lot of different investments and things to play which might make this kind of normalization cycle look a little different. And so, the way we think about it is we look carefully across the spectrum of deposits, retail and wholesale at what we are seeing in terms of flows and balances and elasticity for our customers on our balance sheet. And that’s how we think about our strategy for deposit reprice. And it’s sort of largely behaving as we would have expected.Jamie DimonI’ll just make a macro point too. As the Fed reduces balance sheet -- just say by $1 trillion over the next 18 months or whatever, which they indicated they’re going to do, that’s $1 trillion out of deposits. That will have an effect kind of macro competition and stuff like that. And we try to estimate the big points, is it coming out of wholesale, kind of retail? It’s hard to know. But that will change the competition a little bit for deposits.Jim MitchellOkay, fair enough. And maybe a follow-up on that investment spend. Do you -- I mean obviously, it went up with the Tax Cut helping to accelerate some investments. Do we think of it going forward stabilizing at these high levels, or is this sort of a one-off sort of increase and we might see that come down or do we keep increasing? How do we think about the investment spent needs going forward a little further out?Marianne LakeYes. So, I would say, and first of all obviously, we’ll give you more thoughts on forward-looking guidance at a future date. But just generically, I wouldn’t really put tax reform as being a primary reason for what we’re doing on investments. I would say that we have identified the opportunity to accelerate capabilities that are consistent with our client strategic long-term goals and so we’ve been leaning into that this year. And so, it was a pretty sizable step up this year acknowledging that. We wouldn’t necessarily expect to see that continue. But, we’re going to carry on investing in technology, adding bankers, opening branches, launching new products so that we’re defending the long-term growth and profitability of the Company. And in the absence of giving you guidance, I would just point you to the fact that we’re still targeting -- not targeting, but we’re still expecting an overhead ratio to be around about the mid-50s over the medium term, which on revenue growth, implies we’ll continue to invest and there is also volume-related costs associated with that.OperatorYour next question comes from John McDonald with Bernstein.John McDonaldHi. Good morning. Marianne, I was wondering on the regulatory front, do you any visibility into the future interaction of CCAR process with the new loan loss accounting rules, CECL, particularly in the context of the stress capital buffer potentially being implemented? Because it seems like we could have some overlapping procyclicality and then the potential to freeze that into the run rate capital. So, I was just kind of wondering, is there any visibility yet on that and is that a big area of uncertainty for you?Marianne LakeSo, you hit the nail on the head with both your question and what that could imply. It is a big area of uncertainty. We do not have clarity on capital broadly as it relates to CECL, including whether there will be permanent capital relief and/or how that will play into CCAR. It is one of the most open questions we have. So, right now, what we know is -- as far as I know, anyway that we don’t have to put the CCAR impacted until -- sorry, CECL impact in until CCAR 2020. So, it’s not sort of imminent question, but it’s an important one, and we don’t know the answer.Jamie DimonIt seems to me that every single time there’s a chance to make things more procyclical or less, we make it more procyclical.Marianne LakeThat’s the data for sure. So, we would encourage the dialogue on clarifying capital treatments with large to be at the forefront of standard set of mind. Jamie DimonThis also won’t change our strategy. That’s just accounting.</t>
+  </si>
+  <si>
+    <t>State Street Corporation (NYSE:STT) Q3 2018 Results Earnings Conference Call October 19, 2018  9:30 AM ETExecutivesIlene Fiszel Bieler - Global Head-IRJay Hooley - Chairman and CEOEric Aboaf - CFORon O'Hanley - President and COOAnalystsGlenn Schorr - Evercore ISIBrennan Hawken - UBSKen Usdin - JefferiesBetsy Graseck - Morgan StanleyAlex Blostein - Goldman SachsBrian Bedell - Deutsche BankMike Carrier - Bank of AmericaMike Mayo - Wells FargoJim Mitchell - Buckingham ResearchGeoffrey Elliott - AutonomousSteven Chubak - Wolfe ResearchBrian Kleinhanzl - KBWVivek Juneja - JPMorganGerard Cassidy - RBCOperatorGood morning and welcome to State Street Corporation's Third Quarter of 2018 Earnings Conference Call and Webcast. Today's discussion is being broadcast live on State Street’s website at investors.statestreet.com. This conference call is also being recorded for replay. State Street's conference call is copyrighted and all rights are reserved.This call may not be recorded for rebroadcast or redistribution in whole or in part without the express written authorization from State Street Corporation. The only authorized broadcast of this call will be housed on the State Street’s website.Now, I would like to introduce Ilene Fiszel Bieler, Global Head of Investor Relations at State Street. Ma'am, please go ahead.Ilene Fiszel BielerThank you, Laura. Good morning and thank you all for joining us.On our call today, our Chairman and CEO, Jay Hooley will speak first, then Eric Aboaf, our CFO will take you through our third quarter 2018 earnings slide presentation, which is available for download in the Investor Relations section of our website, investors. statestreet.com. Afterwards, Ron O'Hanley, our President and COO, will join Jay and Eric and we'll be happy to take questions. During the Q&amp;A, please limit yourself to two questions and then re-queue.Before we get started, I would like to remind you that today’s presentation will include adjusted basis and other measures presented on a non-GAAP basis. Reconciliations of these non-GAAP measures to the most directly comparable GAAP or regulatory measure are available in the appendix to our 3Q 2018 slide presentation.In addition, today’s presentation will contain forward-looking statements. Actual results may vary materially from those statements due to a variety of important factors such as those factors referenced in our discussion today. Our forward-looking statements speak only as of today and we disclaim any obligation to update them even if our views change.Now, let me turn it over to Jay.Jay HooleyThanks Ilene, and good morning, everyone.As you've seen, we announced our third quarter financial results this morning. Our third quarter and year-to-date results reflect solid performance across our businesses as we continue to win new business and invest in the future, while reducing legacy costs as we advance our digital transformation.Despite a higher than average share count, third quarter earnings included substantial EPS growth and increased return on equity compared to 3Q 2017. Assets under custody and administration rose to record levels of $34 trillion, a 6% increase year-on-year driven by strength in equity markets and new business wins.We achieve new asset servicing mandates of approximately $300 billion during the quarter, driven by two substantial wins of approximately $90 billion each from the large European client and a top insurance and investment management company.Importantly, year-to-date we've now seen a number of sizable new client business wins, totaling $1.8 trillion and our new business pipeline opportunities remain robust across the franchise, giving us continued confidence about the differentiation in the marketplace from the service and solutions standpoint.Assets under management at State Street Global Advisors were at record levels of $2.8 trillion at the end of the third quarter, up 5% year-on-year and 3% sequentially, reflecting strength in equity markets and ETF inflows driven by the continued success of our low cost product launch late last year and institutional inflows.These positive growth trends within our core franchise were partially offset by market and industry headwinds, leading to overall fee revenue increasing only 2% year-over-year. I'm particularly pleased with our ability to drive costs out of our core business and adapt quickly to the revenue environment we experienced this quarter. We actively brought down expenses for two successive quarters.Beacon continues to deliver significant savings and we have embarked on new productivity initiatives to achieve greater standardization and globalization of our operations and services. These levers equip us to achieve strong expense control as evidenced by the year-to-date increase in our pre-tax margins while continuing to invest for the future.More importantly, these initiatives enable us to create new data-oriented services and will provide the foundation for the integration of Charles River into the industry's first ever front to back office asset servicing platform from a single provider.Let me take a moment to update you on Charles River Development. As you know the acquisition closed October 1, integration is well underway and initial client reaction has been overwhelmingly positive. Charles River is already creating opportunities among new and existing clients.We have our management team in place and are establishing a client advisory board anchored by OMERS. The Ontario Pension Fund, which is a broad based user of Charles River dating back 11 years. We're encouraged by the early reaction to the acquisition and are confident that will enable us to deepen and grow our client base, while delivering positive results for our shareholders.With that let me turn the call over to Eric to take you through the quarter in more detail.Eric AboafThank you, Jay and good morning, everyone.Please turn to Slide 4, where you will find our quarterly results as well as a few notable items from prior quarters. As a reminder, 2Q 2018 include a repositioning charge of $77 million and 3Q 2017 included $26 million gain related to the sale of an equity trading platform, as well as 33 million in restructuring costs. I'll also remind you that 3Q 2018 results include the impact of the new revenue recognition accounting standard. This increased both fee and total expense by $70 million year-over-year but is EBIT neutral.Now let me move to Slide 5, where I will review the quarterly results as well as the year-to-date highlights. Third quarter 2018 EPS increased to a $1.87, up 13% relative to a year ago. ROE was 14%, up a full percentage point and pre-tax margin increased half a point as compared to prior year.3Q 2018 results reflect a disappointing fee revenue environment, largely offset by strength in net interest income and tighter expense control. We achieved positive operating leverage of 80 basis points compared to 3Q 2017. Fee operating leverage, however was negatively impacted by lower than expected fee revenue, which I will touch on shortly.Given the soft fee revenue environment, we intervened on expenses, excluding the impact from revenue recognition and the prior year restructuring charge, we held expense growth to just 1% as compared to last year.Sequentially, we actively flex expenses downwards. Last quarter I told you we would keep second half expenses flat to first half. In 3Q we did just that. Expense control is a key management priority as we navigate the quarterly revenue environment. We are carefully investing in product differentiation that continues to drive new business wins while reducing legacy costs.On a year-to-date basis, we delivered solid results. EPS increased 24% and ROE increased approximately two percentage points. We achieved positive operating leverage of 2.3 percentage points supported by positive momentum in NII and 4% year-to-date servicing fee growth.Pre-tax margin increased approximately 1.5 percentage points, further demonstrating our focus on managing expenses.Now, let me turn to Slide 6 to review AUCA and AUM performance, which increase on both the sequential and year-over-year basis. AUCA increased 6% from 3Q 2017 to 34 trillion. Growth was primarily driven by U.S. market appreciation and several large client installations, partially offset by the previously announced BlackRock transition.In Global Advisors or asset management business, AUM increased 5% from 3Q 2017, driven by strength in U.S. equity markets and new business from ETF mandate's, only partially offset by lower net flows within the institutional and cash segments.Please turn to Slide 7 where I will review 3Q 2018 fee revenue as compared to 3Q 2017. Total fee revenue increased 2%, reflecting higher equity markets and trading activity, as well as the benefit related to revenue recognition. Servicing fee revenue was lower compared to 3Q 2017, as well as compared to 2Q 2018, although it was up 4% on a year-to-date basis.3Q results reflect the previously announced BlackRock transition, which was worth an additional 20 million this quarter, as well as challenging industry conditions. Most important global economic uncertainty has driven investors to the sidelines, causing significant outflows and lower activity across the bulk of the asset management industry. We have also seen some fee pressure and two to three quarters of fund outflows in both the U.S. and Europe, which together creates a downdraft on the industry servicing fees.In emerging markets which typically represent higher per dollar servicing fees were negative both year-over-year and quarter-over-quarter. That said, net new business was strong again this quarter and year-to-date servicing fees are up 4% as I mentioned.Now, let me briefly touch on the other fee revenue lines related to 3Q 2017. Management fees increased 13% benefiting from global equity markets, as well as $50 million related to the new revenue recognition standard. Trading services revenues increased 11%, primarily due to higher FX client volumes.Securities finance fees decreased driven by some balance sheet optimization that is now complete. This provides a base of for which to grow these revenues in line with our balance sheet expansion as I've previously mentioned. Processing fees decreased from 3Q 2017, reflecting a prior year gain partially offset by higher software fees.Moving to Slide 8, NII was up 11% and NIM increased 13 basis points on a fully tax equivalent basis relative to 3Q 2017. NII benefited from higher U.S. interest rates and continued discipline liability pricing, partially offset by continuing mix shift towards HQLA securities in the investment portfolio.NIM increased due to higher NII and a smaller interest earning base due to deposit volume volatility. Deposit betas for the U.S. interest-bearing accounts were relatively unchanged from last quarter, though we expect betas to continue to edge higher in future quarters in line with industry trends.Now, I will turn to Slide 9 to highlight our intense focus on expense discipline, which continued into the third quarter. 3Q 2018 expenses were well controlled relative to 3Q 2017 increasing 3%. Excluding approximately 70 million associated with revenue recognition and a prior year restructuring cost, expenses were up less than 1% from a year ago quarter as we continue to actively manage the cost base. The 1% increase in expenses was due to investments in costs for new business, as well as higher trading volumes, partially offset by Beacon phase.Sequentially, expenses decreased 4% from 2Q, which included the second quarter $7 million repositioning charge. Excluding the charge, expenses were flat, further demonstrating our ability to flex the cost base to the current revenue environment.As I mentioned, this is a second quarter in a row of sequential underlying expense reduction. During 2Q 2018, we reduced incentive compensation. This quarter we reduced vendor and discretionary spend.Quickly, from a line item perspective and relative to 3Q 2017, compensation and employee benefits increased just 1%, reflecting cost for our new business and annual merit increases, partially offset by Beacon savings and new contractor, vendor initiatives, information systems increased, reflecting Beacon-related investments as well as additional investments to support new business growth.Transaction processing cost increased due to the impact of the new revenue recognition standard, offset by sub-custodian savings this quarter. Occupancy costs were down as a result of the continued progress in optimizing our global footprint. And excluding the $38 million impact of revenue recognition, other expenses decreased 3%, reflecting lower discretionary spent such as travel expenses and Beacon-related savings.Turning to Slide 10, let me briefly highlight what actions we have successfully taken to manage expenses relative to the revenue landscape over the last several quarters. On the top of the slide you can see that we achieved $65 million in net Beacon sales this quarter, through our efforts to optimize the core servicing business, transform our IT infrastructure and gain efficiencies within the corporate functions and SSGA.Notably, we are on track to complete Beacon by early 2019, significantly ahead of our original year-end 2020 target. We continue to invest towards a highly digitized environment, including robotics and machine learning, which are driving innovation and cost savings for us and our clients.In addition, as you can see in the bottom panel, we just rolled out a series of new expense initiatives in light of current industry conditions that are affecting quarterly revenues. These total $40 million just this quarter. And additional actions are planned in the fourth quarter.Moving to Slide 11, let me touch on our balance sheet. The size of our investment portfolio remained flat sequentially and well positioned given the rate environment. Our capital ratios increased measurably from 2Q 2018, as a result of our pre-funding related to the Charles River acquisition which we completed on October 1, as well as earnings retention.As a reminder, in late July we issued approximate $1.1 billion of common stock and in September successfully issued $500 million of preferred stock, while temporarily suspending buyback.We fully intend to resume our common stock repurchases in 1Q 2019 and expect to return $600 million to shareholders through 2Q 2019. We also completed the necessary adjustments for our management processes and believe that we are well prepared for CCAR 2019.Moving to Slide 12, let me summarize. Our 3Q 2018 results reflect a continued fund focused on managing expenses in response to the current quarterly revenue environment. The 11% increase in net interest income compared to 3Q 2017 offset in-part the softness in servicing fee revenues I described.Notably, 3Q 2018 pre-tax margin increased to 29.4%, supported by the strength in NII and disciplined expense management. Year-to-date results also reflect solid progress from the 2017 period. We announced new business wins of $1.8 trillion of custodial assets.EPS increased 24% and ROE improved buy almost 2 percentage points or 13.8%. NII increased 17%, reflecting higher U.S. interest rates and our success in managing liability pricing. Calibrating expenses, the revenue generated positive operating leverage of 2.3 percentage points.Let me briefly touch on our 4Q 2018 outlook, which currently excludes the recently completed Charles River acquisition. We expect 4Q 2018 servicing fee revenue to be flattish to 3Q assuming continuing industry conditions and stable market levels. We expect continued sequential NII growth though this always depends on market rates and betas.We expect total expenses only slightly above 3Q levels, but consistent with our expectations to keep second half of 2018 expenses flat to first half excluding the seasonal deferred incentive ramp and repositioning as we actively manage expenses relative to the revenue landscape.As I said these estimates do not yet include acquisition of Charles River that we completed earlier this month. So let me give you some color on that, before I turn the call back to Jay. Although it is early days we're very excited about the opportunities to deliver to our clients the first-ever front-to-back office asset servicing solutions on a single provider.During fourth quarter, we will be giving guidance on revenues and expenses from the Charles River acquisition at an upcoming conference. In 2019, we look forward to providing regular updates to investors and how we are progressing against the revenue and expense synergies that we can communicated on the July earnings call.Now let me hand the call back to Jay.Jay HooleyThanks Eric. And Laura we're now - if you would open-up the call to questions we are available.Question-and-Answer SessionOperator[Operator Instructions] And our first question comes from Glenn Schorr of Evercore ISI.Glenn SchorrA couple of quick ones on the securities portfolio I see, A) the duration extends a little bit I think; B) the yield on the securities book was flat, and C) it now has $1 billion unrealized loss position which I think it's just expansion of the mortgage book but could you mind commenting on those three things?Eric AboafMaybe in reverse order, the OCI position is just one that moves in firstly with rates and so as we have seen the upward rate environment that comes through as a mark on the balance sheet. I think it's within good set of balance of that's - that was to be expected.In terms of the investment portfolio, I think as we described in first quarter and second quarter we continue to remix that portfolio. We have been gently shifting out of credit and into sort of more classic HQLA securities. Though some movements of that this quarter between ABS and Muni's and so forth which resulted in relatively flat yield.The big piece that you have to remember is that we've added and continued to add international foreign debt securities, right German bonds and British gills and that kind of high-grade sovereign.As we do that we do less of the FX swaps back to the U.S. And so our FX swap cost actually came down by nearly $35 million this quarter. And so what you actually see is you see relatively stable yields in the portfolio in aggregate. But if you look down on the interest-bearing liability line for non-U.S. domicile deposits, you see reduced interest expense because we have less of that FX swaps.So just keep in mind that that the FX played through both on the investment portfolios, on the asset side and the liability side as yet read through.Glenn SchorrAnd then there's the further migration at of non-U.S. deposits and it looks like U.S. deposits are up. It also, there is a big drop in the yield paid in the non-U.S. deposits. So is that you purposely migrating those deposits via pricing?Eric AboafNo. This has less to do with rate than just the movement of the domicile from deposits. If you remember, we like many banks had had deposits in the Cayman branches and other, what I'll call offshore but U.S. related areas. Those were always, those were typically U.S. dollar deposits but were classified by the regulatory reporting standards as non U.S. domiciled.So we effectively did is we've closed down that program, it's no longer necessary. It's one of those legacy programs that we and other banks have had. So what's happened is the U.S. deposits which are paid, U.S. interest rates which tend to be higher than foreign deposits interest rates have actually moved out of the non-U.S. mining so the U.S. line which is what brings the non-U.S. line down sequentially and then it just blends into U.S. line.At this point we have made I think two steps of a change of about I want to say almost $20 billion that we have moved. It's now - those moves are completed. And so on a go-forward basis the account should be a little cleaner for you to read through.OperatorOur next question is from Brennan Hawken of UBS.Brennan HawkenFirst question just wanted to follow up Eric on the fourth quarter indication on servicing fees. You had indicated that you expected them to be flat with this third quarter. So I guess the question is, is that based upon the current quarter-to-date action that we see in some of the markets because there is some been some continued EM weakness and I know that's a headwind for you. So does it consider those dynamics? And do you just think that it will be offset by improved volume trends? Or can you give us a little bit more there please?Eric AboafYes. I think when you look quarter-to-quarter it's always - it's a set of small moves and rounding. So we continue to see negative flows in all the public data, whether it's EM but also in the other international markets which will be a bit of a headwind.We've got nearly all of the BlackRock transaction out. We've got I said 10 in the 1Q to 2Q 2020 from 2Q to 3Q. We got $5 more, so that will get to a $35 million run rate so that's nearly finished up. And then - there’s some installations coming through as the pipeline plays out.And then the open question will be what happens to market levels because you know how that plays through our fee structure. So we think it's going to be flattish. I think there is - it's rough estimate for now and kind of an assemblage of those - the composites of those move.Brennan HawkenSo it does consider some of that weakness thank you for clarifying that. Second question being, you previously had indicated an expectation of the fee operating leverage, I want to say that the bottom end of the range was positive 75 bps for the full year. I don't think you included those comments in your prepared remarks. Is there an update to that outlook? How should we think about that? I'm guessing it would be pretty hard to reach that kind of fee operating leverage for the full year, given the first nine months trend?Eric AboafYes Brendan, it's Eric. And I think you've called it right. I gave outlook here. I needed to give outlook either on the flip quarter basis or on a full year basis. And obviously, you guys can model out the other piece either way.But I'd just do it for our fourth quarter, just to give you the direct information. I think if you put together the composites of 1Q plus 2Q plus 3Q, yet in my fourth quarter you'll see that we have good line of sight to many of the targets that we gave in January, but I think fee operating leverage, as you described, will - it's not going to be one of them on a full year basis.That said, we are very focused on controlling what we can control and you've seen us, I think, intervene pretty significantly on expenses and we'll continue to do that as we navigate through the quarterly revenue environment. And that's probably an area, expenses in particular, where I think we will have outperformed our intentions for the year.OperatorOur next question is from Ken Usdin of Jefferies.Ken UsdinEric, can you talk a little bit about - you mentioned that in second quarter you had trimmed back on the incentive comp and then this quarter you made the additional changes to $40 million. I guess, how do we - can you help us understand, given the third quarter results and the fourth quarter outlook, how do we understand where you are in terms of incentive comp overall?Like, is it truing up relative to where the revenues have come from through, part of your fourth quarter outlook for flat expenses? How do you just generally think about, say, you've done in the past, or it's trued up at the end of the year for disappointing revenue trajectory? So just maybe you can hover through some of the moving pieces of how you expect that flat expenses in the fourth to be coming from?Eric AboafSo Ken, let me first describe how we and I think other banks address incentive compensation. Right? At the beginning of the year, we have estimates of where we're going to deliver in terms of revenues and expenses and other NII and total earnings and EPS.As we move through the year, right, we check to see how we are trending against those expectations. First quarter was a good quarter, generally, and there was no need to make any adjustments. And second quarter, right, as we saw that step down around flows and those industry conditions that have started to permeate through the P&amp;L, we came to the clear realization that we weren't going to deliver at least for the first half year. And as a result, we did a year-to-date catch up on incentive compensation. And that was where $40 million, $45 million in terms of reduction in that quarter.This quarter, we've kind of kept that at the adjusted pace. So - but obviously, without the catch up, so the quarters are lumpy. And then in fourth quarter, we'll assess again where we are. But as I said, I think, we have delivered on a number of our objectives and targets that we set out for ourselves and made public, but not all of them. And every one of those targets count.In terms of line of sight into fourth quarter we - there is kind of a comp benefits and a non-comp and benefits of part two to that. Merits already paid through on comp and benefits. I think incentive compensation we kind of have some line of sight to between this quarter, but we need to kind of see how fourth quarter plays out.As you described headcount is important in particular. You remember, in second quarter we took some decisive actions and drove some management delayering right that was a result of the organizational globalization and streamlining that we took upon ourselves to do potential, and so some of that will start to play out as a benefit into fourth quarter. So that's kind of a number of puts and takes for fourth quarter if we think about the comp and benefits line.And then the non-comp and benefits is every vendor and third party spend and discretionary line. We know how we've done this quarter, we have - we reforecast and think about the actions we have taken or intend to take and that gives us some line of sight which is why we said fourth quarter would be up slightly from third quarter. But we think well controlled and deliver nicely in a year-on-year basis.Ken UsdinAnd then second one, just you mention in the slides sec bending business has been changed a little bit due to some of your balance sheet optimization. Can you just talk us through, are you through with that balance sheet optimization? And would you expect sec lending to kind of have formed a base from here? Thanks a lot.Eric AboafYes we are through with the adjustments we needed to make in the sec lending business. That one includes the Classic Agency lending and Enhanced Custody. There has been a number of regulatory rules including CCAR that affect those businesses. We had a condition upon our - of that - we had the conditional approval under CCAR. We did I think some very good work around the analysis and the reporting and the management of counter parties which did include the securities lending area.We now feel like we're complete on those. We have confidence. We are as a result well prepared for CCAR. And when we think about the work we have done, we actually feel like we have also begun to deploy the kinds of future actions or actions today and actions that we can continue in the future that can give us lift and headroom.And so we have implemented a set of additional diversification from the very largest counterparties, the next group, sometimes its U.S. international, sometimes international to U.S. We have done netting and novations that help compress the book in some ways, so you don't have the large puts and takes, but you've got netted down exposure.And then what we've done as effectively systematize many of those tools because those are kind of action tools and we've systemized those in many cases on a day-by-day and even intraday basis. And that gives us confidence that we've been able to now create headroom of which we can grow sec lending on a go-forward basis. Certainly in line with the balance sheet but our intention is that that is a continued growth area.OperatorOur next question is from Betsy Graseck of Morgan Stanley.Betsy GraseckMaybe you could talk a little bit about some of the expense opportunities that you see in may be in the next quarter if you can't do it specifically but over the next year or so? And not only your own benefits from Beacon that you have been generating but what do you expect to get from CRD?Jay HooleyBetsy, this is Jay. Let me start that what Eric would pick up. You mentioned beacon and I think that's a good place to start, because a lot of the expense actions that Eric just reference a few minutes ago are kind of tactical expense actions. I think that for strategically as we have gone through Beacon and its predecessor ITOT the people we go, the better the opportunity looks.We are standardizing activity connecting processes together eliminating human touch we do see reconciliations all of which have multiple benefits. The one you're asking about is the cost benefit. And we'll expire Beacon formerly next year but those opportunities will by no means expire. I mean there are multiyear opportunities to continue to drive greater efficiencies in this core operations around custody accounting globally and you will recall at the back-end of 2017.We reorganize the business so that we're in a better position to take advantage of systematically going at we call it a straight through processing really to reduce the human labor content and the core activities that we conduct. And we've got a long way to go before we get that to a place where we're straight through and it will have huge benefits to clients, it will have huge benefits to the cost line. So there’s plenty to do.Ron O'HanleyBetsy, this is Ron. Let me just add a little bit to what Jay said. Because I think for all the things that we've accomplished to-date, I would say that there is a second order that we can get out of it and let me be specific here.So we've been on this big push to put in place end-to-end processing and that's been enabled by a lot of the automation and changes we've done in Beacon. But there is more that can be done there. I mean, as we do some we find more. As we've stood up, and strengthen our global hubs in India, Hangzhou and Poland they've matured. And they've gotten to the point where it's less about just taking in bits of work and more about taking in whole processes. So that would be one.The second order and third order out of this is we've talked earlier about the de-layering. I would say that we're going – that we're moving into the point where we can do major flattening of the organization as you actually move these processes together. And then lastly, much of the Beacon journey and the technology journey has been about standardizing when we can.The historic core of our client base has been large asset managers. And in many cases in the past that has driven us to customization. We've now learned and what we continue to learn how to standardize as much as possible and move less to customize and more to configure and that in itself will provide more opportunities. So we see ongoing opportunities to reduce expenses without actually in fact impairing client service, but at the same time improving client service.Betsy GraseckAnd how far away do you think you are from fully digital assets capability?Jay HooleyLet me take that Betsy because this is a journey and you can think of the glass as half full because there continues to be opportunities literally in every area. As we've globalize the business and think about somewhat Jay described as straight through processing.Those kinds of opportunities exist that are level of say accounting or custody but they also exist deep down - custody, for example, you can break down into bank loan processing, securities processing, derivative processing.And every one of those in our minds we have – we continue to find more areas as we fully globalize the organization. And so it's hard to say whether we’re in the third inning or the seventh inning. We're Red Sox fans up here so it's a - there's always the temptation to do that. But the truth is there continues to be real substantial opportunities and as we go deeper and deeper and more and more globally through the organization.OperatorOur next question is from Alex Blostein of Goldman Sachs.Alex BlosteinSo I was hoping we could peel back the onion a little bit on what's going on in servicing fees and understanding the quarter-to-quarter dynamic is - could be pretty lumpy. But Eric you mentioned fee pressure a bit more specifically I guess in your prepared remarks. So I was wondering whethe</t>
+  </si>
+  <si>
     <t>Eaton Corp. plc (ETN) CEO Craig Arnold on Q4 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
   </si>
   <si>
@@ -169,7 +265,67 @@
     <t>State Street Corporation (STT) CEO Ron O'Hanley on Q4 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
   </si>
   <si>
-    <t>CallTranscriptID</t>
+    <t>Alphabet (GOOG) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>General Electric (GE) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Eaton Plc (ETN) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>PepsiCo Inc (PEP) CEO Indra Nooyi on Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>The Kraft Heinz (KHC) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Facebook (FB) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Microchip Technology (MCHP) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Silicon Laboratories (SLAB) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co. (JPM) CEO Jamie Dimon on Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>State Street Corporation (STT) CEO Jay Hooley on Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>CT_GOOG_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_GOOGL_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_GE_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_ETN_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_PEP_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_KHC_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_FB_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_MCHP_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_SLAB_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_JPM_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_STT_2018_q4</t>
   </si>
 </sst>
 </file>
@@ -228,12 +384,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,295 +727,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>2018</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>2018</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>2018</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>2018</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>2018</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>2018</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>2018</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>2018</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E11">
+        <v>2018</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>2018</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>2018</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>2018</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>2018</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>2018</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>2018</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <v>2018</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20">
+        <v>2018</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21">
+        <v>2018</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>2018</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>2018</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
